--- a/CH-146 Column Splitting.xlsx
+++ b/CH-146 Column Splitting.xlsx
@@ -8,15 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC10FA2-FCD2-4EE9-AA31-F8E984F12124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2110CBB9-713E-4B42-BE5B-EAA10956EF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Alt1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="TOF2lrxjXLFyjWI8sMwnZl7AlWOYHGWtadYeikRTLE8="/>
     </ext>
@@ -24,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>Question</t>
   </si>
@@ -800,11 +834,38 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="816" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{F9136DCE-43F6-44A6-9BA1-8AE1C5273CDC}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -5078,4 +5139,4329 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D50C197-AE97-4D02-A9C4-400F45DD5EA4}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="38.09765625" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="8.8984375" customWidth="1"/>
+    <col min="7" max="26" width="8.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="23"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="str" cm="1">
+        <f t="array" ref="B12:D17">_xlfn.LET(
+    _xlpm.a, _xlfn.IFNA(
+        _xlfn.TEXTSPLIT(_xlfn.TEXTJOIN(",", 1, B3:B8 &amp; "|00"), "|", ","),
+        "00"
+    ),
+    _xlfn.DROP(_xlfn.SCAN(, _xlpm.a, _xlfn.LAMBDA(_xlpm.x,_xlpm.y, IF(_xlpm.y = "00", "", _xlpm.x &amp; _xlpm.y))), , -1)
+)</f>
+        <v>AX</v>
+      </c>
+      <c r="C12" s="9" t="str">
+        <v>AX12</v>
+      </c>
+      <c r="D12" s="23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="str">
+        <v>A</v>
+      </c>
+      <c r="C13" s="9" t="str">
+        <v>AX</v>
+      </c>
+      <c r="D13" s="23" t="str">
+        <v>AX21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="str">
+        <v>RSN</v>
+      </c>
+      <c r="C14" s="9" t="str">
+        <v>RSN2</v>
+      </c>
+      <c r="D14" s="23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="str">
+        <v>FF</v>
+      </c>
+      <c r="C15" t="str">
+        <v>FF22</v>
+      </c>
+      <c r="D15" s="23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="str">
+        <v>RQ</v>
+      </c>
+      <c r="C16" t="str">
+        <v>RQ1</v>
+      </c>
+      <c r="D16" s="23" t="str">
+        <v>RQ1221</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="str">
+        <v>O22</v>
+      </c>
+      <c r="C17" t="str">
+        <v>O22OO</v>
+      </c>
+      <c r="D17" s="23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="24"/>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="24"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="24"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="24"/>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="24"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="24"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="24"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="24"/>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="24"/>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="24"/>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="28" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="24"/>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="24"/>
+      <c r="D29" s="23"/>
+    </row>
+    <row r="30" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="24"/>
+      <c r="D31" s="23"/>
+    </row>
+    <row r="32" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="24"/>
+      <c r="D32" s="23"/>
+    </row>
+    <row r="33" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="24"/>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="24"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="24"/>
+      <c r="D35" s="23"/>
+    </row>
+    <row r="36" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="24"/>
+      <c r="D36" s="23"/>
+    </row>
+    <row r="37" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="24"/>
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="24"/>
+      <c r="D38" s="23"/>
+    </row>
+    <row r="39" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="24"/>
+      <c r="D39" s="23"/>
+    </row>
+    <row r="40" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="24"/>
+      <c r="D40" s="23"/>
+    </row>
+    <row r="41" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="24"/>
+      <c r="D41" s="23"/>
+    </row>
+    <row r="42" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="24"/>
+      <c r="D42" s="23"/>
+    </row>
+    <row r="43" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="24"/>
+      <c r="D43" s="23"/>
+    </row>
+    <row r="44" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="24"/>
+      <c r="D44" s="23"/>
+    </row>
+    <row r="45" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="24"/>
+      <c r="D45" s="23"/>
+    </row>
+    <row r="46" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="24"/>
+      <c r="D46" s="23"/>
+    </row>
+    <row r="47" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="24"/>
+      <c r="D47" s="23"/>
+    </row>
+    <row r="48" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="24"/>
+      <c r="D48" s="23"/>
+    </row>
+    <row r="49" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="24"/>
+      <c r="D49" s="23"/>
+    </row>
+    <row r="50" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="24"/>
+      <c r="D50" s="23"/>
+    </row>
+    <row r="51" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="24"/>
+      <c r="D51" s="23"/>
+    </row>
+    <row r="52" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="24"/>
+      <c r="D52" s="23"/>
+    </row>
+    <row r="53" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="24"/>
+      <c r="D53" s="23"/>
+    </row>
+    <row r="54" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="24"/>
+      <c r="D54" s="23"/>
+    </row>
+    <row r="55" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="24"/>
+      <c r="D55" s="23"/>
+    </row>
+    <row r="56" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="24"/>
+      <c r="D56" s="23"/>
+    </row>
+    <row r="57" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="24"/>
+      <c r="D57" s="23"/>
+    </row>
+    <row r="58" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="24"/>
+      <c r="D58" s="23"/>
+    </row>
+    <row r="59" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="24"/>
+      <c r="D59" s="23"/>
+    </row>
+    <row r="60" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="24"/>
+      <c r="D60" s="23"/>
+    </row>
+    <row r="61" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="24"/>
+      <c r="D61" s="23"/>
+    </row>
+    <row r="62" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="24"/>
+      <c r="D62" s="23"/>
+    </row>
+    <row r="63" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="24"/>
+      <c r="D63" s="23"/>
+    </row>
+    <row r="64" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="24"/>
+      <c r="D64" s="23"/>
+    </row>
+    <row r="65" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="24"/>
+      <c r="D65" s="23"/>
+    </row>
+    <row r="66" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="24"/>
+      <c r="D66" s="23"/>
+    </row>
+    <row r="67" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="24"/>
+      <c r="D67" s="23"/>
+    </row>
+    <row r="68" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="24"/>
+      <c r="D68" s="23"/>
+    </row>
+    <row r="69" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="24"/>
+      <c r="D69" s="23"/>
+    </row>
+    <row r="70" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="24"/>
+      <c r="D70" s="23"/>
+    </row>
+    <row r="71" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="24"/>
+      <c r="D71" s="23"/>
+    </row>
+    <row r="72" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="24"/>
+      <c r="D72" s="23"/>
+    </row>
+    <row r="73" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="24"/>
+      <c r="D73" s="23"/>
+    </row>
+    <row r="74" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="24"/>
+      <c r="D74" s="23"/>
+    </row>
+    <row r="75" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="24"/>
+      <c r="D75" s="23"/>
+    </row>
+    <row r="76" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="24"/>
+      <c r="D76" s="23"/>
+    </row>
+    <row r="77" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="24"/>
+      <c r="D77" s="23"/>
+    </row>
+    <row r="78" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="24"/>
+      <c r="D78" s="23"/>
+    </row>
+    <row r="79" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="24"/>
+      <c r="D79" s="23"/>
+    </row>
+    <row r="80" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="24"/>
+      <c r="D80" s="23"/>
+    </row>
+    <row r="81" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="24"/>
+      <c r="D81" s="23"/>
+    </row>
+    <row r="82" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="24"/>
+      <c r="D82" s="23"/>
+    </row>
+    <row r="83" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="24"/>
+      <c r="D83" s="23"/>
+    </row>
+    <row r="84" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="24"/>
+      <c r="D84" s="23"/>
+    </row>
+    <row r="85" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="24"/>
+      <c r="D85" s="23"/>
+    </row>
+    <row r="86" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="24"/>
+      <c r="D86" s="23"/>
+    </row>
+    <row r="87" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="24"/>
+      <c r="D87" s="23"/>
+    </row>
+    <row r="88" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="24"/>
+      <c r="D88" s="23"/>
+    </row>
+    <row r="89" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="24"/>
+      <c r="D89" s="23"/>
+    </row>
+    <row r="90" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="24"/>
+      <c r="D90" s="23"/>
+    </row>
+    <row r="91" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="24"/>
+      <c r="D91" s="23"/>
+    </row>
+    <row r="92" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="24"/>
+      <c r="D92" s="23"/>
+    </row>
+    <row r="93" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="24"/>
+      <c r="D93" s="23"/>
+    </row>
+    <row r="94" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="24"/>
+      <c r="D94" s="23"/>
+    </row>
+    <row r="95" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="24"/>
+      <c r="D95" s="23"/>
+    </row>
+    <row r="96" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="24"/>
+      <c r="D96" s="23"/>
+    </row>
+    <row r="97" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="24"/>
+      <c r="D97" s="23"/>
+    </row>
+    <row r="98" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="24"/>
+      <c r="D98" s="23"/>
+    </row>
+    <row r="99" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="24"/>
+      <c r="D99" s="23"/>
+    </row>
+    <row r="100" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="24"/>
+      <c r="D100" s="23"/>
+    </row>
+    <row r="101" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="24"/>
+      <c r="D101" s="23"/>
+    </row>
+    <row r="102" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="24"/>
+      <c r="D102" s="23"/>
+    </row>
+    <row r="103" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="24"/>
+      <c r="D103" s="23"/>
+    </row>
+    <row r="104" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="24"/>
+      <c r="D104" s="23"/>
+    </row>
+    <row r="105" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="24"/>
+      <c r="D105" s="23"/>
+    </row>
+    <row r="106" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="24"/>
+      <c r="D106" s="23"/>
+    </row>
+    <row r="107" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="24"/>
+      <c r="D107" s="23"/>
+    </row>
+    <row r="108" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="24"/>
+      <c r="D108" s="23"/>
+    </row>
+    <row r="109" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="24"/>
+      <c r="D109" s="23"/>
+    </row>
+    <row r="110" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="24"/>
+      <c r="D110" s="23"/>
+    </row>
+    <row r="111" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="24"/>
+      <c r="D111" s="23"/>
+    </row>
+    <row r="112" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="24"/>
+      <c r="D112" s="23"/>
+    </row>
+    <row r="113" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="24"/>
+      <c r="D113" s="23"/>
+    </row>
+    <row r="114" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="24"/>
+      <c r="D114" s="23"/>
+    </row>
+    <row r="115" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="24"/>
+      <c r="D115" s="23"/>
+    </row>
+    <row r="116" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="24"/>
+      <c r="D116" s="23"/>
+    </row>
+    <row r="117" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="24"/>
+      <c r="D117" s="23"/>
+    </row>
+    <row r="118" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="24"/>
+      <c r="D118" s="23"/>
+    </row>
+    <row r="119" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="24"/>
+      <c r="D119" s="23"/>
+    </row>
+    <row r="120" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="24"/>
+      <c r="D120" s="23"/>
+    </row>
+    <row r="121" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="24"/>
+      <c r="D121" s="23"/>
+    </row>
+    <row r="122" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="24"/>
+      <c r="D122" s="23"/>
+    </row>
+    <row r="123" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="24"/>
+      <c r="D123" s="23"/>
+    </row>
+    <row r="124" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="24"/>
+      <c r="D124" s="23"/>
+    </row>
+    <row r="125" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="24"/>
+      <c r="D125" s="23"/>
+    </row>
+    <row r="126" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="24"/>
+      <c r="D126" s="23"/>
+    </row>
+    <row r="127" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="24"/>
+      <c r="D127" s="23"/>
+    </row>
+    <row r="128" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="24"/>
+      <c r="D128" s="23"/>
+    </row>
+    <row r="129" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="24"/>
+      <c r="D129" s="23"/>
+    </row>
+    <row r="130" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="24"/>
+      <c r="D130" s="23"/>
+    </row>
+    <row r="131" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="24"/>
+      <c r="D131" s="23"/>
+    </row>
+    <row r="132" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="24"/>
+      <c r="D132" s="23"/>
+    </row>
+    <row r="133" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="24"/>
+      <c r="D133" s="23"/>
+    </row>
+    <row r="134" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="24"/>
+      <c r="D134" s="23"/>
+    </row>
+    <row r="135" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="24"/>
+      <c r="D135" s="23"/>
+    </row>
+    <row r="136" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="24"/>
+      <c r="D136" s="23"/>
+    </row>
+    <row r="137" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="24"/>
+      <c r="D137" s="23"/>
+    </row>
+    <row r="138" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="24"/>
+      <c r="D138" s="23"/>
+    </row>
+    <row r="139" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="24"/>
+      <c r="D139" s="23"/>
+    </row>
+    <row r="140" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="24"/>
+      <c r="D140" s="23"/>
+    </row>
+    <row r="141" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="24"/>
+      <c r="D141" s="23"/>
+    </row>
+    <row r="142" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="24"/>
+      <c r="D142" s="23"/>
+    </row>
+    <row r="143" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="24"/>
+      <c r="D143" s="23"/>
+    </row>
+    <row r="144" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="24"/>
+      <c r="D144" s="23"/>
+    </row>
+    <row r="145" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="24"/>
+      <c r="D145" s="23"/>
+    </row>
+    <row r="146" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="24"/>
+      <c r="D146" s="23"/>
+    </row>
+    <row r="147" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="24"/>
+      <c r="D147" s="23"/>
+    </row>
+    <row r="148" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="24"/>
+      <c r="D148" s="23"/>
+    </row>
+    <row r="149" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="24"/>
+      <c r="D149" s="23"/>
+    </row>
+    <row r="150" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="24"/>
+      <c r="D150" s="23"/>
+    </row>
+    <row r="151" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="24"/>
+      <c r="D151" s="23"/>
+    </row>
+    <row r="152" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="24"/>
+      <c r="D152" s="23"/>
+    </row>
+    <row r="153" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="24"/>
+      <c r="D153" s="23"/>
+    </row>
+    <row r="154" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="24"/>
+      <c r="D154" s="23"/>
+    </row>
+    <row r="155" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="24"/>
+      <c r="D155" s="23"/>
+    </row>
+    <row r="156" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="24"/>
+      <c r="D156" s="23"/>
+    </row>
+    <row r="157" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="24"/>
+      <c r="D157" s="23"/>
+    </row>
+    <row r="158" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="24"/>
+      <c r="D158" s="23"/>
+    </row>
+    <row r="159" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="24"/>
+      <c r="D159" s="23"/>
+    </row>
+    <row r="160" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="24"/>
+      <c r="D160" s="23"/>
+    </row>
+    <row r="161" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="24"/>
+      <c r="D161" s="23"/>
+    </row>
+    <row r="162" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="24"/>
+      <c r="D162" s="23"/>
+    </row>
+    <row r="163" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="24"/>
+      <c r="D163" s="23"/>
+    </row>
+    <row r="164" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="24"/>
+      <c r="D164" s="23"/>
+    </row>
+    <row r="165" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="24"/>
+      <c r="D165" s="23"/>
+    </row>
+    <row r="166" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="24"/>
+      <c r="D166" s="23"/>
+    </row>
+    <row r="167" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="24"/>
+      <c r="D167" s="23"/>
+    </row>
+    <row r="168" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="24"/>
+      <c r="D168" s="23"/>
+    </row>
+    <row r="169" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="24"/>
+      <c r="D169" s="23"/>
+    </row>
+    <row r="170" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="24"/>
+      <c r="D170" s="23"/>
+    </row>
+    <row r="171" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="24"/>
+      <c r="D171" s="23"/>
+    </row>
+    <row r="172" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="24"/>
+      <c r="D172" s="23"/>
+    </row>
+    <row r="173" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="24"/>
+      <c r="D173" s="23"/>
+    </row>
+    <row r="174" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="24"/>
+      <c r="D174" s="23"/>
+    </row>
+    <row r="175" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="24"/>
+      <c r="D175" s="23"/>
+    </row>
+    <row r="176" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="24"/>
+      <c r="D176" s="23"/>
+    </row>
+    <row r="177" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="24"/>
+      <c r="D177" s="23"/>
+    </row>
+    <row r="178" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="24"/>
+      <c r="D178" s="23"/>
+    </row>
+    <row r="179" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="24"/>
+      <c r="D179" s="23"/>
+    </row>
+    <row r="180" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="24"/>
+      <c r="D180" s="23"/>
+    </row>
+    <row r="181" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="24"/>
+      <c r="D181" s="23"/>
+    </row>
+    <row r="182" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="24"/>
+      <c r="D182" s="23"/>
+    </row>
+    <row r="183" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="24"/>
+      <c r="D183" s="23"/>
+    </row>
+    <row r="184" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="24"/>
+      <c r="D184" s="23"/>
+    </row>
+    <row r="185" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="24"/>
+      <c r="D185" s="23"/>
+    </row>
+    <row r="186" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="24"/>
+      <c r="D186" s="23"/>
+    </row>
+    <row r="187" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="24"/>
+      <c r="D187" s="23"/>
+    </row>
+    <row r="188" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="24"/>
+      <c r="D188" s="23"/>
+    </row>
+    <row r="189" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="24"/>
+      <c r="D189" s="23"/>
+    </row>
+    <row r="190" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="24"/>
+      <c r="D190" s="23"/>
+    </row>
+    <row r="191" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="24"/>
+      <c r="D191" s="23"/>
+    </row>
+    <row r="192" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="24"/>
+      <c r="D192" s="23"/>
+    </row>
+    <row r="193" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="24"/>
+      <c r="D193" s="23"/>
+    </row>
+    <row r="194" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="24"/>
+      <c r="D194" s="23"/>
+    </row>
+    <row r="195" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="24"/>
+      <c r="D195" s="23"/>
+    </row>
+    <row r="196" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="24"/>
+      <c r="D196" s="23"/>
+    </row>
+    <row r="197" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="24"/>
+      <c r="D197" s="23"/>
+    </row>
+    <row r="198" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="24"/>
+      <c r="D198" s="23"/>
+    </row>
+    <row r="199" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="24"/>
+      <c r="D199" s="23"/>
+    </row>
+    <row r="200" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="24"/>
+      <c r="D200" s="23"/>
+    </row>
+    <row r="201" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="24"/>
+      <c r="D201" s="23"/>
+    </row>
+    <row r="202" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="24"/>
+      <c r="D202" s="23"/>
+    </row>
+    <row r="203" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="24"/>
+      <c r="D203" s="23"/>
+    </row>
+    <row r="204" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="24"/>
+      <c r="D204" s="23"/>
+    </row>
+    <row r="205" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="24"/>
+      <c r="D205" s="23"/>
+    </row>
+    <row r="206" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="24"/>
+      <c r="D206" s="23"/>
+    </row>
+    <row r="207" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="24"/>
+      <c r="D207" s="23"/>
+    </row>
+    <row r="208" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="24"/>
+      <c r="D208" s="23"/>
+    </row>
+    <row r="209" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="24"/>
+      <c r="D209" s="23"/>
+    </row>
+    <row r="210" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="24"/>
+      <c r="D210" s="23"/>
+    </row>
+    <row r="211" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="24"/>
+      <c r="D211" s="23"/>
+    </row>
+    <row r="212" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="24"/>
+      <c r="D212" s="23"/>
+    </row>
+    <row r="213" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="24"/>
+      <c r="D213" s="23"/>
+    </row>
+    <row r="214" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="24"/>
+      <c r="D214" s="23"/>
+    </row>
+    <row r="215" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="24"/>
+      <c r="D215" s="23"/>
+    </row>
+    <row r="216" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="24"/>
+      <c r="D216" s="23"/>
+    </row>
+    <row r="217" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="24"/>
+      <c r="D217" s="23"/>
+    </row>
+    <row r="218" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="24"/>
+      <c r="D218" s="23"/>
+    </row>
+    <row r="219" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="24"/>
+      <c r="D219" s="23"/>
+    </row>
+    <row r="220" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="24"/>
+      <c r="D220" s="23"/>
+    </row>
+    <row r="221" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="24"/>
+      <c r="D221" s="23"/>
+    </row>
+    <row r="222" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="24"/>
+      <c r="D222" s="23"/>
+    </row>
+    <row r="223" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="24"/>
+      <c r="D223" s="23"/>
+    </row>
+    <row r="224" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="24"/>
+      <c r="D224" s="23"/>
+    </row>
+    <row r="225" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="24"/>
+      <c r="D225" s="23"/>
+    </row>
+    <row r="226" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="24"/>
+      <c r="D226" s="23"/>
+    </row>
+    <row r="227" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="24"/>
+      <c r="D227" s="23"/>
+    </row>
+    <row r="228" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="24"/>
+      <c r="D228" s="23"/>
+    </row>
+    <row r="229" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="24"/>
+      <c r="D229" s="23"/>
+    </row>
+    <row r="230" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="24"/>
+      <c r="D230" s="23"/>
+    </row>
+    <row r="231" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="24"/>
+      <c r="D231" s="23"/>
+    </row>
+    <row r="232" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="24"/>
+      <c r="D232" s="23"/>
+    </row>
+    <row r="233" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="24"/>
+      <c r="D233" s="23"/>
+    </row>
+    <row r="234" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="24"/>
+      <c r="D234" s="23"/>
+    </row>
+    <row r="235" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="24"/>
+      <c r="D235" s="23"/>
+    </row>
+    <row r="236" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="24"/>
+      <c r="D236" s="23"/>
+    </row>
+    <row r="237" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="24"/>
+      <c r="D237" s="23"/>
+    </row>
+    <row r="238" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="24"/>
+      <c r="D238" s="23"/>
+    </row>
+    <row r="239" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="24"/>
+      <c r="D239" s="23"/>
+    </row>
+    <row r="240" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="24"/>
+      <c r="D240" s="23"/>
+    </row>
+    <row r="241" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="24"/>
+      <c r="D241" s="23"/>
+    </row>
+    <row r="242" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="24"/>
+      <c r="D242" s="23"/>
+    </row>
+    <row r="243" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="24"/>
+      <c r="D243" s="23"/>
+    </row>
+    <row r="244" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="24"/>
+      <c r="D244" s="23"/>
+    </row>
+    <row r="245" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="24"/>
+      <c r="D245" s="23"/>
+    </row>
+    <row r="246" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="24"/>
+      <c r="D246" s="23"/>
+    </row>
+    <row r="247" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="24"/>
+      <c r="D247" s="23"/>
+    </row>
+    <row r="248" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="24"/>
+      <c r="D248" s="23"/>
+    </row>
+    <row r="249" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="24"/>
+      <c r="D249" s="23"/>
+    </row>
+    <row r="250" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="24"/>
+      <c r="D250" s="23"/>
+    </row>
+    <row r="251" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="24"/>
+      <c r="D251" s="23"/>
+    </row>
+    <row r="252" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="24"/>
+      <c r="D252" s="23"/>
+    </row>
+    <row r="253" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="24"/>
+      <c r="D253" s="23"/>
+    </row>
+    <row r="254" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="24"/>
+      <c r="D254" s="23"/>
+    </row>
+    <row r="255" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="24"/>
+      <c r="D255" s="23"/>
+    </row>
+    <row r="256" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="24"/>
+      <c r="D256" s="23"/>
+    </row>
+    <row r="257" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="24"/>
+      <c r="D257" s="23"/>
+    </row>
+    <row r="258" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="24"/>
+      <c r="D258" s="23"/>
+    </row>
+    <row r="259" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="24"/>
+      <c r="D259" s="23"/>
+    </row>
+    <row r="260" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="24"/>
+      <c r="D260" s="23"/>
+    </row>
+    <row r="261" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="24"/>
+      <c r="D261" s="23"/>
+    </row>
+    <row r="262" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="24"/>
+      <c r="D262" s="23"/>
+    </row>
+    <row r="263" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="24"/>
+      <c r="D263" s="23"/>
+    </row>
+    <row r="264" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="24"/>
+      <c r="D264" s="23"/>
+    </row>
+    <row r="265" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="24"/>
+      <c r="D265" s="23"/>
+    </row>
+    <row r="266" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="24"/>
+      <c r="D266" s="23"/>
+    </row>
+    <row r="267" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="24"/>
+      <c r="D267" s="23"/>
+    </row>
+    <row r="268" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="24"/>
+      <c r="D268" s="23"/>
+    </row>
+    <row r="269" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="24"/>
+      <c r="D269" s="23"/>
+    </row>
+    <row r="270" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="24"/>
+      <c r="D270" s="23"/>
+    </row>
+    <row r="271" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="24"/>
+      <c r="D271" s="23"/>
+    </row>
+    <row r="272" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="24"/>
+      <c r="D272" s="23"/>
+    </row>
+    <row r="273" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="24"/>
+      <c r="D273" s="23"/>
+    </row>
+    <row r="274" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="24"/>
+      <c r="D274" s="23"/>
+    </row>
+    <row r="275" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="24"/>
+      <c r="D275" s="23"/>
+    </row>
+    <row r="276" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="24"/>
+      <c r="D276" s="23"/>
+    </row>
+    <row r="277" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="24"/>
+      <c r="D277" s="23"/>
+    </row>
+    <row r="278" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="24"/>
+      <c r="D278" s="23"/>
+    </row>
+    <row r="279" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="24"/>
+      <c r="D279" s="23"/>
+    </row>
+    <row r="280" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="24"/>
+      <c r="D280" s="23"/>
+    </row>
+    <row r="281" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="24"/>
+      <c r="D281" s="23"/>
+    </row>
+    <row r="282" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="24"/>
+      <c r="D282" s="23"/>
+    </row>
+    <row r="283" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="24"/>
+      <c r="D283" s="23"/>
+    </row>
+    <row r="284" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B284" s="24"/>
+      <c r="D284" s="23"/>
+    </row>
+    <row r="285" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="24"/>
+      <c r="D285" s="23"/>
+    </row>
+    <row r="286" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="24"/>
+      <c r="D286" s="23"/>
+    </row>
+    <row r="287" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="24"/>
+      <c r="D287" s="23"/>
+    </row>
+    <row r="288" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="24"/>
+      <c r="D288" s="23"/>
+    </row>
+    <row r="289" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="24"/>
+      <c r="D289" s="23"/>
+    </row>
+    <row r="290" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="24"/>
+      <c r="D290" s="23"/>
+    </row>
+    <row r="291" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="24"/>
+      <c r="D291" s="23"/>
+    </row>
+    <row r="292" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="24"/>
+      <c r="D292" s="23"/>
+    </row>
+    <row r="293" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="24"/>
+      <c r="D293" s="23"/>
+    </row>
+    <row r="294" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="24"/>
+      <c r="D294" s="23"/>
+    </row>
+    <row r="295" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="24"/>
+      <c r="D295" s="23"/>
+    </row>
+    <row r="296" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="24"/>
+      <c r="D296" s="23"/>
+    </row>
+    <row r="297" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="24"/>
+      <c r="D297" s="23"/>
+    </row>
+    <row r="298" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B298" s="24"/>
+      <c r="D298" s="23"/>
+    </row>
+    <row r="299" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B299" s="24"/>
+      <c r="D299" s="23"/>
+    </row>
+    <row r="300" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B300" s="24"/>
+      <c r="D300" s="23"/>
+    </row>
+    <row r="301" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B301" s="24"/>
+      <c r="D301" s="23"/>
+    </row>
+    <row r="302" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B302" s="24"/>
+      <c r="D302" s="23"/>
+    </row>
+    <row r="303" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B303" s="24"/>
+      <c r="D303" s="23"/>
+    </row>
+    <row r="304" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B304" s="24"/>
+      <c r="D304" s="23"/>
+    </row>
+    <row r="305" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B305" s="24"/>
+      <c r="D305" s="23"/>
+    </row>
+    <row r="306" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B306" s="24"/>
+      <c r="D306" s="23"/>
+    </row>
+    <row r="307" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B307" s="24"/>
+      <c r="D307" s="23"/>
+    </row>
+    <row r="308" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="24"/>
+      <c r="D308" s="23"/>
+    </row>
+    <row r="309" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B309" s="24"/>
+      <c r="D309" s="23"/>
+    </row>
+    <row r="310" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B310" s="24"/>
+      <c r="D310" s="23"/>
+    </row>
+    <row r="311" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B311" s="24"/>
+      <c r="D311" s="23"/>
+    </row>
+    <row r="312" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B312" s="24"/>
+      <c r="D312" s="23"/>
+    </row>
+    <row r="313" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B313" s="24"/>
+      <c r="D313" s="23"/>
+    </row>
+    <row r="314" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B314" s="24"/>
+      <c r="D314" s="23"/>
+    </row>
+    <row r="315" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B315" s="24"/>
+      <c r="D315" s="23"/>
+    </row>
+    <row r="316" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B316" s="24"/>
+      <c r="D316" s="23"/>
+    </row>
+    <row r="317" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B317" s="24"/>
+      <c r="D317" s="23"/>
+    </row>
+    <row r="318" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B318" s="24"/>
+      <c r="D318" s="23"/>
+    </row>
+    <row r="319" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B319" s="24"/>
+      <c r="D319" s="23"/>
+    </row>
+    <row r="320" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="24"/>
+      <c r="D320" s="23"/>
+    </row>
+    <row r="321" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B321" s="24"/>
+      <c r="D321" s="23"/>
+    </row>
+    <row r="322" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B322" s="24"/>
+      <c r="D322" s="23"/>
+    </row>
+    <row r="323" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B323" s="24"/>
+      <c r="D323" s="23"/>
+    </row>
+    <row r="324" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B324" s="24"/>
+      <c r="D324" s="23"/>
+    </row>
+    <row r="325" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B325" s="24"/>
+      <c r="D325" s="23"/>
+    </row>
+    <row r="326" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B326" s="24"/>
+      <c r="D326" s="23"/>
+    </row>
+    <row r="327" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B327" s="24"/>
+      <c r="D327" s="23"/>
+    </row>
+    <row r="328" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B328" s="24"/>
+      <c r="D328" s="23"/>
+    </row>
+    <row r="329" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B329" s="24"/>
+      <c r="D329" s="23"/>
+    </row>
+    <row r="330" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B330" s="24"/>
+      <c r="D330" s="23"/>
+    </row>
+    <row r="331" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B331" s="24"/>
+      <c r="D331" s="23"/>
+    </row>
+    <row r="332" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B332" s="24"/>
+      <c r="D332" s="23"/>
+    </row>
+    <row r="333" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B333" s="24"/>
+      <c r="D333" s="23"/>
+    </row>
+    <row r="334" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B334" s="24"/>
+      <c r="D334" s="23"/>
+    </row>
+    <row r="335" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B335" s="24"/>
+      <c r="D335" s="23"/>
+    </row>
+    <row r="336" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B336" s="24"/>
+      <c r="D336" s="23"/>
+    </row>
+    <row r="337" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B337" s="24"/>
+      <c r="D337" s="23"/>
+    </row>
+    <row r="338" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B338" s="24"/>
+      <c r="D338" s="23"/>
+    </row>
+    <row r="339" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B339" s="24"/>
+      <c r="D339" s="23"/>
+    </row>
+    <row r="340" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B340" s="24"/>
+      <c r="D340" s="23"/>
+    </row>
+    <row r="341" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B341" s="24"/>
+      <c r="D341" s="23"/>
+    </row>
+    <row r="342" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B342" s="24"/>
+      <c r="D342" s="23"/>
+    </row>
+    <row r="343" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B343" s="24"/>
+      <c r="D343" s="23"/>
+    </row>
+    <row r="344" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B344" s="24"/>
+      <c r="D344" s="23"/>
+    </row>
+    <row r="345" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B345" s="24"/>
+      <c r="D345" s="23"/>
+    </row>
+    <row r="346" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B346" s="24"/>
+      <c r="D346" s="23"/>
+    </row>
+    <row r="347" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B347" s="24"/>
+      <c r="D347" s="23"/>
+    </row>
+    <row r="348" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B348" s="24"/>
+      <c r="D348" s="23"/>
+    </row>
+    <row r="349" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B349" s="24"/>
+      <c r="D349" s="23"/>
+    </row>
+    <row r="350" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B350" s="24"/>
+      <c r="D350" s="23"/>
+    </row>
+    <row r="351" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B351" s="24"/>
+      <c r="D351" s="23"/>
+    </row>
+    <row r="352" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B352" s="24"/>
+      <c r="D352" s="23"/>
+    </row>
+    <row r="353" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B353" s="24"/>
+      <c r="D353" s="23"/>
+    </row>
+    <row r="354" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B354" s="24"/>
+      <c r="D354" s="23"/>
+    </row>
+    <row r="355" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B355" s="24"/>
+      <c r="D355" s="23"/>
+    </row>
+    <row r="356" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B356" s="24"/>
+      <c r="D356" s="23"/>
+    </row>
+    <row r="357" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B357" s="24"/>
+      <c r="D357" s="23"/>
+    </row>
+    <row r="358" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B358" s="24"/>
+      <c r="D358" s="23"/>
+    </row>
+    <row r="359" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B359" s="24"/>
+      <c r="D359" s="23"/>
+    </row>
+    <row r="360" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B360" s="24"/>
+      <c r="D360" s="23"/>
+    </row>
+    <row r="361" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B361" s="24"/>
+      <c r="D361" s="23"/>
+    </row>
+    <row r="362" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B362" s="24"/>
+      <c r="D362" s="23"/>
+    </row>
+    <row r="363" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B363" s="24"/>
+      <c r="D363" s="23"/>
+    </row>
+    <row r="364" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B364" s="24"/>
+      <c r="D364" s="23"/>
+    </row>
+    <row r="365" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B365" s="24"/>
+      <c r="D365" s="23"/>
+    </row>
+    <row r="366" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B366" s="24"/>
+      <c r="D366" s="23"/>
+    </row>
+    <row r="367" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B367" s="24"/>
+      <c r="D367" s="23"/>
+    </row>
+    <row r="368" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B368" s="24"/>
+      <c r="D368" s="23"/>
+    </row>
+    <row r="369" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B369" s="24"/>
+      <c r="D369" s="23"/>
+    </row>
+    <row r="370" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B370" s="24"/>
+      <c r="D370" s="23"/>
+    </row>
+    <row r="371" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B371" s="24"/>
+      <c r="D371" s="23"/>
+    </row>
+    <row r="372" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B372" s="24"/>
+      <c r="D372" s="23"/>
+    </row>
+    <row r="373" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B373" s="24"/>
+      <c r="D373" s="23"/>
+    </row>
+    <row r="374" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B374" s="24"/>
+      <c r="D374" s="23"/>
+    </row>
+    <row r="375" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B375" s="24"/>
+      <c r="D375" s="23"/>
+    </row>
+    <row r="376" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B376" s="24"/>
+      <c r="D376" s="23"/>
+    </row>
+    <row r="377" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B377" s="24"/>
+      <c r="D377" s="23"/>
+    </row>
+    <row r="378" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B378" s="24"/>
+      <c r="D378" s="23"/>
+    </row>
+    <row r="379" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B379" s="24"/>
+      <c r="D379" s="23"/>
+    </row>
+    <row r="380" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B380" s="24"/>
+      <c r="D380" s="23"/>
+    </row>
+    <row r="381" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B381" s="24"/>
+      <c r="D381" s="23"/>
+    </row>
+    <row r="382" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B382" s="24"/>
+      <c r="D382" s="23"/>
+    </row>
+    <row r="383" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B383" s="24"/>
+      <c r="D383" s="23"/>
+    </row>
+    <row r="384" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B384" s="24"/>
+      <c r="D384" s="23"/>
+    </row>
+    <row r="385" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B385" s="24"/>
+      <c r="D385" s="23"/>
+    </row>
+    <row r="386" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B386" s="24"/>
+      <c r="D386" s="23"/>
+    </row>
+    <row r="387" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B387" s="24"/>
+      <c r="D387" s="23"/>
+    </row>
+    <row r="388" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B388" s="24"/>
+      <c r="D388" s="23"/>
+    </row>
+    <row r="389" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B389" s="24"/>
+      <c r="D389" s="23"/>
+    </row>
+    <row r="390" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B390" s="24"/>
+      <c r="D390" s="23"/>
+    </row>
+    <row r="391" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B391" s="24"/>
+      <c r="D391" s="23"/>
+    </row>
+    <row r="392" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B392" s="24"/>
+      <c r="D392" s="23"/>
+    </row>
+    <row r="393" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B393" s="24"/>
+      <c r="D393" s="23"/>
+    </row>
+    <row r="394" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B394" s="24"/>
+      <c r="D394" s="23"/>
+    </row>
+    <row r="395" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B395" s="24"/>
+      <c r="D395" s="23"/>
+    </row>
+    <row r="396" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B396" s="24"/>
+      <c r="D396" s="23"/>
+    </row>
+    <row r="397" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B397" s="24"/>
+      <c r="D397" s="23"/>
+    </row>
+    <row r="398" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B398" s="24"/>
+      <c r="D398" s="23"/>
+    </row>
+    <row r="399" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B399" s="24"/>
+      <c r="D399" s="23"/>
+    </row>
+    <row r="400" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B400" s="24"/>
+      <c r="D400" s="23"/>
+    </row>
+    <row r="401" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B401" s="24"/>
+      <c r="D401" s="23"/>
+    </row>
+    <row r="402" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B402" s="24"/>
+      <c r="D402" s="23"/>
+    </row>
+    <row r="403" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B403" s="24"/>
+      <c r="D403" s="23"/>
+    </row>
+    <row r="404" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B404" s="24"/>
+      <c r="D404" s="23"/>
+    </row>
+    <row r="405" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B405" s="24"/>
+      <c r="D405" s="23"/>
+    </row>
+    <row r="406" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B406" s="24"/>
+      <c r="D406" s="23"/>
+    </row>
+    <row r="407" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B407" s="24"/>
+      <c r="D407" s="23"/>
+    </row>
+    <row r="408" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B408" s="24"/>
+      <c r="D408" s="23"/>
+    </row>
+    <row r="409" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B409" s="24"/>
+      <c r="D409" s="23"/>
+    </row>
+    <row r="410" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B410" s="24"/>
+      <c r="D410" s="23"/>
+    </row>
+    <row r="411" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B411" s="24"/>
+      <c r="D411" s="23"/>
+    </row>
+    <row r="412" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B412" s="24"/>
+      <c r="D412" s="23"/>
+    </row>
+    <row r="413" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B413" s="24"/>
+      <c r="D413" s="23"/>
+    </row>
+    <row r="414" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B414" s="24"/>
+      <c r="D414" s="23"/>
+    </row>
+    <row r="415" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B415" s="24"/>
+      <c r="D415" s="23"/>
+    </row>
+    <row r="416" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B416" s="24"/>
+      <c r="D416" s="23"/>
+    </row>
+    <row r="417" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B417" s="24"/>
+      <c r="D417" s="23"/>
+    </row>
+    <row r="418" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B418" s="24"/>
+      <c r="D418" s="23"/>
+    </row>
+    <row r="419" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B419" s="24"/>
+      <c r="D419" s="23"/>
+    </row>
+    <row r="420" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B420" s="24"/>
+      <c r="D420" s="23"/>
+    </row>
+    <row r="421" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B421" s="24"/>
+      <c r="D421" s="23"/>
+    </row>
+    <row r="422" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B422" s="24"/>
+      <c r="D422" s="23"/>
+    </row>
+    <row r="423" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B423" s="24"/>
+      <c r="D423" s="23"/>
+    </row>
+    <row r="424" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B424" s="24"/>
+      <c r="D424" s="23"/>
+    </row>
+    <row r="425" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B425" s="24"/>
+      <c r="D425" s="23"/>
+    </row>
+    <row r="426" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B426" s="24"/>
+      <c r="D426" s="23"/>
+    </row>
+    <row r="427" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B427" s="24"/>
+      <c r="D427" s="23"/>
+    </row>
+    <row r="428" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B428" s="24"/>
+      <c r="D428" s="23"/>
+    </row>
+    <row r="429" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B429" s="24"/>
+      <c r="D429" s="23"/>
+    </row>
+    <row r="430" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B430" s="24"/>
+      <c r="D430" s="23"/>
+    </row>
+    <row r="431" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B431" s="24"/>
+      <c r="D431" s="23"/>
+    </row>
+    <row r="432" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B432" s="24"/>
+      <c r="D432" s="23"/>
+    </row>
+    <row r="433" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B433" s="24"/>
+      <c r="D433" s="23"/>
+    </row>
+    <row r="434" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B434" s="24"/>
+      <c r="D434" s="23"/>
+    </row>
+    <row r="435" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B435" s="24"/>
+      <c r="D435" s="23"/>
+    </row>
+    <row r="436" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B436" s="24"/>
+      <c r="D436" s="23"/>
+    </row>
+    <row r="437" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B437" s="24"/>
+      <c r="D437" s="23"/>
+    </row>
+    <row r="438" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B438" s="24"/>
+      <c r="D438" s="23"/>
+    </row>
+    <row r="439" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B439" s="24"/>
+      <c r="D439" s="23"/>
+    </row>
+    <row r="440" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B440" s="24"/>
+      <c r="D440" s="23"/>
+    </row>
+    <row r="441" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B441" s="24"/>
+      <c r="D441" s="23"/>
+    </row>
+    <row r="442" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B442" s="24"/>
+      <c r="D442" s="23"/>
+    </row>
+    <row r="443" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B443" s="24"/>
+      <c r="D443" s="23"/>
+    </row>
+    <row r="444" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B444" s="24"/>
+      <c r="D444" s="23"/>
+    </row>
+    <row r="445" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B445" s="24"/>
+      <c r="D445" s="23"/>
+    </row>
+    <row r="446" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B446" s="24"/>
+      <c r="D446" s="23"/>
+    </row>
+    <row r="447" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B447" s="24"/>
+      <c r="D447" s="23"/>
+    </row>
+    <row r="448" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B448" s="24"/>
+      <c r="D448" s="23"/>
+    </row>
+    <row r="449" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B449" s="24"/>
+      <c r="D449" s="23"/>
+    </row>
+    <row r="450" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B450" s="24"/>
+      <c r="D450" s="23"/>
+    </row>
+    <row r="451" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B451" s="24"/>
+      <c r="D451" s="23"/>
+    </row>
+    <row r="452" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B452" s="24"/>
+      <c r="D452" s="23"/>
+    </row>
+    <row r="453" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B453" s="24"/>
+      <c r="D453" s="23"/>
+    </row>
+    <row r="454" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B454" s="24"/>
+      <c r="D454" s="23"/>
+    </row>
+    <row r="455" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B455" s="24"/>
+      <c r="D455" s="23"/>
+    </row>
+    <row r="456" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B456" s="24"/>
+      <c r="D456" s="23"/>
+    </row>
+    <row r="457" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B457" s="24"/>
+      <c r="D457" s="23"/>
+    </row>
+    <row r="458" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B458" s="24"/>
+      <c r="D458" s="23"/>
+    </row>
+    <row r="459" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B459" s="24"/>
+      <c r="D459" s="23"/>
+    </row>
+    <row r="460" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B460" s="24"/>
+      <c r="D460" s="23"/>
+    </row>
+    <row r="461" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B461" s="24"/>
+      <c r="D461" s="23"/>
+    </row>
+    <row r="462" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B462" s="24"/>
+      <c r="D462" s="23"/>
+    </row>
+    <row r="463" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B463" s="24"/>
+      <c r="D463" s="23"/>
+    </row>
+    <row r="464" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B464" s="24"/>
+      <c r="D464" s="23"/>
+    </row>
+    <row r="465" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B465" s="24"/>
+      <c r="D465" s="23"/>
+    </row>
+    <row r="466" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B466" s="24"/>
+      <c r="D466" s="23"/>
+    </row>
+    <row r="467" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B467" s="24"/>
+      <c r="D467" s="23"/>
+    </row>
+    <row r="468" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B468" s="24"/>
+      <c r="D468" s="23"/>
+    </row>
+    <row r="469" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B469" s="24"/>
+      <c r="D469" s="23"/>
+    </row>
+    <row r="470" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B470" s="24"/>
+      <c r="D470" s="23"/>
+    </row>
+    <row r="471" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B471" s="24"/>
+      <c r="D471" s="23"/>
+    </row>
+    <row r="472" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B472" s="24"/>
+      <c r="D472" s="23"/>
+    </row>
+    <row r="473" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B473" s="24"/>
+      <c r="D473" s="23"/>
+    </row>
+    <row r="474" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B474" s="24"/>
+      <c r="D474" s="23"/>
+    </row>
+    <row r="475" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B475" s="24"/>
+      <c r="D475" s="23"/>
+    </row>
+    <row r="476" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B476" s="24"/>
+      <c r="D476" s="23"/>
+    </row>
+    <row r="477" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B477" s="24"/>
+      <c r="D477" s="23"/>
+    </row>
+    <row r="478" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B478" s="24"/>
+      <c r="D478" s="23"/>
+    </row>
+    <row r="479" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B479" s="24"/>
+      <c r="D479" s="23"/>
+    </row>
+    <row r="480" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B480" s="24"/>
+      <c r="D480" s="23"/>
+    </row>
+    <row r="481" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B481" s="24"/>
+      <c r="D481" s="23"/>
+    </row>
+    <row r="482" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B482" s="24"/>
+      <c r="D482" s="23"/>
+    </row>
+    <row r="483" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B483" s="24"/>
+      <c r="D483" s="23"/>
+    </row>
+    <row r="484" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B484" s="24"/>
+      <c r="D484" s="23"/>
+    </row>
+    <row r="485" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B485" s="24"/>
+      <c r="D485" s="23"/>
+    </row>
+    <row r="486" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B486" s="24"/>
+      <c r="D486" s="23"/>
+    </row>
+    <row r="487" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B487" s="24"/>
+      <c r="D487" s="23"/>
+    </row>
+    <row r="488" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B488" s="24"/>
+      <c r="D488" s="23"/>
+    </row>
+    <row r="489" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B489" s="24"/>
+      <c r="D489" s="23"/>
+    </row>
+    <row r="490" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B490" s="24"/>
+      <c r="D490" s="23"/>
+    </row>
+    <row r="491" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B491" s="24"/>
+      <c r="D491" s="23"/>
+    </row>
+    <row r="492" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B492" s="24"/>
+      <c r="D492" s="23"/>
+    </row>
+    <row r="493" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B493" s="24"/>
+      <c r="D493" s="23"/>
+    </row>
+    <row r="494" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B494" s="24"/>
+      <c r="D494" s="23"/>
+    </row>
+    <row r="495" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B495" s="24"/>
+      <c r="D495" s="23"/>
+    </row>
+    <row r="496" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B496" s="24"/>
+      <c r="D496" s="23"/>
+    </row>
+    <row r="497" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B497" s="24"/>
+      <c r="D497" s="23"/>
+    </row>
+    <row r="498" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B498" s="24"/>
+      <c r="D498" s="23"/>
+    </row>
+    <row r="499" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B499" s="24"/>
+      <c r="D499" s="23"/>
+    </row>
+    <row r="500" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B500" s="24"/>
+      <c r="D500" s="23"/>
+    </row>
+    <row r="501" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B501" s="24"/>
+      <c r="D501" s="23"/>
+    </row>
+    <row r="502" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B502" s="24"/>
+      <c r="D502" s="23"/>
+    </row>
+    <row r="503" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B503" s="24"/>
+      <c r="D503" s="23"/>
+    </row>
+    <row r="504" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B504" s="24"/>
+      <c r="D504" s="23"/>
+    </row>
+    <row r="505" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B505" s="24"/>
+      <c r="D505" s="23"/>
+    </row>
+    <row r="506" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B506" s="24"/>
+      <c r="D506" s="23"/>
+    </row>
+    <row r="507" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B507" s="24"/>
+      <c r="D507" s="23"/>
+    </row>
+    <row r="508" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B508" s="24"/>
+      <c r="D508" s="23"/>
+    </row>
+    <row r="509" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B509" s="24"/>
+      <c r="D509" s="23"/>
+    </row>
+    <row r="510" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B510" s="24"/>
+      <c r="D510" s="23"/>
+    </row>
+    <row r="511" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B511" s="24"/>
+      <c r="D511" s="23"/>
+    </row>
+    <row r="512" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B512" s="24"/>
+      <c r="D512" s="23"/>
+    </row>
+    <row r="513" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B513" s="24"/>
+      <c r="D513" s="23"/>
+    </row>
+    <row r="514" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B514" s="24"/>
+      <c r="D514" s="23"/>
+    </row>
+    <row r="515" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B515" s="24"/>
+      <c r="D515" s="23"/>
+    </row>
+    <row r="516" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B516" s="24"/>
+      <c r="D516" s="23"/>
+    </row>
+    <row r="517" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B517" s="24"/>
+      <c r="D517" s="23"/>
+    </row>
+    <row r="518" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B518" s="24"/>
+      <c r="D518" s="23"/>
+    </row>
+    <row r="519" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B519" s="24"/>
+      <c r="D519" s="23"/>
+    </row>
+    <row r="520" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B520" s="24"/>
+      <c r="D520" s="23"/>
+    </row>
+    <row r="521" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B521" s="24"/>
+      <c r="D521" s="23"/>
+    </row>
+    <row r="522" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B522" s="24"/>
+      <c r="D522" s="23"/>
+    </row>
+    <row r="523" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B523" s="24"/>
+      <c r="D523" s="23"/>
+    </row>
+    <row r="524" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B524" s="24"/>
+      <c r="D524" s="23"/>
+    </row>
+    <row r="525" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B525" s="24"/>
+      <c r="D525" s="23"/>
+    </row>
+    <row r="526" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B526" s="24"/>
+      <c r="D526" s="23"/>
+    </row>
+    <row r="527" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B527" s="24"/>
+      <c r="D527" s="23"/>
+    </row>
+    <row r="528" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B528" s="24"/>
+      <c r="D528" s="23"/>
+    </row>
+    <row r="529" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B529" s="24"/>
+      <c r="D529" s="23"/>
+    </row>
+    <row r="530" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B530" s="24"/>
+      <c r="D530" s="23"/>
+    </row>
+    <row r="531" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B531" s="24"/>
+      <c r="D531" s="23"/>
+    </row>
+    <row r="532" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B532" s="24"/>
+      <c r="D532" s="23"/>
+    </row>
+    <row r="533" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B533" s="24"/>
+      <c r="D533" s="23"/>
+    </row>
+    <row r="534" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B534" s="24"/>
+      <c r="D534" s="23"/>
+    </row>
+    <row r="535" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B535" s="24"/>
+      <c r="D535" s="23"/>
+    </row>
+    <row r="536" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B536" s="24"/>
+      <c r="D536" s="23"/>
+    </row>
+    <row r="537" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B537" s="24"/>
+      <c r="D537" s="23"/>
+    </row>
+    <row r="538" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B538" s="24"/>
+      <c r="D538" s="23"/>
+    </row>
+    <row r="539" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B539" s="24"/>
+      <c r="D539" s="23"/>
+    </row>
+    <row r="540" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B540" s="24"/>
+      <c r="D540" s="23"/>
+    </row>
+    <row r="541" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B541" s="24"/>
+      <c r="D541" s="23"/>
+    </row>
+    <row r="542" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B542" s="24"/>
+      <c r="D542" s="23"/>
+    </row>
+    <row r="543" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B543" s="24"/>
+      <c r="D543" s="23"/>
+    </row>
+    <row r="544" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B544" s="24"/>
+      <c r="D544" s="23"/>
+    </row>
+    <row r="545" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B545" s="24"/>
+      <c r="D545" s="23"/>
+    </row>
+    <row r="546" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B546" s="24"/>
+      <c r="D546" s="23"/>
+    </row>
+    <row r="547" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B547" s="24"/>
+      <c r="D547" s="23"/>
+    </row>
+    <row r="548" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B548" s="24"/>
+      <c r="D548" s="23"/>
+    </row>
+    <row r="549" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B549" s="24"/>
+      <c r="D549" s="23"/>
+    </row>
+    <row r="550" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B550" s="24"/>
+      <c r="D550" s="23"/>
+    </row>
+    <row r="551" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B551" s="24"/>
+      <c r="D551" s="23"/>
+    </row>
+    <row r="552" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B552" s="24"/>
+      <c r="D552" s="23"/>
+    </row>
+    <row r="553" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B553" s="24"/>
+      <c r="D553" s="23"/>
+    </row>
+    <row r="554" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B554" s="24"/>
+      <c r="D554" s="23"/>
+    </row>
+    <row r="555" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B555" s="24"/>
+      <c r="D555" s="23"/>
+    </row>
+    <row r="556" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B556" s="24"/>
+      <c r="D556" s="23"/>
+    </row>
+    <row r="557" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B557" s="24"/>
+      <c r="D557" s="23"/>
+    </row>
+    <row r="558" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B558" s="24"/>
+      <c r="D558" s="23"/>
+    </row>
+    <row r="559" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B559" s="24"/>
+      <c r="D559" s="23"/>
+    </row>
+    <row r="560" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B560" s="24"/>
+      <c r="D560" s="23"/>
+    </row>
+    <row r="561" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B561" s="24"/>
+      <c r="D561" s="23"/>
+    </row>
+    <row r="562" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B562" s="24"/>
+      <c r="D562" s="23"/>
+    </row>
+    <row r="563" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B563" s="24"/>
+      <c r="D563" s="23"/>
+    </row>
+    <row r="564" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B564" s="24"/>
+      <c r="D564" s="23"/>
+    </row>
+    <row r="565" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B565" s="24"/>
+      <c r="D565" s="23"/>
+    </row>
+    <row r="566" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B566" s="24"/>
+      <c r="D566" s="23"/>
+    </row>
+    <row r="567" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B567" s="24"/>
+      <c r="D567" s="23"/>
+    </row>
+    <row r="568" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B568" s="24"/>
+      <c r="D568" s="23"/>
+    </row>
+    <row r="569" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B569" s="24"/>
+      <c r="D569" s="23"/>
+    </row>
+    <row r="570" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B570" s="24"/>
+      <c r="D570" s="23"/>
+    </row>
+    <row r="571" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B571" s="24"/>
+      <c r="D571" s="23"/>
+    </row>
+    <row r="572" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B572" s="24"/>
+      <c r="D572" s="23"/>
+    </row>
+    <row r="573" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B573" s="24"/>
+      <c r="D573" s="23"/>
+    </row>
+    <row r="574" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B574" s="24"/>
+      <c r="D574" s="23"/>
+    </row>
+    <row r="575" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B575" s="24"/>
+      <c r="D575" s="23"/>
+    </row>
+    <row r="576" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B576" s="24"/>
+      <c r="D576" s="23"/>
+    </row>
+    <row r="577" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B577" s="24"/>
+      <c r="D577" s="23"/>
+    </row>
+    <row r="578" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B578" s="24"/>
+      <c r="D578" s="23"/>
+    </row>
+    <row r="579" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B579" s="24"/>
+      <c r="D579" s="23"/>
+    </row>
+    <row r="580" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B580" s="24"/>
+      <c r="D580" s="23"/>
+    </row>
+    <row r="581" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B581" s="24"/>
+      <c r="D581" s="23"/>
+    </row>
+    <row r="582" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B582" s="24"/>
+      <c r="D582" s="23"/>
+    </row>
+    <row r="583" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B583" s="24"/>
+      <c r="D583" s="23"/>
+    </row>
+    <row r="584" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B584" s="24"/>
+      <c r="D584" s="23"/>
+    </row>
+    <row r="585" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B585" s="24"/>
+      <c r="D585" s="23"/>
+    </row>
+    <row r="586" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B586" s="24"/>
+      <c r="D586" s="23"/>
+    </row>
+    <row r="587" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B587" s="24"/>
+      <c r="D587" s="23"/>
+    </row>
+    <row r="588" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B588" s="24"/>
+      <c r="D588" s="23"/>
+    </row>
+    <row r="589" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B589" s="24"/>
+      <c r="D589" s="23"/>
+    </row>
+    <row r="590" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B590" s="24"/>
+      <c r="D590" s="23"/>
+    </row>
+    <row r="591" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B591" s="24"/>
+      <c r="D591" s="23"/>
+    </row>
+    <row r="592" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B592" s="24"/>
+      <c r="D592" s="23"/>
+    </row>
+    <row r="593" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B593" s="24"/>
+      <c r="D593" s="23"/>
+    </row>
+    <row r="594" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B594" s="24"/>
+      <c r="D594" s="23"/>
+    </row>
+    <row r="595" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B595" s="24"/>
+      <c r="D595" s="23"/>
+    </row>
+    <row r="596" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B596" s="24"/>
+      <c r="D596" s="23"/>
+    </row>
+    <row r="597" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B597" s="24"/>
+      <c r="D597" s="23"/>
+    </row>
+    <row r="598" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B598" s="24"/>
+      <c r="D598" s="23"/>
+    </row>
+    <row r="599" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B599" s="24"/>
+      <c r="D599" s="23"/>
+    </row>
+    <row r="600" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B600" s="24"/>
+      <c r="D600" s="23"/>
+    </row>
+    <row r="601" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B601" s="24"/>
+      <c r="D601" s="23"/>
+    </row>
+    <row r="602" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B602" s="24"/>
+      <c r="D602" s="23"/>
+    </row>
+    <row r="603" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B603" s="24"/>
+      <c r="D603" s="23"/>
+    </row>
+    <row r="604" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B604" s="24"/>
+      <c r="D604" s="23"/>
+    </row>
+    <row r="605" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B605" s="24"/>
+      <c r="D605" s="23"/>
+    </row>
+    <row r="606" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B606" s="24"/>
+      <c r="D606" s="23"/>
+    </row>
+    <row r="607" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B607" s="24"/>
+      <c r="D607" s="23"/>
+    </row>
+    <row r="608" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B608" s="24"/>
+      <c r="D608" s="23"/>
+    </row>
+    <row r="609" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B609" s="24"/>
+      <c r="D609" s="23"/>
+    </row>
+    <row r="610" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B610" s="24"/>
+      <c r="D610" s="23"/>
+    </row>
+    <row r="611" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B611" s="24"/>
+      <c r="D611" s="23"/>
+    </row>
+    <row r="612" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B612" s="24"/>
+      <c r="D612" s="23"/>
+    </row>
+    <row r="613" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B613" s="24"/>
+      <c r="D613" s="23"/>
+    </row>
+    <row r="614" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B614" s="24"/>
+      <c r="D614" s="23"/>
+    </row>
+    <row r="615" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B615" s="24"/>
+      <c r="D615" s="23"/>
+    </row>
+    <row r="616" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B616" s="24"/>
+      <c r="D616" s="23"/>
+    </row>
+    <row r="617" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B617" s="24"/>
+      <c r="D617" s="23"/>
+    </row>
+    <row r="618" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B618" s="24"/>
+      <c r="D618" s="23"/>
+    </row>
+    <row r="619" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B619" s="24"/>
+      <c r="D619" s="23"/>
+    </row>
+    <row r="620" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B620" s="24"/>
+      <c r="D620" s="23"/>
+    </row>
+    <row r="621" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B621" s="24"/>
+      <c r="D621" s="23"/>
+    </row>
+    <row r="622" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B622" s="24"/>
+      <c r="D622" s="23"/>
+    </row>
+    <row r="623" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B623" s="24"/>
+      <c r="D623" s="23"/>
+    </row>
+    <row r="624" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B624" s="24"/>
+      <c r="D624" s="23"/>
+    </row>
+    <row r="625" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B625" s="24"/>
+      <c r="D625" s="23"/>
+    </row>
+    <row r="626" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B626" s="24"/>
+      <c r="D626" s="23"/>
+    </row>
+    <row r="627" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B627" s="24"/>
+      <c r="D627" s="23"/>
+    </row>
+    <row r="628" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B628" s="24"/>
+      <c r="D628" s="23"/>
+    </row>
+    <row r="629" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B629" s="24"/>
+      <c r="D629" s="23"/>
+    </row>
+    <row r="630" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B630" s="24"/>
+      <c r="D630" s="23"/>
+    </row>
+    <row r="631" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B631" s="24"/>
+      <c r="D631" s="23"/>
+    </row>
+    <row r="632" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B632" s="24"/>
+      <c r="D632" s="23"/>
+    </row>
+    <row r="633" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B633" s="24"/>
+      <c r="D633" s="23"/>
+    </row>
+    <row r="634" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B634" s="24"/>
+      <c r="D634" s="23"/>
+    </row>
+    <row r="635" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B635" s="24"/>
+      <c r="D635" s="23"/>
+    </row>
+    <row r="636" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B636" s="24"/>
+      <c r="D636" s="23"/>
+    </row>
+    <row r="637" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B637" s="24"/>
+      <c r="D637" s="23"/>
+    </row>
+    <row r="638" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B638" s="24"/>
+      <c r="D638" s="23"/>
+    </row>
+    <row r="639" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B639" s="24"/>
+      <c r="D639" s="23"/>
+    </row>
+    <row r="640" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B640" s="24"/>
+      <c r="D640" s="23"/>
+    </row>
+    <row r="641" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B641" s="24"/>
+      <c r="D641" s="23"/>
+    </row>
+    <row r="642" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B642" s="24"/>
+      <c r="D642" s="23"/>
+    </row>
+    <row r="643" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B643" s="24"/>
+      <c r="D643" s="23"/>
+    </row>
+    <row r="644" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B644" s="24"/>
+      <c r="D644" s="23"/>
+    </row>
+    <row r="645" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B645" s="24"/>
+      <c r="D645" s="23"/>
+    </row>
+    <row r="646" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B646" s="24"/>
+      <c r="D646" s="23"/>
+    </row>
+    <row r="647" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B647" s="24"/>
+      <c r="D647" s="23"/>
+    </row>
+    <row r="648" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B648" s="24"/>
+      <c r="D648" s="23"/>
+    </row>
+    <row r="649" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B649" s="24"/>
+      <c r="D649" s="23"/>
+    </row>
+    <row r="650" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B650" s="24"/>
+      <c r="D650" s="23"/>
+    </row>
+    <row r="651" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B651" s="24"/>
+      <c r="D651" s="23"/>
+    </row>
+    <row r="652" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B652" s="24"/>
+      <c r="D652" s="23"/>
+    </row>
+    <row r="653" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B653" s="24"/>
+      <c r="D653" s="23"/>
+    </row>
+    <row r="654" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B654" s="24"/>
+      <c r="D654" s="23"/>
+    </row>
+    <row r="655" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B655" s="24"/>
+      <c r="D655" s="23"/>
+    </row>
+    <row r="656" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B656" s="24"/>
+      <c r="D656" s="23"/>
+    </row>
+    <row r="657" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B657" s="24"/>
+      <c r="D657" s="23"/>
+    </row>
+    <row r="658" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B658" s="24"/>
+      <c r="D658" s="23"/>
+    </row>
+    <row r="659" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B659" s="24"/>
+      <c r="D659" s="23"/>
+    </row>
+    <row r="660" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B660" s="24"/>
+      <c r="D660" s="23"/>
+    </row>
+    <row r="661" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B661" s="24"/>
+      <c r="D661" s="23"/>
+    </row>
+    <row r="662" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B662" s="24"/>
+      <c r="D662" s="23"/>
+    </row>
+    <row r="663" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B663" s="24"/>
+      <c r="D663" s="23"/>
+    </row>
+    <row r="664" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B664" s="24"/>
+      <c r="D664" s="23"/>
+    </row>
+    <row r="665" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B665" s="24"/>
+      <c r="D665" s="23"/>
+    </row>
+    <row r="666" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B666" s="24"/>
+      <c r="D666" s="23"/>
+    </row>
+    <row r="667" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B667" s="24"/>
+      <c r="D667" s="23"/>
+    </row>
+    <row r="668" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B668" s="24"/>
+      <c r="D668" s="23"/>
+    </row>
+    <row r="669" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B669" s="24"/>
+      <c r="D669" s="23"/>
+    </row>
+    <row r="670" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B670" s="24"/>
+      <c r="D670" s="23"/>
+    </row>
+    <row r="671" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B671" s="24"/>
+      <c r="D671" s="23"/>
+    </row>
+    <row r="672" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B672" s="24"/>
+      <c r="D672" s="23"/>
+    </row>
+    <row r="673" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B673" s="24"/>
+      <c r="D673" s="23"/>
+    </row>
+    <row r="674" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B674" s="24"/>
+      <c r="D674" s="23"/>
+    </row>
+    <row r="675" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B675" s="24"/>
+      <c r="D675" s="23"/>
+    </row>
+    <row r="676" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B676" s="24"/>
+      <c r="D676" s="23"/>
+    </row>
+    <row r="677" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B677" s="24"/>
+      <c r="D677" s="23"/>
+    </row>
+    <row r="678" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B678" s="24"/>
+      <c r="D678" s="23"/>
+    </row>
+    <row r="679" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B679" s="24"/>
+      <c r="D679" s="23"/>
+    </row>
+    <row r="680" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B680" s="24"/>
+      <c r="D680" s="23"/>
+    </row>
+    <row r="681" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B681" s="24"/>
+      <c r="D681" s="23"/>
+    </row>
+    <row r="682" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B682" s="24"/>
+      <c r="D682" s="23"/>
+    </row>
+    <row r="683" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B683" s="24"/>
+      <c r="D683" s="23"/>
+    </row>
+    <row r="684" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B684" s="24"/>
+      <c r="D684" s="23"/>
+    </row>
+    <row r="685" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B685" s="24"/>
+      <c r="D685" s="23"/>
+    </row>
+    <row r="686" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B686" s="24"/>
+      <c r="D686" s="23"/>
+    </row>
+    <row r="687" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B687" s="24"/>
+      <c r="D687" s="23"/>
+    </row>
+    <row r="688" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B688" s="24"/>
+      <c r="D688" s="23"/>
+    </row>
+    <row r="689" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B689" s="24"/>
+      <c r="D689" s="23"/>
+    </row>
+    <row r="690" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B690" s="24"/>
+      <c r="D690" s="23"/>
+    </row>
+    <row r="691" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B691" s="24"/>
+      <c r="D691" s="23"/>
+    </row>
+    <row r="692" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B692" s="24"/>
+      <c r="D692" s="23"/>
+    </row>
+    <row r="693" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B693" s="24"/>
+      <c r="D693" s="23"/>
+    </row>
+    <row r="694" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B694" s="24"/>
+      <c r="D694" s="23"/>
+    </row>
+    <row r="695" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B695" s="24"/>
+      <c r="D695" s="23"/>
+    </row>
+    <row r="696" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B696" s="24"/>
+      <c r="D696" s="23"/>
+    </row>
+    <row r="697" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B697" s="24"/>
+      <c r="D697" s="23"/>
+    </row>
+    <row r="698" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B698" s="24"/>
+      <c r="D698" s="23"/>
+    </row>
+    <row r="699" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B699" s="24"/>
+      <c r="D699" s="23"/>
+    </row>
+    <row r="700" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B700" s="24"/>
+      <c r="D700" s="23"/>
+    </row>
+    <row r="701" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B701" s="24"/>
+      <c r="D701" s="23"/>
+    </row>
+    <row r="702" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B702" s="24"/>
+      <c r="D702" s="23"/>
+    </row>
+    <row r="703" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B703" s="24"/>
+      <c r="D703" s="23"/>
+    </row>
+    <row r="704" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B704" s="24"/>
+      <c r="D704" s="23"/>
+    </row>
+    <row r="705" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B705" s="24"/>
+      <c r="D705" s="23"/>
+    </row>
+    <row r="706" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B706" s="24"/>
+      <c r="D706" s="23"/>
+    </row>
+    <row r="707" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B707" s="24"/>
+      <c r="D707" s="23"/>
+    </row>
+    <row r="708" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B708" s="24"/>
+      <c r="D708" s="23"/>
+    </row>
+    <row r="709" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B709" s="24"/>
+      <c r="D709" s="23"/>
+    </row>
+    <row r="710" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B710" s="24"/>
+      <c r="D710" s="23"/>
+    </row>
+    <row r="711" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B711" s="24"/>
+      <c r="D711" s="23"/>
+    </row>
+    <row r="712" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B712" s="24"/>
+      <c r="D712" s="23"/>
+    </row>
+    <row r="713" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B713" s="24"/>
+      <c r="D713" s="23"/>
+    </row>
+    <row r="714" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B714" s="24"/>
+      <c r="D714" s="23"/>
+    </row>
+    <row r="715" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B715" s="24"/>
+      <c r="D715" s="23"/>
+    </row>
+    <row r="716" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B716" s="24"/>
+      <c r="D716" s="23"/>
+    </row>
+    <row r="717" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B717" s="24"/>
+      <c r="D717" s="23"/>
+    </row>
+    <row r="718" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B718" s="24"/>
+      <c r="D718" s="23"/>
+    </row>
+    <row r="719" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B719" s="24"/>
+      <c r="D719" s="23"/>
+    </row>
+    <row r="720" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B720" s="24"/>
+      <c r="D720" s="23"/>
+    </row>
+    <row r="721" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B721" s="24"/>
+      <c r="D721" s="23"/>
+    </row>
+    <row r="722" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B722" s="24"/>
+      <c r="D722" s="23"/>
+    </row>
+    <row r="723" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B723" s="24"/>
+      <c r="D723" s="23"/>
+    </row>
+    <row r="724" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B724" s="24"/>
+      <c r="D724" s="23"/>
+    </row>
+    <row r="725" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B725" s="24"/>
+      <c r="D725" s="23"/>
+    </row>
+    <row r="726" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B726" s="24"/>
+      <c r="D726" s="23"/>
+    </row>
+    <row r="727" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B727" s="24"/>
+      <c r="D727" s="23"/>
+    </row>
+    <row r="728" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B728" s="24"/>
+      <c r="D728" s="23"/>
+    </row>
+    <row r="729" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B729" s="24"/>
+      <c r="D729" s="23"/>
+    </row>
+    <row r="730" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B730" s="24"/>
+      <c r="D730" s="23"/>
+    </row>
+    <row r="731" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B731" s="24"/>
+      <c r="D731" s="23"/>
+    </row>
+    <row r="732" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B732" s="24"/>
+      <c r="D732" s="23"/>
+    </row>
+    <row r="733" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B733" s="24"/>
+      <c r="D733" s="23"/>
+    </row>
+    <row r="734" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B734" s="24"/>
+      <c r="D734" s="23"/>
+    </row>
+    <row r="735" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B735" s="24"/>
+      <c r="D735" s="23"/>
+    </row>
+    <row r="736" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B736" s="24"/>
+      <c r="D736" s="23"/>
+    </row>
+    <row r="737" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B737" s="24"/>
+      <c r="D737" s="23"/>
+    </row>
+    <row r="738" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B738" s="24"/>
+      <c r="D738" s="23"/>
+    </row>
+    <row r="739" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B739" s="24"/>
+      <c r="D739" s="23"/>
+    </row>
+    <row r="740" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B740" s="24"/>
+      <c r="D740" s="23"/>
+    </row>
+    <row r="741" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B741" s="24"/>
+      <c r="D741" s="23"/>
+    </row>
+    <row r="742" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B742" s="24"/>
+      <c r="D742" s="23"/>
+    </row>
+    <row r="743" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B743" s="24"/>
+      <c r="D743" s="23"/>
+    </row>
+    <row r="744" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B744" s="24"/>
+      <c r="D744" s="23"/>
+    </row>
+    <row r="745" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B745" s="24"/>
+      <c r="D745" s="23"/>
+    </row>
+    <row r="746" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B746" s="24"/>
+      <c r="D746" s="23"/>
+    </row>
+    <row r="747" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B747" s="24"/>
+      <c r="D747" s="23"/>
+    </row>
+    <row r="748" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B748" s="24"/>
+      <c r="D748" s="23"/>
+    </row>
+    <row r="749" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B749" s="24"/>
+      <c r="D749" s="23"/>
+    </row>
+    <row r="750" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B750" s="24"/>
+      <c r="D750" s="23"/>
+    </row>
+    <row r="751" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B751" s="24"/>
+      <c r="D751" s="23"/>
+    </row>
+    <row r="752" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B752" s="24"/>
+      <c r="D752" s="23"/>
+    </row>
+    <row r="753" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B753" s="24"/>
+      <c r="D753" s="23"/>
+    </row>
+    <row r="754" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B754" s="24"/>
+      <c r="D754" s="23"/>
+    </row>
+    <row r="755" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B755" s="24"/>
+      <c r="D755" s="23"/>
+    </row>
+    <row r="756" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B756" s="24"/>
+      <c r="D756" s="23"/>
+    </row>
+    <row r="757" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B757" s="24"/>
+      <c r="D757" s="23"/>
+    </row>
+    <row r="758" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B758" s="24"/>
+      <c r="D758" s="23"/>
+    </row>
+    <row r="759" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B759" s="24"/>
+      <c r="D759" s="23"/>
+    </row>
+    <row r="760" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B760" s="24"/>
+      <c r="D760" s="23"/>
+    </row>
+    <row r="761" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B761" s="24"/>
+      <c r="D761" s="23"/>
+    </row>
+    <row r="762" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B762" s="24"/>
+      <c r="D762" s="23"/>
+    </row>
+    <row r="763" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B763" s="24"/>
+      <c r="D763" s="23"/>
+    </row>
+    <row r="764" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B764" s="24"/>
+      <c r="D764" s="23"/>
+    </row>
+    <row r="765" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B765" s="24"/>
+      <c r="D765" s="23"/>
+    </row>
+    <row r="766" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B766" s="24"/>
+      <c r="D766" s="23"/>
+    </row>
+    <row r="767" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B767" s="24"/>
+      <c r="D767" s="23"/>
+    </row>
+    <row r="768" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B768" s="24"/>
+      <c r="D768" s="23"/>
+    </row>
+    <row r="769" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B769" s="24"/>
+      <c r="D769" s="23"/>
+    </row>
+    <row r="770" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B770" s="24"/>
+      <c r="D770" s="23"/>
+    </row>
+    <row r="771" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B771" s="24"/>
+      <c r="D771" s="23"/>
+    </row>
+    <row r="772" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B772" s="24"/>
+      <c r="D772" s="23"/>
+    </row>
+    <row r="773" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B773" s="24"/>
+      <c r="D773" s="23"/>
+    </row>
+    <row r="774" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B774" s="24"/>
+      <c r="D774" s="23"/>
+    </row>
+    <row r="775" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B775" s="24"/>
+      <c r="D775" s="23"/>
+    </row>
+    <row r="776" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B776" s="24"/>
+      <c r="D776" s="23"/>
+    </row>
+    <row r="777" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B777" s="24"/>
+      <c r="D777" s="23"/>
+    </row>
+    <row r="778" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B778" s="24"/>
+      <c r="D778" s="23"/>
+    </row>
+    <row r="779" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B779" s="24"/>
+      <c r="D779" s="23"/>
+    </row>
+    <row r="780" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B780" s="24"/>
+      <c r="D780" s="23"/>
+    </row>
+    <row r="781" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B781" s="24"/>
+      <c r="D781" s="23"/>
+    </row>
+    <row r="782" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B782" s="24"/>
+      <c r="D782" s="23"/>
+    </row>
+    <row r="783" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B783" s="24"/>
+      <c r="D783" s="23"/>
+    </row>
+    <row r="784" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B784" s="24"/>
+      <c r="D784" s="23"/>
+    </row>
+    <row r="785" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B785" s="24"/>
+      <c r="D785" s="23"/>
+    </row>
+    <row r="786" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B786" s="24"/>
+      <c r="D786" s="23"/>
+    </row>
+    <row r="787" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B787" s="24"/>
+      <c r="D787" s="23"/>
+    </row>
+    <row r="788" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B788" s="24"/>
+      <c r="D788" s="23"/>
+    </row>
+    <row r="789" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B789" s="24"/>
+      <c r="D789" s="23"/>
+    </row>
+    <row r="790" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B790" s="24"/>
+      <c r="D790" s="23"/>
+    </row>
+    <row r="791" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B791" s="24"/>
+      <c r="D791" s="23"/>
+    </row>
+    <row r="792" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B792" s="24"/>
+      <c r="D792" s="23"/>
+    </row>
+    <row r="793" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B793" s="24"/>
+      <c r="D793" s="23"/>
+    </row>
+    <row r="794" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B794" s="24"/>
+      <c r="D794" s="23"/>
+    </row>
+    <row r="795" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B795" s="24"/>
+      <c r="D795" s="23"/>
+    </row>
+    <row r="796" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B796" s="24"/>
+      <c r="D796" s="23"/>
+    </row>
+    <row r="797" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B797" s="24"/>
+      <c r="D797" s="23"/>
+    </row>
+    <row r="798" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B798" s="24"/>
+      <c r="D798" s="23"/>
+    </row>
+    <row r="799" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B799" s="24"/>
+      <c r="D799" s="23"/>
+    </row>
+    <row r="800" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B800" s="24"/>
+      <c r="D800" s="23"/>
+    </row>
+    <row r="801" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B801" s="24"/>
+      <c r="D801" s="23"/>
+    </row>
+    <row r="802" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B802" s="24"/>
+      <c r="D802" s="23"/>
+    </row>
+    <row r="803" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B803" s="24"/>
+      <c r="D803" s="23"/>
+    </row>
+    <row r="804" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B804" s="24"/>
+      <c r="D804" s="23"/>
+    </row>
+    <row r="805" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B805" s="24"/>
+      <c r="D805" s="23"/>
+    </row>
+    <row r="806" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B806" s="24"/>
+      <c r="D806" s="23"/>
+    </row>
+    <row r="807" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B807" s="24"/>
+      <c r="D807" s="23"/>
+    </row>
+    <row r="808" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B808" s="24"/>
+      <c r="D808" s="23"/>
+    </row>
+    <row r="809" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B809" s="24"/>
+      <c r="D809" s="23"/>
+    </row>
+    <row r="810" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B810" s="24"/>
+      <c r="D810" s="23"/>
+    </row>
+    <row r="811" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B811" s="24"/>
+      <c r="D811" s="23"/>
+    </row>
+    <row r="812" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B812" s="24"/>
+      <c r="D812" s="23"/>
+    </row>
+    <row r="813" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B813" s="24"/>
+      <c r="D813" s="23"/>
+    </row>
+    <row r="814" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B814" s="24"/>
+      <c r="D814" s="23"/>
+    </row>
+    <row r="815" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B815" s="24"/>
+      <c r="D815" s="23"/>
+    </row>
+    <row r="816" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B816" s="24"/>
+      <c r="D816" s="23"/>
+    </row>
+    <row r="817" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B817" s="24"/>
+      <c r="D817" s="23"/>
+    </row>
+    <row r="818" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B818" s="24"/>
+      <c r="D818" s="23"/>
+    </row>
+    <row r="819" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B819" s="24"/>
+      <c r="D819" s="23"/>
+    </row>
+    <row r="820" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B820" s="24"/>
+      <c r="D820" s="23"/>
+    </row>
+    <row r="821" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B821" s="24"/>
+      <c r="D821" s="23"/>
+    </row>
+    <row r="822" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B822" s="24"/>
+      <c r="D822" s="23"/>
+    </row>
+    <row r="823" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B823" s="24"/>
+      <c r="D823" s="23"/>
+    </row>
+    <row r="824" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B824" s="24"/>
+      <c r="D824" s="23"/>
+    </row>
+    <row r="825" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B825" s="24"/>
+      <c r="D825" s="23"/>
+    </row>
+    <row r="826" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B826" s="24"/>
+      <c r="D826" s="23"/>
+    </row>
+    <row r="827" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B827" s="24"/>
+      <c r="D827" s="23"/>
+    </row>
+    <row r="828" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B828" s="24"/>
+      <c r="D828" s="23"/>
+    </row>
+    <row r="829" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B829" s="24"/>
+      <c r="D829" s="23"/>
+    </row>
+    <row r="830" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B830" s="24"/>
+      <c r="D830" s="23"/>
+    </row>
+    <row r="831" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B831" s="24"/>
+      <c r="D831" s="23"/>
+    </row>
+    <row r="832" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B832" s="24"/>
+      <c r="D832" s="23"/>
+    </row>
+    <row r="833" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B833" s="24"/>
+      <c r="D833" s="23"/>
+    </row>
+    <row r="834" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B834" s="24"/>
+      <c r="D834" s="23"/>
+    </row>
+    <row r="835" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B835" s="24"/>
+      <c r="D835" s="23"/>
+    </row>
+    <row r="836" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B836" s="24"/>
+      <c r="D836" s="23"/>
+    </row>
+    <row r="837" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B837" s="24"/>
+      <c r="D837" s="23"/>
+    </row>
+    <row r="838" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B838" s="24"/>
+      <c r="D838" s="23"/>
+    </row>
+    <row r="839" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B839" s="24"/>
+      <c r="D839" s="23"/>
+    </row>
+    <row r="840" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B840" s="24"/>
+      <c r="D840" s="23"/>
+    </row>
+    <row r="841" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B841" s="24"/>
+      <c r="D841" s="23"/>
+    </row>
+    <row r="842" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B842" s="24"/>
+      <c r="D842" s="23"/>
+    </row>
+    <row r="843" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B843" s="24"/>
+      <c r="D843" s="23"/>
+    </row>
+    <row r="844" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B844" s="24"/>
+      <c r="D844" s="23"/>
+    </row>
+    <row r="845" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B845" s="24"/>
+      <c r="D845" s="23"/>
+    </row>
+    <row r="846" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B846" s="24"/>
+      <c r="D846" s="23"/>
+    </row>
+    <row r="847" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B847" s="24"/>
+      <c r="D847" s="23"/>
+    </row>
+    <row r="848" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B848" s="24"/>
+      <c r="D848" s="23"/>
+    </row>
+    <row r="849" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B849" s="24"/>
+      <c r="D849" s="23"/>
+    </row>
+    <row r="850" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B850" s="24"/>
+      <c r="D850" s="23"/>
+    </row>
+    <row r="851" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B851" s="24"/>
+      <c r="D851" s="23"/>
+    </row>
+    <row r="852" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B852" s="24"/>
+      <c r="D852" s="23"/>
+    </row>
+    <row r="853" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B853" s="24"/>
+      <c r="D853" s="23"/>
+    </row>
+    <row r="854" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B854" s="24"/>
+      <c r="D854" s="23"/>
+    </row>
+    <row r="855" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B855" s="24"/>
+      <c r="D855" s="23"/>
+    </row>
+    <row r="856" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B856" s="24"/>
+      <c r="D856" s="23"/>
+    </row>
+    <row r="857" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B857" s="24"/>
+      <c r="D857" s="23"/>
+    </row>
+    <row r="858" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B858" s="24"/>
+      <c r="D858" s="23"/>
+    </row>
+    <row r="859" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B859" s="24"/>
+      <c r="D859" s="23"/>
+    </row>
+    <row r="860" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B860" s="24"/>
+      <c r="D860" s="23"/>
+    </row>
+    <row r="861" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B861" s="24"/>
+      <c r="D861" s="23"/>
+    </row>
+    <row r="862" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B862" s="24"/>
+      <c r="D862" s="23"/>
+    </row>
+    <row r="863" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B863" s="24"/>
+      <c r="D863" s="23"/>
+    </row>
+    <row r="864" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B864" s="24"/>
+      <c r="D864" s="23"/>
+    </row>
+    <row r="865" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B865" s="24"/>
+      <c r="D865" s="23"/>
+    </row>
+    <row r="866" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B866" s="24"/>
+      <c r="D866" s="23"/>
+    </row>
+    <row r="867" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B867" s="24"/>
+      <c r="D867" s="23"/>
+    </row>
+    <row r="868" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B868" s="24"/>
+      <c r="D868" s="23"/>
+    </row>
+    <row r="869" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B869" s="24"/>
+      <c r="D869" s="23"/>
+    </row>
+    <row r="870" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B870" s="24"/>
+      <c r="D870" s="23"/>
+    </row>
+    <row r="871" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B871" s="24"/>
+      <c r="D871" s="23"/>
+    </row>
+    <row r="872" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B872" s="24"/>
+      <c r="D872" s="23"/>
+    </row>
+    <row r="873" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B873" s="24"/>
+      <c r="D873" s="23"/>
+    </row>
+    <row r="874" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B874" s="24"/>
+      <c r="D874" s="23"/>
+    </row>
+    <row r="875" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B875" s="24"/>
+      <c r="D875" s="23"/>
+    </row>
+    <row r="876" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B876" s="24"/>
+      <c r="D876" s="23"/>
+    </row>
+    <row r="877" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B877" s="24"/>
+      <c r="D877" s="23"/>
+    </row>
+    <row r="878" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B878" s="24"/>
+      <c r="D878" s="23"/>
+    </row>
+    <row r="879" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B879" s="24"/>
+      <c r="D879" s="23"/>
+    </row>
+    <row r="880" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B880" s="24"/>
+      <c r="D880" s="23"/>
+    </row>
+    <row r="881" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B881" s="24"/>
+      <c r="D881" s="23"/>
+    </row>
+    <row r="882" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B882" s="24"/>
+      <c r="D882" s="23"/>
+    </row>
+    <row r="883" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B883" s="24"/>
+      <c r="D883" s="23"/>
+    </row>
+    <row r="884" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B884" s="24"/>
+      <c r="D884" s="23"/>
+    </row>
+    <row r="885" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B885" s="24"/>
+      <c r="D885" s="23"/>
+    </row>
+    <row r="886" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B886" s="24"/>
+      <c r="D886" s="23"/>
+    </row>
+    <row r="887" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B887" s="24"/>
+      <c r="D887" s="23"/>
+    </row>
+    <row r="888" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B888" s="24"/>
+      <c r="D888" s="23"/>
+    </row>
+    <row r="889" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B889" s="24"/>
+      <c r="D889" s="23"/>
+    </row>
+    <row r="890" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B890" s="24"/>
+      <c r="D890" s="23"/>
+    </row>
+    <row r="891" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B891" s="24"/>
+      <c r="D891" s="23"/>
+    </row>
+    <row r="892" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B892" s="24"/>
+      <c r="D892" s="23"/>
+    </row>
+    <row r="893" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B893" s="24"/>
+      <c r="D893" s="23"/>
+    </row>
+    <row r="894" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B894" s="24"/>
+      <c r="D894" s="23"/>
+    </row>
+    <row r="895" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B895" s="24"/>
+      <c r="D895" s="23"/>
+    </row>
+    <row r="896" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B896" s="24"/>
+      <c r="D896" s="23"/>
+    </row>
+    <row r="897" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B897" s="24"/>
+      <c r="D897" s="23"/>
+    </row>
+    <row r="898" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B898" s="24"/>
+      <c r="D898" s="23"/>
+    </row>
+    <row r="899" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B899" s="24"/>
+      <c r="D899" s="23"/>
+    </row>
+    <row r="900" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B900" s="24"/>
+      <c r="D900" s="23"/>
+    </row>
+    <row r="901" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B901" s="24"/>
+      <c r="D901" s="23"/>
+    </row>
+    <row r="902" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B902" s="24"/>
+      <c r="D902" s="23"/>
+    </row>
+    <row r="903" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B903" s="24"/>
+      <c r="D903" s="23"/>
+    </row>
+    <row r="904" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B904" s="24"/>
+      <c r="D904" s="23"/>
+    </row>
+    <row r="905" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B905" s="24"/>
+      <c r="D905" s="23"/>
+    </row>
+    <row r="906" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B906" s="24"/>
+      <c r="D906" s="23"/>
+    </row>
+    <row r="907" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B907" s="24"/>
+      <c r="D907" s="23"/>
+    </row>
+    <row r="908" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B908" s="24"/>
+      <c r="D908" s="23"/>
+    </row>
+    <row r="909" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B909" s="24"/>
+      <c r="D909" s="23"/>
+    </row>
+    <row r="910" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B910" s="24"/>
+      <c r="D910" s="23"/>
+    </row>
+    <row r="911" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B911" s="24"/>
+      <c r="D911" s="23"/>
+    </row>
+    <row r="912" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B912" s="24"/>
+      <c r="D912" s="23"/>
+    </row>
+    <row r="913" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B913" s="24"/>
+      <c r="D913" s="23"/>
+    </row>
+    <row r="914" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B914" s="24"/>
+      <c r="D914" s="23"/>
+    </row>
+    <row r="915" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B915" s="24"/>
+      <c r="D915" s="23"/>
+    </row>
+    <row r="916" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B916" s="24"/>
+      <c r="D916" s="23"/>
+    </row>
+    <row r="917" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B917" s="24"/>
+      <c r="D917" s="23"/>
+    </row>
+    <row r="918" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B918" s="24"/>
+      <c r="D918" s="23"/>
+    </row>
+    <row r="919" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B919" s="24"/>
+      <c r="D919" s="23"/>
+    </row>
+    <row r="920" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B920" s="24"/>
+      <c r="D920" s="23"/>
+    </row>
+    <row r="921" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B921" s="24"/>
+      <c r="D921" s="23"/>
+    </row>
+    <row r="922" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B922" s="24"/>
+      <c r="D922" s="23"/>
+    </row>
+    <row r="923" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B923" s="24"/>
+      <c r="D923" s="23"/>
+    </row>
+    <row r="924" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B924" s="24"/>
+      <c r="D924" s="23"/>
+    </row>
+    <row r="925" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B925" s="24"/>
+      <c r="D925" s="23"/>
+    </row>
+    <row r="926" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B926" s="24"/>
+      <c r="D926" s="23"/>
+    </row>
+    <row r="927" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B927" s="24"/>
+      <c r="D927" s="23"/>
+    </row>
+    <row r="928" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B928" s="24"/>
+      <c r="D928" s="23"/>
+    </row>
+    <row r="929" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B929" s="24"/>
+      <c r="D929" s="23"/>
+    </row>
+    <row r="930" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B930" s="24"/>
+      <c r="D930" s="23"/>
+    </row>
+    <row r="931" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B931" s="24"/>
+      <c r="D931" s="23"/>
+    </row>
+    <row r="932" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B932" s="24"/>
+      <c r="D932" s="23"/>
+    </row>
+    <row r="933" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B933" s="24"/>
+      <c r="D933" s="23"/>
+    </row>
+    <row r="934" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B934" s="24"/>
+      <c r="D934" s="23"/>
+    </row>
+    <row r="935" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B935" s="24"/>
+      <c r="D935" s="23"/>
+    </row>
+    <row r="936" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B936" s="24"/>
+      <c r="D936" s="23"/>
+    </row>
+    <row r="937" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B937" s="24"/>
+      <c r="D937" s="23"/>
+    </row>
+    <row r="938" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B938" s="24"/>
+      <c r="D938" s="23"/>
+    </row>
+    <row r="939" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B939" s="24"/>
+      <c r="D939" s="23"/>
+    </row>
+    <row r="940" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B940" s="24"/>
+      <c r="D940" s="23"/>
+    </row>
+    <row r="941" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B941" s="24"/>
+      <c r="D941" s="23"/>
+    </row>
+    <row r="942" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B942" s="24"/>
+      <c r="D942" s="23"/>
+    </row>
+    <row r="943" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B943" s="24"/>
+      <c r="D943" s="23"/>
+    </row>
+    <row r="944" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B944" s="24"/>
+      <c r="D944" s="23"/>
+    </row>
+    <row r="945" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B945" s="24"/>
+      <c r="D945" s="23"/>
+    </row>
+    <row r="946" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B946" s="24"/>
+      <c r="D946" s="23"/>
+    </row>
+    <row r="947" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B947" s="24"/>
+      <c r="D947" s="23"/>
+    </row>
+    <row r="948" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B948" s="24"/>
+      <c r="D948" s="23"/>
+    </row>
+    <row r="949" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B949" s="24"/>
+      <c r="D949" s="23"/>
+    </row>
+    <row r="950" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B950" s="24"/>
+      <c r="D950" s="23"/>
+    </row>
+    <row r="951" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B951" s="24"/>
+      <c r="D951" s="23"/>
+    </row>
+    <row r="952" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B952" s="24"/>
+      <c r="D952" s="23"/>
+    </row>
+    <row r="953" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B953" s="24"/>
+      <c r="D953" s="23"/>
+    </row>
+    <row r="954" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B954" s="24"/>
+      <c r="D954" s="23"/>
+    </row>
+    <row r="955" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B955" s="24"/>
+      <c r="D955" s="23"/>
+    </row>
+    <row r="956" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B956" s="24"/>
+      <c r="D956" s="23"/>
+    </row>
+    <row r="957" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B957" s="24"/>
+      <c r="D957" s="23"/>
+    </row>
+    <row r="958" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B958" s="24"/>
+      <c r="D958" s="23"/>
+    </row>
+    <row r="959" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B959" s="24"/>
+      <c r="D959" s="23"/>
+    </row>
+    <row r="960" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B960" s="24"/>
+      <c r="D960" s="23"/>
+    </row>
+    <row r="961" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B961" s="24"/>
+      <c r="D961" s="23"/>
+    </row>
+    <row r="962" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B962" s="24"/>
+      <c r="D962" s="23"/>
+    </row>
+    <row r="963" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B963" s="24"/>
+      <c r="D963" s="23"/>
+    </row>
+    <row r="964" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B964" s="24"/>
+      <c r="D964" s="23"/>
+    </row>
+    <row r="965" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B965" s="24"/>
+      <c r="D965" s="23"/>
+    </row>
+    <row r="966" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B966" s="24"/>
+      <c r="D966" s="23"/>
+    </row>
+    <row r="967" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B967" s="24"/>
+      <c r="D967" s="23"/>
+    </row>
+    <row r="968" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B968" s="24"/>
+      <c r="D968" s="23"/>
+    </row>
+    <row r="969" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B969" s="24"/>
+      <c r="D969" s="23"/>
+    </row>
+    <row r="970" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B970" s="24"/>
+      <c r="D970" s="23"/>
+    </row>
+    <row r="971" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B971" s="24"/>
+      <c r="D971" s="23"/>
+    </row>
+    <row r="972" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B972" s="24"/>
+      <c r="D972" s="23"/>
+    </row>
+    <row r="973" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B973" s="24"/>
+      <c r="D973" s="23"/>
+    </row>
+    <row r="974" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B974" s="24"/>
+      <c r="D974" s="23"/>
+    </row>
+    <row r="975" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B975" s="24"/>
+      <c r="D975" s="23"/>
+    </row>
+    <row r="976" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B976" s="24"/>
+      <c r="D976" s="23"/>
+    </row>
+    <row r="977" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B977" s="24"/>
+      <c r="D977" s="23"/>
+    </row>
+    <row r="978" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B978" s="24"/>
+      <c r="D978" s="23"/>
+    </row>
+    <row r="979" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B979" s="24"/>
+      <c r="D979" s="23"/>
+    </row>
+    <row r="980" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B980" s="24"/>
+      <c r="D980" s="23"/>
+    </row>
+    <row r="981" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B981" s="24"/>
+      <c r="D981" s="23"/>
+    </row>
+    <row r="982" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B982" s="24"/>
+      <c r="D982" s="23"/>
+    </row>
+    <row r="983" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B983" s="24"/>
+      <c r="D983" s="23"/>
+    </row>
+    <row r="984" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B984" s="24"/>
+      <c r="D984" s="23"/>
+    </row>
+    <row r="985" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B985" s="24"/>
+      <c r="D985" s="23"/>
+    </row>
+    <row r="986" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B986" s="24"/>
+      <c r="D986" s="23"/>
+    </row>
+    <row r="987" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B987" s="24"/>
+      <c r="D987" s="23"/>
+    </row>
+    <row r="988" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B988" s="24"/>
+      <c r="D988" s="23"/>
+    </row>
+    <row r="989" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B989" s="24"/>
+      <c r="D989" s="23"/>
+    </row>
+    <row r="990" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B990" s="24"/>
+      <c r="D990" s="23"/>
+    </row>
+    <row r="991" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B991" s="24"/>
+      <c r="D991" s="23"/>
+    </row>
+    <row r="992" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B992" s="24"/>
+      <c r="D992" s="23"/>
+    </row>
+    <row r="993" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B993" s="24"/>
+      <c r="D993" s="23"/>
+    </row>
+    <row r="994" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B994" s="24"/>
+      <c r="D994" s="23"/>
+    </row>
+    <row r="995" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B995" s="24"/>
+      <c r="D995" s="23"/>
+    </row>
+    <row r="996" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B996" s="24"/>
+      <c r="D996" s="23"/>
+    </row>
+    <row r="997" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B997" s="24"/>
+      <c r="D997" s="23"/>
+    </row>
+    <row r="998" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B998" s="24"/>
+      <c r="D998" s="23"/>
+    </row>
+    <row r="999" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B999" s="24"/>
+      <c r="D999" s="23"/>
+    </row>
+    <row r="1000" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1000" s="24"/>
+      <c r="D1000" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/CH-146 Column Splitting.xlsx
+++ b/CH-146 Column Splitting.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2110CBB9-713E-4B42-BE5B-EAA10956EF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1CF52E-C082-4CD6-9B1F-0C4A3FE3483C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Alt1" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
   <si>
     <t>Question</t>
   </si>
@@ -408,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -479,6 +480,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5145,8 +5149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D50C197-AE97-4D02-A9C4-400F45DD5EA4}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9464,4 +9468,4346 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2867DA9C-07EB-46D9-8A03-179077CAE408}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="38.09765625" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="8.8984375" customWidth="1"/>
+    <col min="7" max="26" width="8.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="23"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="28"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="str" cm="1">
+        <f t="array" ref="B13:D19">_xlfn.IFNA(
+    _xlfn.REDUCE(
+        D2:F2,
+        B3:B8,
+        _xlfn.LAMBDA(_xlpm.x,_xlpm.y,
+            _xlfn.VSTACK(
+                _xlpm.x,
+                _xlfn.LET(
+                    _xlpm.t, _xlfn.TEXTSPLIT(_xlpm.y, "|"),
+                    _xlfn.SCAN("", _xlpm.t, _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlpm.a &amp; _xlpm.v))
+                )
+            )
+        )
+    ),
+    ""
+)</f>
+        <v>ID.1</v>
+      </c>
+      <c r="C13" s="9" t="str">
+        <v>ID.2</v>
+      </c>
+      <c r="D13" s="23" t="str">
+        <v>ID.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="str">
+        <v>AX</v>
+      </c>
+      <c r="C14" s="9" t="str">
+        <v>AX12</v>
+      </c>
+      <c r="D14" s="23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="str">
+        <v>A</v>
+      </c>
+      <c r="C15" t="str">
+        <v>AX</v>
+      </c>
+      <c r="D15" s="23" t="str">
+        <v>AX21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="str">
+        <v>RSN</v>
+      </c>
+      <c r="C16" t="str">
+        <v>RSN2</v>
+      </c>
+      <c r="D16" s="23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="str">
+        <v>FF</v>
+      </c>
+      <c r="C17" t="str">
+        <v>FF22</v>
+      </c>
+      <c r="D17" s="23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="str">
+        <v>RQ</v>
+      </c>
+      <c r="C18" t="str">
+        <v>RQ1</v>
+      </c>
+      <c r="D18" s="23" t="str">
+        <v>RQ1221</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="24" t="str">
+        <v>O22</v>
+      </c>
+      <c r="C19" t="str">
+        <v>O22OO</v>
+      </c>
+      <c r="D19" s="23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="24"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="24"/>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="24"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="24"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="24"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="24"/>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="24"/>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="24"/>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="28" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="24"/>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="24"/>
+      <c r="D29" s="23"/>
+    </row>
+    <row r="30" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="24"/>
+      <c r="D31" s="23"/>
+    </row>
+    <row r="32" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="24"/>
+      <c r="D32" s="23"/>
+    </row>
+    <row r="33" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="24"/>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="24"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="24"/>
+      <c r="D35" s="23"/>
+    </row>
+    <row r="36" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="24"/>
+      <c r="D36" s="23"/>
+    </row>
+    <row r="37" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="24"/>
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="24"/>
+      <c r="D38" s="23"/>
+    </row>
+    <row r="39" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="24"/>
+      <c r="D39" s="23"/>
+    </row>
+    <row r="40" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="24"/>
+      <c r="D40" s="23"/>
+    </row>
+    <row r="41" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="24"/>
+      <c r="D41" s="23"/>
+    </row>
+    <row r="42" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="24"/>
+      <c r="D42" s="23"/>
+    </row>
+    <row r="43" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="24"/>
+      <c r="D43" s="23"/>
+    </row>
+    <row r="44" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="24"/>
+      <c r="D44" s="23"/>
+    </row>
+    <row r="45" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="24"/>
+      <c r="D45" s="23"/>
+    </row>
+    <row r="46" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="24"/>
+      <c r="D46" s="23"/>
+    </row>
+    <row r="47" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="24"/>
+      <c r="D47" s="23"/>
+    </row>
+    <row r="48" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="24"/>
+      <c r="D48" s="23"/>
+    </row>
+    <row r="49" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="24"/>
+      <c r="D49" s="23"/>
+    </row>
+    <row r="50" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="24"/>
+      <c r="D50" s="23"/>
+    </row>
+    <row r="51" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="24"/>
+      <c r="D51" s="23"/>
+    </row>
+    <row r="52" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="24"/>
+      <c r="D52" s="23"/>
+    </row>
+    <row r="53" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="24"/>
+      <c r="D53" s="23"/>
+    </row>
+    <row r="54" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="24"/>
+      <c r="D54" s="23"/>
+    </row>
+    <row r="55" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="24"/>
+      <c r="D55" s="23"/>
+    </row>
+    <row r="56" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="24"/>
+      <c r="D56" s="23"/>
+    </row>
+    <row r="57" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="24"/>
+      <c r="D57" s="23"/>
+    </row>
+    <row r="58" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="24"/>
+      <c r="D58" s="23"/>
+    </row>
+    <row r="59" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="24"/>
+      <c r="D59" s="23"/>
+    </row>
+    <row r="60" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="24"/>
+      <c r="D60" s="23"/>
+    </row>
+    <row r="61" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="24"/>
+      <c r="D61" s="23"/>
+    </row>
+    <row r="62" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="24"/>
+      <c r="D62" s="23"/>
+    </row>
+    <row r="63" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="24"/>
+      <c r="D63" s="23"/>
+    </row>
+    <row r="64" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="24"/>
+      <c r="D64" s="23"/>
+    </row>
+    <row r="65" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="24"/>
+      <c r="D65" s="23"/>
+    </row>
+    <row r="66" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="24"/>
+      <c r="D66" s="23"/>
+    </row>
+    <row r="67" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="24"/>
+      <c r="D67" s="23"/>
+    </row>
+    <row r="68" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="24"/>
+      <c r="D68" s="23"/>
+    </row>
+    <row r="69" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="24"/>
+      <c r="D69" s="23"/>
+    </row>
+    <row r="70" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="24"/>
+      <c r="D70" s="23"/>
+    </row>
+    <row r="71" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="24"/>
+      <c r="D71" s="23"/>
+    </row>
+    <row r="72" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="24"/>
+      <c r="D72" s="23"/>
+    </row>
+    <row r="73" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="24"/>
+      <c r="D73" s="23"/>
+    </row>
+    <row r="74" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="24"/>
+      <c r="D74" s="23"/>
+    </row>
+    <row r="75" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="24"/>
+      <c r="D75" s="23"/>
+    </row>
+    <row r="76" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="24"/>
+      <c r="D76" s="23"/>
+    </row>
+    <row r="77" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="24"/>
+      <c r="D77" s="23"/>
+    </row>
+    <row r="78" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="24"/>
+      <c r="D78" s="23"/>
+    </row>
+    <row r="79" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="24"/>
+      <c r="D79" s="23"/>
+    </row>
+    <row r="80" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="24"/>
+      <c r="D80" s="23"/>
+    </row>
+    <row r="81" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="24"/>
+      <c r="D81" s="23"/>
+    </row>
+    <row r="82" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="24"/>
+      <c r="D82" s="23"/>
+    </row>
+    <row r="83" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="24"/>
+      <c r="D83" s="23"/>
+    </row>
+    <row r="84" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="24"/>
+      <c r="D84" s="23"/>
+    </row>
+    <row r="85" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="24"/>
+      <c r="D85" s="23"/>
+    </row>
+    <row r="86" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="24"/>
+      <c r="D86" s="23"/>
+    </row>
+    <row r="87" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="24"/>
+      <c r="D87" s="23"/>
+    </row>
+    <row r="88" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="24"/>
+      <c r="D88" s="23"/>
+    </row>
+    <row r="89" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="24"/>
+      <c r="D89" s="23"/>
+    </row>
+    <row r="90" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="24"/>
+      <c r="D90" s="23"/>
+    </row>
+    <row r="91" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="24"/>
+      <c r="D91" s="23"/>
+    </row>
+    <row r="92" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="24"/>
+      <c r="D92" s="23"/>
+    </row>
+    <row r="93" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="24"/>
+      <c r="D93" s="23"/>
+    </row>
+    <row r="94" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="24"/>
+      <c r="D94" s="23"/>
+    </row>
+    <row r="95" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="24"/>
+      <c r="D95" s="23"/>
+    </row>
+    <row r="96" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="24"/>
+      <c r="D96" s="23"/>
+    </row>
+    <row r="97" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="24"/>
+      <c r="D97" s="23"/>
+    </row>
+    <row r="98" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="24"/>
+      <c r="D98" s="23"/>
+    </row>
+    <row r="99" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="24"/>
+      <c r="D99" s="23"/>
+    </row>
+    <row r="100" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="24"/>
+      <c r="D100" s="23"/>
+    </row>
+    <row r="101" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="24"/>
+      <c r="D101" s="23"/>
+    </row>
+    <row r="102" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="24"/>
+      <c r="D102" s="23"/>
+    </row>
+    <row r="103" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="24"/>
+      <c r="D103" s="23"/>
+    </row>
+    <row r="104" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="24"/>
+      <c r="D104" s="23"/>
+    </row>
+    <row r="105" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="24"/>
+      <c r="D105" s="23"/>
+    </row>
+    <row r="106" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="24"/>
+      <c r="D106" s="23"/>
+    </row>
+    <row r="107" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="24"/>
+      <c r="D107" s="23"/>
+    </row>
+    <row r="108" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="24"/>
+      <c r="D108" s="23"/>
+    </row>
+    <row r="109" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="24"/>
+      <c r="D109" s="23"/>
+    </row>
+    <row r="110" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="24"/>
+      <c r="D110" s="23"/>
+    </row>
+    <row r="111" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="24"/>
+      <c r="D111" s="23"/>
+    </row>
+    <row r="112" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="24"/>
+      <c r="D112" s="23"/>
+    </row>
+    <row r="113" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="24"/>
+      <c r="D113" s="23"/>
+    </row>
+    <row r="114" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="24"/>
+      <c r="D114" s="23"/>
+    </row>
+    <row r="115" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="24"/>
+      <c r="D115" s="23"/>
+    </row>
+    <row r="116" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="24"/>
+      <c r="D116" s="23"/>
+    </row>
+    <row r="117" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="24"/>
+      <c r="D117" s="23"/>
+    </row>
+    <row r="118" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="24"/>
+      <c r="D118" s="23"/>
+    </row>
+    <row r="119" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="24"/>
+      <c r="D119" s="23"/>
+    </row>
+    <row r="120" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="24"/>
+      <c r="D120" s="23"/>
+    </row>
+    <row r="121" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="24"/>
+      <c r="D121" s="23"/>
+    </row>
+    <row r="122" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="24"/>
+      <c r="D122" s="23"/>
+    </row>
+    <row r="123" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="24"/>
+      <c r="D123" s="23"/>
+    </row>
+    <row r="124" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="24"/>
+      <c r="D124" s="23"/>
+    </row>
+    <row r="125" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="24"/>
+      <c r="D125" s="23"/>
+    </row>
+    <row r="126" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="24"/>
+      <c r="D126" s="23"/>
+    </row>
+    <row r="127" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="24"/>
+      <c r="D127" s="23"/>
+    </row>
+    <row r="128" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="24"/>
+      <c r="D128" s="23"/>
+    </row>
+    <row r="129" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="24"/>
+      <c r="D129" s="23"/>
+    </row>
+    <row r="130" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="24"/>
+      <c r="D130" s="23"/>
+    </row>
+    <row r="131" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="24"/>
+      <c r="D131" s="23"/>
+    </row>
+    <row r="132" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="24"/>
+      <c r="D132" s="23"/>
+    </row>
+    <row r="133" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="24"/>
+      <c r="D133" s="23"/>
+    </row>
+    <row r="134" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="24"/>
+      <c r="D134" s="23"/>
+    </row>
+    <row r="135" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="24"/>
+      <c r="D135" s="23"/>
+    </row>
+    <row r="136" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="24"/>
+      <c r="D136" s="23"/>
+    </row>
+    <row r="137" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="24"/>
+      <c r="D137" s="23"/>
+    </row>
+    <row r="138" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="24"/>
+      <c r="D138" s="23"/>
+    </row>
+    <row r="139" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="24"/>
+      <c r="D139" s="23"/>
+    </row>
+    <row r="140" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="24"/>
+      <c r="D140" s="23"/>
+    </row>
+    <row r="141" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="24"/>
+      <c r="D141" s="23"/>
+    </row>
+    <row r="142" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="24"/>
+      <c r="D142" s="23"/>
+    </row>
+    <row r="143" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="24"/>
+      <c r="D143" s="23"/>
+    </row>
+    <row r="144" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="24"/>
+      <c r="D144" s="23"/>
+    </row>
+    <row r="145" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="24"/>
+      <c r="D145" s="23"/>
+    </row>
+    <row r="146" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="24"/>
+      <c r="D146" s="23"/>
+    </row>
+    <row r="147" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="24"/>
+      <c r="D147" s="23"/>
+    </row>
+    <row r="148" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="24"/>
+      <c r="D148" s="23"/>
+    </row>
+    <row r="149" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="24"/>
+      <c r="D149" s="23"/>
+    </row>
+    <row r="150" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="24"/>
+      <c r="D150" s="23"/>
+    </row>
+    <row r="151" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="24"/>
+      <c r="D151" s="23"/>
+    </row>
+    <row r="152" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="24"/>
+      <c r="D152" s="23"/>
+    </row>
+    <row r="153" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="24"/>
+      <c r="D153" s="23"/>
+    </row>
+    <row r="154" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="24"/>
+      <c r="D154" s="23"/>
+    </row>
+    <row r="155" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="24"/>
+      <c r="D155" s="23"/>
+    </row>
+    <row r="156" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="24"/>
+      <c r="D156" s="23"/>
+    </row>
+    <row r="157" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="24"/>
+      <c r="D157" s="23"/>
+    </row>
+    <row r="158" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="24"/>
+      <c r="D158" s="23"/>
+    </row>
+    <row r="159" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="24"/>
+      <c r="D159" s="23"/>
+    </row>
+    <row r="160" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="24"/>
+      <c r="D160" s="23"/>
+    </row>
+    <row r="161" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="24"/>
+      <c r="D161" s="23"/>
+    </row>
+    <row r="162" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="24"/>
+      <c r="D162" s="23"/>
+    </row>
+    <row r="163" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="24"/>
+      <c r="D163" s="23"/>
+    </row>
+    <row r="164" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="24"/>
+      <c r="D164" s="23"/>
+    </row>
+    <row r="165" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="24"/>
+      <c r="D165" s="23"/>
+    </row>
+    <row r="166" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="24"/>
+      <c r="D166" s="23"/>
+    </row>
+    <row r="167" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="24"/>
+      <c r="D167" s="23"/>
+    </row>
+    <row r="168" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="24"/>
+      <c r="D168" s="23"/>
+    </row>
+    <row r="169" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="24"/>
+      <c r="D169" s="23"/>
+    </row>
+    <row r="170" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="24"/>
+      <c r="D170" s="23"/>
+    </row>
+    <row r="171" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="24"/>
+      <c r="D171" s="23"/>
+    </row>
+    <row r="172" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="24"/>
+      <c r="D172" s="23"/>
+    </row>
+    <row r="173" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="24"/>
+      <c r="D173" s="23"/>
+    </row>
+    <row r="174" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="24"/>
+      <c r="D174" s="23"/>
+    </row>
+    <row r="175" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="24"/>
+      <c r="D175" s="23"/>
+    </row>
+    <row r="176" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="24"/>
+      <c r="D176" s="23"/>
+    </row>
+    <row r="177" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="24"/>
+      <c r="D177" s="23"/>
+    </row>
+    <row r="178" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="24"/>
+      <c r="D178" s="23"/>
+    </row>
+    <row r="179" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="24"/>
+      <c r="D179" s="23"/>
+    </row>
+    <row r="180" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="24"/>
+      <c r="D180" s="23"/>
+    </row>
+    <row r="181" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="24"/>
+      <c r="D181" s="23"/>
+    </row>
+    <row r="182" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="24"/>
+      <c r="D182" s="23"/>
+    </row>
+    <row r="183" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="24"/>
+      <c r="D183" s="23"/>
+    </row>
+    <row r="184" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="24"/>
+      <c r="D184" s="23"/>
+    </row>
+    <row r="185" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="24"/>
+      <c r="D185" s="23"/>
+    </row>
+    <row r="186" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="24"/>
+      <c r="D186" s="23"/>
+    </row>
+    <row r="187" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="24"/>
+      <c r="D187" s="23"/>
+    </row>
+    <row r="188" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="24"/>
+      <c r="D188" s="23"/>
+    </row>
+    <row r="189" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="24"/>
+      <c r="D189" s="23"/>
+    </row>
+    <row r="190" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="24"/>
+      <c r="D190" s="23"/>
+    </row>
+    <row r="191" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="24"/>
+      <c r="D191" s="23"/>
+    </row>
+    <row r="192" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="24"/>
+      <c r="D192" s="23"/>
+    </row>
+    <row r="193" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="24"/>
+      <c r="D193" s="23"/>
+    </row>
+    <row r="194" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="24"/>
+      <c r="D194" s="23"/>
+    </row>
+    <row r="195" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="24"/>
+      <c r="D195" s="23"/>
+    </row>
+    <row r="196" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="24"/>
+      <c r="D196" s="23"/>
+    </row>
+    <row r="197" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="24"/>
+      <c r="D197" s="23"/>
+    </row>
+    <row r="198" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="24"/>
+      <c r="D198" s="23"/>
+    </row>
+    <row r="199" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="24"/>
+      <c r="D199" s="23"/>
+    </row>
+    <row r="200" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="24"/>
+      <c r="D200" s="23"/>
+    </row>
+    <row r="201" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="24"/>
+      <c r="D201" s="23"/>
+    </row>
+    <row r="202" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="24"/>
+      <c r="D202" s="23"/>
+    </row>
+    <row r="203" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="24"/>
+      <c r="D203" s="23"/>
+    </row>
+    <row r="204" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="24"/>
+      <c r="D204" s="23"/>
+    </row>
+    <row r="205" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="24"/>
+      <c r="D205" s="23"/>
+    </row>
+    <row r="206" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="24"/>
+      <c r="D206" s="23"/>
+    </row>
+    <row r="207" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="24"/>
+      <c r="D207" s="23"/>
+    </row>
+    <row r="208" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="24"/>
+      <c r="D208" s="23"/>
+    </row>
+    <row r="209" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="24"/>
+      <c r="D209" s="23"/>
+    </row>
+    <row r="210" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="24"/>
+      <c r="D210" s="23"/>
+    </row>
+    <row r="211" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="24"/>
+      <c r="D211" s="23"/>
+    </row>
+    <row r="212" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="24"/>
+      <c r="D212" s="23"/>
+    </row>
+    <row r="213" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="24"/>
+      <c r="D213" s="23"/>
+    </row>
+    <row r="214" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="24"/>
+      <c r="D214" s="23"/>
+    </row>
+    <row r="215" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="24"/>
+      <c r="D215" s="23"/>
+    </row>
+    <row r="216" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="24"/>
+      <c r="D216" s="23"/>
+    </row>
+    <row r="217" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="24"/>
+      <c r="D217" s="23"/>
+    </row>
+    <row r="218" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="24"/>
+      <c r="D218" s="23"/>
+    </row>
+    <row r="219" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="24"/>
+      <c r="D219" s="23"/>
+    </row>
+    <row r="220" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="24"/>
+      <c r="D220" s="23"/>
+    </row>
+    <row r="221" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="24"/>
+      <c r="D221" s="23"/>
+    </row>
+    <row r="222" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="24"/>
+      <c r="D222" s="23"/>
+    </row>
+    <row r="223" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="24"/>
+      <c r="D223" s="23"/>
+    </row>
+    <row r="224" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="24"/>
+      <c r="D224" s="23"/>
+    </row>
+    <row r="225" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="24"/>
+      <c r="D225" s="23"/>
+    </row>
+    <row r="226" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="24"/>
+      <c r="D226" s="23"/>
+    </row>
+    <row r="227" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="24"/>
+      <c r="D227" s="23"/>
+    </row>
+    <row r="228" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="24"/>
+      <c r="D228" s="23"/>
+    </row>
+    <row r="229" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="24"/>
+      <c r="D229" s="23"/>
+    </row>
+    <row r="230" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="24"/>
+      <c r="D230" s="23"/>
+    </row>
+    <row r="231" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="24"/>
+      <c r="D231" s="23"/>
+    </row>
+    <row r="232" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="24"/>
+      <c r="D232" s="23"/>
+    </row>
+    <row r="233" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="24"/>
+      <c r="D233" s="23"/>
+    </row>
+    <row r="234" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="24"/>
+      <c r="D234" s="23"/>
+    </row>
+    <row r="235" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="24"/>
+      <c r="D235" s="23"/>
+    </row>
+    <row r="236" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="24"/>
+      <c r="D236" s="23"/>
+    </row>
+    <row r="237" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="24"/>
+      <c r="D237" s="23"/>
+    </row>
+    <row r="238" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="24"/>
+      <c r="D238" s="23"/>
+    </row>
+    <row r="239" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="24"/>
+      <c r="D239" s="23"/>
+    </row>
+    <row r="240" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="24"/>
+      <c r="D240" s="23"/>
+    </row>
+    <row r="241" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="24"/>
+      <c r="D241" s="23"/>
+    </row>
+    <row r="242" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="24"/>
+      <c r="D242" s="23"/>
+    </row>
+    <row r="243" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="24"/>
+      <c r="D243" s="23"/>
+    </row>
+    <row r="244" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="24"/>
+      <c r="D244" s="23"/>
+    </row>
+    <row r="245" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="24"/>
+      <c r="D245" s="23"/>
+    </row>
+    <row r="246" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="24"/>
+      <c r="D246" s="23"/>
+    </row>
+    <row r="247" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="24"/>
+      <c r="D247" s="23"/>
+    </row>
+    <row r="248" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="24"/>
+      <c r="D248" s="23"/>
+    </row>
+    <row r="249" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="24"/>
+      <c r="D249" s="23"/>
+    </row>
+    <row r="250" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="24"/>
+      <c r="D250" s="23"/>
+    </row>
+    <row r="251" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="24"/>
+      <c r="D251" s="23"/>
+    </row>
+    <row r="252" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="24"/>
+      <c r="D252" s="23"/>
+    </row>
+    <row r="253" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="24"/>
+      <c r="D253" s="23"/>
+    </row>
+    <row r="254" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="24"/>
+      <c r="D254" s="23"/>
+    </row>
+    <row r="255" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="24"/>
+      <c r="D255" s="23"/>
+    </row>
+    <row r="256" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="24"/>
+      <c r="D256" s="23"/>
+    </row>
+    <row r="257" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="24"/>
+      <c r="D257" s="23"/>
+    </row>
+    <row r="258" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="24"/>
+      <c r="D258" s="23"/>
+    </row>
+    <row r="259" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="24"/>
+      <c r="D259" s="23"/>
+    </row>
+    <row r="260" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="24"/>
+      <c r="D260" s="23"/>
+    </row>
+    <row r="261" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="24"/>
+      <c r="D261" s="23"/>
+    </row>
+    <row r="262" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="24"/>
+      <c r="D262" s="23"/>
+    </row>
+    <row r="263" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="24"/>
+      <c r="D263" s="23"/>
+    </row>
+    <row r="264" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="24"/>
+      <c r="D264" s="23"/>
+    </row>
+    <row r="265" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="24"/>
+      <c r="D265" s="23"/>
+    </row>
+    <row r="266" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="24"/>
+      <c r="D266" s="23"/>
+    </row>
+    <row r="267" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="24"/>
+      <c r="D267" s="23"/>
+    </row>
+    <row r="268" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="24"/>
+      <c r="D268" s="23"/>
+    </row>
+    <row r="269" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="24"/>
+      <c r="D269" s="23"/>
+    </row>
+    <row r="270" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="24"/>
+      <c r="D270" s="23"/>
+    </row>
+    <row r="271" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="24"/>
+      <c r="D271" s="23"/>
+    </row>
+    <row r="272" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="24"/>
+      <c r="D272" s="23"/>
+    </row>
+    <row r="273" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="24"/>
+      <c r="D273" s="23"/>
+    </row>
+    <row r="274" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="24"/>
+      <c r="D274" s="23"/>
+    </row>
+    <row r="275" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="24"/>
+      <c r="D275" s="23"/>
+    </row>
+    <row r="276" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="24"/>
+      <c r="D276" s="23"/>
+    </row>
+    <row r="277" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="24"/>
+      <c r="D277" s="23"/>
+    </row>
+    <row r="278" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="24"/>
+      <c r="D278" s="23"/>
+    </row>
+    <row r="279" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="24"/>
+      <c r="D279" s="23"/>
+    </row>
+    <row r="280" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="24"/>
+      <c r="D280" s="23"/>
+    </row>
+    <row r="281" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="24"/>
+      <c r="D281" s="23"/>
+    </row>
+    <row r="282" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="24"/>
+      <c r="D282" s="23"/>
+    </row>
+    <row r="283" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="24"/>
+      <c r="D283" s="23"/>
+    </row>
+    <row r="284" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B284" s="24"/>
+      <c r="D284" s="23"/>
+    </row>
+    <row r="285" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="24"/>
+      <c r="D285" s="23"/>
+    </row>
+    <row r="286" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="24"/>
+      <c r="D286" s="23"/>
+    </row>
+    <row r="287" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="24"/>
+      <c r="D287" s="23"/>
+    </row>
+    <row r="288" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="24"/>
+      <c r="D288" s="23"/>
+    </row>
+    <row r="289" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="24"/>
+      <c r="D289" s="23"/>
+    </row>
+    <row r="290" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B290" s="24"/>
+      <c r="D290" s="23"/>
+    </row>
+    <row r="291" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="24"/>
+      <c r="D291" s="23"/>
+    </row>
+    <row r="292" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="24"/>
+      <c r="D292" s="23"/>
+    </row>
+    <row r="293" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B293" s="24"/>
+      <c r="D293" s="23"/>
+    </row>
+    <row r="294" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="24"/>
+      <c r="D294" s="23"/>
+    </row>
+    <row r="295" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="24"/>
+      <c r="D295" s="23"/>
+    </row>
+    <row r="296" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="24"/>
+      <c r="D296" s="23"/>
+    </row>
+    <row r="297" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="24"/>
+      <c r="D297" s="23"/>
+    </row>
+    <row r="298" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B298" s="24"/>
+      <c r="D298" s="23"/>
+    </row>
+    <row r="299" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B299" s="24"/>
+      <c r="D299" s="23"/>
+    </row>
+    <row r="300" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B300" s="24"/>
+      <c r="D300" s="23"/>
+    </row>
+    <row r="301" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B301" s="24"/>
+      <c r="D301" s="23"/>
+    </row>
+    <row r="302" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B302" s="24"/>
+      <c r="D302" s="23"/>
+    </row>
+    <row r="303" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B303" s="24"/>
+      <c r="D303" s="23"/>
+    </row>
+    <row r="304" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B304" s="24"/>
+      <c r="D304" s="23"/>
+    </row>
+    <row r="305" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B305" s="24"/>
+      <c r="D305" s="23"/>
+    </row>
+    <row r="306" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B306" s="24"/>
+      <c r="D306" s="23"/>
+    </row>
+    <row r="307" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B307" s="24"/>
+      <c r="D307" s="23"/>
+    </row>
+    <row r="308" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="24"/>
+      <c r="D308" s="23"/>
+    </row>
+    <row r="309" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B309" s="24"/>
+      <c r="D309" s="23"/>
+    </row>
+    <row r="310" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B310" s="24"/>
+      <c r="D310" s="23"/>
+    </row>
+    <row r="311" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B311" s="24"/>
+      <c r="D311" s="23"/>
+    </row>
+    <row r="312" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B312" s="24"/>
+      <c r="D312" s="23"/>
+    </row>
+    <row r="313" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B313" s="24"/>
+      <c r="D313" s="23"/>
+    </row>
+    <row r="314" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B314" s="24"/>
+      <c r="D314" s="23"/>
+    </row>
+    <row r="315" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B315" s="24"/>
+      <c r="D315" s="23"/>
+    </row>
+    <row r="316" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B316" s="24"/>
+      <c r="D316" s="23"/>
+    </row>
+    <row r="317" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B317" s="24"/>
+      <c r="D317" s="23"/>
+    </row>
+    <row r="318" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B318" s="24"/>
+      <c r="D318" s="23"/>
+    </row>
+    <row r="319" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B319" s="24"/>
+      <c r="D319" s="23"/>
+    </row>
+    <row r="320" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="24"/>
+      <c r="D320" s="23"/>
+    </row>
+    <row r="321" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B321" s="24"/>
+      <c r="D321" s="23"/>
+    </row>
+    <row r="322" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B322" s="24"/>
+      <c r="D322" s="23"/>
+    </row>
+    <row r="323" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B323" s="24"/>
+      <c r="D323" s="23"/>
+    </row>
+    <row r="324" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B324" s="24"/>
+      <c r="D324" s="23"/>
+    </row>
+    <row r="325" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B325" s="24"/>
+      <c r="D325" s="23"/>
+    </row>
+    <row r="326" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B326" s="24"/>
+      <c r="D326" s="23"/>
+    </row>
+    <row r="327" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B327" s="24"/>
+      <c r="D327" s="23"/>
+    </row>
+    <row r="328" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B328" s="24"/>
+      <c r="D328" s="23"/>
+    </row>
+    <row r="329" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B329" s="24"/>
+      <c r="D329" s="23"/>
+    </row>
+    <row r="330" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B330" s="24"/>
+      <c r="D330" s="23"/>
+    </row>
+    <row r="331" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B331" s="24"/>
+      <c r="D331" s="23"/>
+    </row>
+    <row r="332" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B332" s="24"/>
+      <c r="D332" s="23"/>
+    </row>
+    <row r="333" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B333" s="24"/>
+      <c r="D333" s="23"/>
+    </row>
+    <row r="334" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B334" s="24"/>
+      <c r="D334" s="23"/>
+    </row>
+    <row r="335" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B335" s="24"/>
+      <c r="D335" s="23"/>
+    </row>
+    <row r="336" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B336" s="24"/>
+      <c r="D336" s="23"/>
+    </row>
+    <row r="337" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B337" s="24"/>
+      <c r="D337" s="23"/>
+    </row>
+    <row r="338" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B338" s="24"/>
+      <c r="D338" s="23"/>
+    </row>
+    <row r="339" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B339" s="24"/>
+      <c r="D339" s="23"/>
+    </row>
+    <row r="340" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B340" s="24"/>
+      <c r="D340" s="23"/>
+    </row>
+    <row r="341" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B341" s="24"/>
+      <c r="D341" s="23"/>
+    </row>
+    <row r="342" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B342" s="24"/>
+      <c r="D342" s="23"/>
+    </row>
+    <row r="343" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B343" s="24"/>
+      <c r="D343" s="23"/>
+    </row>
+    <row r="344" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B344" s="24"/>
+      <c r="D344" s="23"/>
+    </row>
+    <row r="345" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B345" s="24"/>
+      <c r="D345" s="23"/>
+    </row>
+    <row r="346" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B346" s="24"/>
+      <c r="D346" s="23"/>
+    </row>
+    <row r="347" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B347" s="24"/>
+      <c r="D347" s="23"/>
+    </row>
+    <row r="348" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B348" s="24"/>
+      <c r="D348" s="23"/>
+    </row>
+    <row r="349" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B349" s="24"/>
+      <c r="D349" s="23"/>
+    </row>
+    <row r="350" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B350" s="24"/>
+      <c r="D350" s="23"/>
+    </row>
+    <row r="351" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B351" s="24"/>
+      <c r="D351" s="23"/>
+    </row>
+    <row r="352" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B352" s="24"/>
+      <c r="D352" s="23"/>
+    </row>
+    <row r="353" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B353" s="24"/>
+      <c r="D353" s="23"/>
+    </row>
+    <row r="354" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B354" s="24"/>
+      <c r="D354" s="23"/>
+    </row>
+    <row r="355" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B355" s="24"/>
+      <c r="D355" s="23"/>
+    </row>
+    <row r="356" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B356" s="24"/>
+      <c r="D356" s="23"/>
+    </row>
+    <row r="357" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B357" s="24"/>
+      <c r="D357" s="23"/>
+    </row>
+    <row r="358" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B358" s="24"/>
+      <c r="D358" s="23"/>
+    </row>
+    <row r="359" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B359" s="24"/>
+      <c r="D359" s="23"/>
+    </row>
+    <row r="360" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B360" s="24"/>
+      <c r="D360" s="23"/>
+    </row>
+    <row r="361" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B361" s="24"/>
+      <c r="D361" s="23"/>
+    </row>
+    <row r="362" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B362" s="24"/>
+      <c r="D362" s="23"/>
+    </row>
+    <row r="363" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B363" s="24"/>
+      <c r="D363" s="23"/>
+    </row>
+    <row r="364" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B364" s="24"/>
+      <c r="D364" s="23"/>
+    </row>
+    <row r="365" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B365" s="24"/>
+      <c r="D365" s="23"/>
+    </row>
+    <row r="366" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B366" s="24"/>
+      <c r="D366" s="23"/>
+    </row>
+    <row r="367" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B367" s="24"/>
+      <c r="D367" s="23"/>
+    </row>
+    <row r="368" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B368" s="24"/>
+      <c r="D368" s="23"/>
+    </row>
+    <row r="369" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B369" s="24"/>
+      <c r="D369" s="23"/>
+    </row>
+    <row r="370" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B370" s="24"/>
+      <c r="D370" s="23"/>
+    </row>
+    <row r="371" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B371" s="24"/>
+      <c r="D371" s="23"/>
+    </row>
+    <row r="372" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B372" s="24"/>
+      <c r="D372" s="23"/>
+    </row>
+    <row r="373" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B373" s="24"/>
+      <c r="D373" s="23"/>
+    </row>
+    <row r="374" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B374" s="24"/>
+      <c r="D374" s="23"/>
+    </row>
+    <row r="375" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B375" s="24"/>
+      <c r="D375" s="23"/>
+    </row>
+    <row r="376" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B376" s="24"/>
+      <c r="D376" s="23"/>
+    </row>
+    <row r="377" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B377" s="24"/>
+      <c r="D377" s="23"/>
+    </row>
+    <row r="378" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B378" s="24"/>
+      <c r="D378" s="23"/>
+    </row>
+    <row r="379" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B379" s="24"/>
+      <c r="D379" s="23"/>
+    </row>
+    <row r="380" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B380" s="24"/>
+      <c r="D380" s="23"/>
+    </row>
+    <row r="381" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B381" s="24"/>
+      <c r="D381" s="23"/>
+    </row>
+    <row r="382" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B382" s="24"/>
+      <c r="D382" s="23"/>
+    </row>
+    <row r="383" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B383" s="24"/>
+      <c r="D383" s="23"/>
+    </row>
+    <row r="384" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B384" s="24"/>
+      <c r="D384" s="23"/>
+    </row>
+    <row r="385" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B385" s="24"/>
+      <c r="D385" s="23"/>
+    </row>
+    <row r="386" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B386" s="24"/>
+      <c r="D386" s="23"/>
+    </row>
+    <row r="387" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B387" s="24"/>
+      <c r="D387" s="23"/>
+    </row>
+    <row r="388" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B388" s="24"/>
+      <c r="D388" s="23"/>
+    </row>
+    <row r="389" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B389" s="24"/>
+      <c r="D389" s="23"/>
+    </row>
+    <row r="390" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B390" s="24"/>
+      <c r="D390" s="23"/>
+    </row>
+    <row r="391" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B391" s="24"/>
+      <c r="D391" s="23"/>
+    </row>
+    <row r="392" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B392" s="24"/>
+      <c r="D392" s="23"/>
+    </row>
+    <row r="393" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B393" s="24"/>
+      <c r="D393" s="23"/>
+    </row>
+    <row r="394" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B394" s="24"/>
+      <c r="D394" s="23"/>
+    </row>
+    <row r="395" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B395" s="24"/>
+      <c r="D395" s="23"/>
+    </row>
+    <row r="396" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B396" s="24"/>
+      <c r="D396" s="23"/>
+    </row>
+    <row r="397" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B397" s="24"/>
+      <c r="D397" s="23"/>
+    </row>
+    <row r="398" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B398" s="24"/>
+      <c r="D398" s="23"/>
+    </row>
+    <row r="399" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B399" s="24"/>
+      <c r="D399" s="23"/>
+    </row>
+    <row r="400" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B400" s="24"/>
+      <c r="D400" s="23"/>
+    </row>
+    <row r="401" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B401" s="24"/>
+      <c r="D401" s="23"/>
+    </row>
+    <row r="402" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B402" s="24"/>
+      <c r="D402" s="23"/>
+    </row>
+    <row r="403" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B403" s="24"/>
+      <c r="D403" s="23"/>
+    </row>
+    <row r="404" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B404" s="24"/>
+      <c r="D404" s="23"/>
+    </row>
+    <row r="405" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B405" s="24"/>
+      <c r="D405" s="23"/>
+    </row>
+    <row r="406" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B406" s="24"/>
+      <c r="D406" s="23"/>
+    </row>
+    <row r="407" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B407" s="24"/>
+      <c r="D407" s="23"/>
+    </row>
+    <row r="408" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B408" s="24"/>
+      <c r="D408" s="23"/>
+    </row>
+    <row r="409" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B409" s="24"/>
+      <c r="D409" s="23"/>
+    </row>
+    <row r="410" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B410" s="24"/>
+      <c r="D410" s="23"/>
+    </row>
+    <row r="411" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B411" s="24"/>
+      <c r="D411" s="23"/>
+    </row>
+    <row r="412" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B412" s="24"/>
+      <c r="D412" s="23"/>
+    </row>
+    <row r="413" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B413" s="24"/>
+      <c r="D413" s="23"/>
+    </row>
+    <row r="414" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B414" s="24"/>
+      <c r="D414" s="23"/>
+    </row>
+    <row r="415" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B415" s="24"/>
+      <c r="D415" s="23"/>
+    </row>
+    <row r="416" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B416" s="24"/>
+      <c r="D416" s="23"/>
+    </row>
+    <row r="417" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B417" s="24"/>
+      <c r="D417" s="23"/>
+    </row>
+    <row r="418" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B418" s="24"/>
+      <c r="D418" s="23"/>
+    </row>
+    <row r="419" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B419" s="24"/>
+      <c r="D419" s="23"/>
+    </row>
+    <row r="420" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B420" s="24"/>
+      <c r="D420" s="23"/>
+    </row>
+    <row r="421" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B421" s="24"/>
+      <c r="D421" s="23"/>
+    </row>
+    <row r="422" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B422" s="24"/>
+      <c r="D422" s="23"/>
+    </row>
+    <row r="423" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B423" s="24"/>
+      <c r="D423" s="23"/>
+    </row>
+    <row r="424" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B424" s="24"/>
+      <c r="D424" s="23"/>
+    </row>
+    <row r="425" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B425" s="24"/>
+      <c r="D425" s="23"/>
+    </row>
+    <row r="426" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B426" s="24"/>
+      <c r="D426" s="23"/>
+    </row>
+    <row r="427" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B427" s="24"/>
+      <c r="D427" s="23"/>
+    </row>
+    <row r="428" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B428" s="24"/>
+      <c r="D428" s="23"/>
+    </row>
+    <row r="429" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B429" s="24"/>
+      <c r="D429" s="23"/>
+    </row>
+    <row r="430" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B430" s="24"/>
+      <c r="D430" s="23"/>
+    </row>
+    <row r="431" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B431" s="24"/>
+      <c r="D431" s="23"/>
+    </row>
+    <row r="432" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B432" s="24"/>
+      <c r="D432" s="23"/>
+    </row>
+    <row r="433" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B433" s="24"/>
+      <c r="D433" s="23"/>
+    </row>
+    <row r="434" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B434" s="24"/>
+      <c r="D434" s="23"/>
+    </row>
+    <row r="435" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B435" s="24"/>
+      <c r="D435" s="23"/>
+    </row>
+    <row r="436" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B436" s="24"/>
+      <c r="D436" s="23"/>
+    </row>
+    <row r="437" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B437" s="24"/>
+      <c r="D437" s="23"/>
+    </row>
+    <row r="438" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B438" s="24"/>
+      <c r="D438" s="23"/>
+    </row>
+    <row r="439" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B439" s="24"/>
+      <c r="D439" s="23"/>
+    </row>
+    <row r="440" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B440" s="24"/>
+      <c r="D440" s="23"/>
+    </row>
+    <row r="441" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B441" s="24"/>
+      <c r="D441" s="23"/>
+    </row>
+    <row r="442" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B442" s="24"/>
+      <c r="D442" s="23"/>
+    </row>
+    <row r="443" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B443" s="24"/>
+      <c r="D443" s="23"/>
+    </row>
+    <row r="444" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B444" s="24"/>
+      <c r="D444" s="23"/>
+    </row>
+    <row r="445" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B445" s="24"/>
+      <c r="D445" s="23"/>
+    </row>
+    <row r="446" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B446" s="24"/>
+      <c r="D446" s="23"/>
+    </row>
+    <row r="447" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B447" s="24"/>
+      <c r="D447" s="23"/>
+    </row>
+    <row r="448" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B448" s="24"/>
+      <c r="D448" s="23"/>
+    </row>
+    <row r="449" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B449" s="24"/>
+      <c r="D449" s="23"/>
+    </row>
+    <row r="450" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B450" s="24"/>
+      <c r="D450" s="23"/>
+    </row>
+    <row r="451" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B451" s="24"/>
+      <c r="D451" s="23"/>
+    </row>
+    <row r="452" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B452" s="24"/>
+      <c r="D452" s="23"/>
+    </row>
+    <row r="453" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B453" s="24"/>
+      <c r="D453" s="23"/>
+    </row>
+    <row r="454" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B454" s="24"/>
+      <c r="D454" s="23"/>
+    </row>
+    <row r="455" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B455" s="24"/>
+      <c r="D455" s="23"/>
+    </row>
+    <row r="456" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B456" s="24"/>
+      <c r="D456" s="23"/>
+    </row>
+    <row r="457" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B457" s="24"/>
+      <c r="D457" s="23"/>
+    </row>
+    <row r="458" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B458" s="24"/>
+      <c r="D458" s="23"/>
+    </row>
+    <row r="459" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B459" s="24"/>
+      <c r="D459" s="23"/>
+    </row>
+    <row r="460" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B460" s="24"/>
+      <c r="D460" s="23"/>
+    </row>
+    <row r="461" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B461" s="24"/>
+      <c r="D461" s="23"/>
+    </row>
+    <row r="462" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B462" s="24"/>
+      <c r="D462" s="23"/>
+    </row>
+    <row r="463" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B463" s="24"/>
+      <c r="D463" s="23"/>
+    </row>
+    <row r="464" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B464" s="24"/>
+      <c r="D464" s="23"/>
+    </row>
+    <row r="465" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B465" s="24"/>
+      <c r="D465" s="23"/>
+    </row>
+    <row r="466" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B466" s="24"/>
+      <c r="D466" s="23"/>
+    </row>
+    <row r="467" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B467" s="24"/>
+      <c r="D467" s="23"/>
+    </row>
+    <row r="468" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B468" s="24"/>
+      <c r="D468" s="23"/>
+    </row>
+    <row r="469" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B469" s="24"/>
+      <c r="D469" s="23"/>
+    </row>
+    <row r="470" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B470" s="24"/>
+      <c r="D470" s="23"/>
+    </row>
+    <row r="471" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B471" s="24"/>
+      <c r="D471" s="23"/>
+    </row>
+    <row r="472" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B472" s="24"/>
+      <c r="D472" s="23"/>
+    </row>
+    <row r="473" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B473" s="24"/>
+      <c r="D473" s="23"/>
+    </row>
+    <row r="474" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B474" s="24"/>
+      <c r="D474" s="23"/>
+    </row>
+    <row r="475" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B475" s="24"/>
+      <c r="D475" s="23"/>
+    </row>
+    <row r="476" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B476" s="24"/>
+      <c r="D476" s="23"/>
+    </row>
+    <row r="477" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B477" s="24"/>
+      <c r="D477" s="23"/>
+    </row>
+    <row r="478" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B478" s="24"/>
+      <c r="D478" s="23"/>
+    </row>
+    <row r="479" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B479" s="24"/>
+      <c r="D479" s="23"/>
+    </row>
+    <row r="480" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B480" s="24"/>
+      <c r="D480" s="23"/>
+    </row>
+    <row r="481" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B481" s="24"/>
+      <c r="D481" s="23"/>
+    </row>
+    <row r="482" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B482" s="24"/>
+      <c r="D482" s="23"/>
+    </row>
+    <row r="483" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B483" s="24"/>
+      <c r="D483" s="23"/>
+    </row>
+    <row r="484" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B484" s="24"/>
+      <c r="D484" s="23"/>
+    </row>
+    <row r="485" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B485" s="24"/>
+      <c r="D485" s="23"/>
+    </row>
+    <row r="486" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B486" s="24"/>
+      <c r="D486" s="23"/>
+    </row>
+    <row r="487" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B487" s="24"/>
+      <c r="D487" s="23"/>
+    </row>
+    <row r="488" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B488" s="24"/>
+      <c r="D488" s="23"/>
+    </row>
+    <row r="489" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B489" s="24"/>
+      <c r="D489" s="23"/>
+    </row>
+    <row r="490" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B490" s="24"/>
+      <c r="D490" s="23"/>
+    </row>
+    <row r="491" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B491" s="24"/>
+      <c r="D491" s="23"/>
+    </row>
+    <row r="492" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B492" s="24"/>
+      <c r="D492" s="23"/>
+    </row>
+    <row r="493" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B493" s="24"/>
+      <c r="D493" s="23"/>
+    </row>
+    <row r="494" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B494" s="24"/>
+      <c r="D494" s="23"/>
+    </row>
+    <row r="495" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B495" s="24"/>
+      <c r="D495" s="23"/>
+    </row>
+    <row r="496" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B496" s="24"/>
+      <c r="D496" s="23"/>
+    </row>
+    <row r="497" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B497" s="24"/>
+      <c r="D497" s="23"/>
+    </row>
+    <row r="498" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B498" s="24"/>
+      <c r="D498" s="23"/>
+    </row>
+    <row r="499" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B499" s="24"/>
+      <c r="D499" s="23"/>
+    </row>
+    <row r="500" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B500" s="24"/>
+      <c r="D500" s="23"/>
+    </row>
+    <row r="501" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B501" s="24"/>
+      <c r="D501" s="23"/>
+    </row>
+    <row r="502" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B502" s="24"/>
+      <c r="D502" s="23"/>
+    </row>
+    <row r="503" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B503" s="24"/>
+      <c r="D503" s="23"/>
+    </row>
+    <row r="504" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B504" s="24"/>
+      <c r="D504" s="23"/>
+    </row>
+    <row r="505" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B505" s="24"/>
+      <c r="D505" s="23"/>
+    </row>
+    <row r="506" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B506" s="24"/>
+      <c r="D506" s="23"/>
+    </row>
+    <row r="507" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B507" s="24"/>
+      <c r="D507" s="23"/>
+    </row>
+    <row r="508" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B508" s="24"/>
+      <c r="D508" s="23"/>
+    </row>
+    <row r="509" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B509" s="24"/>
+      <c r="D509" s="23"/>
+    </row>
+    <row r="510" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B510" s="24"/>
+      <c r="D510" s="23"/>
+    </row>
+    <row r="511" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B511" s="24"/>
+      <c r="D511" s="23"/>
+    </row>
+    <row r="512" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B512" s="24"/>
+      <c r="D512" s="23"/>
+    </row>
+    <row r="513" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B513" s="24"/>
+      <c r="D513" s="23"/>
+    </row>
+    <row r="514" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B514" s="24"/>
+      <c r="D514" s="23"/>
+    </row>
+    <row r="515" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B515" s="24"/>
+      <c r="D515" s="23"/>
+    </row>
+    <row r="516" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B516" s="24"/>
+      <c r="D516" s="23"/>
+    </row>
+    <row r="517" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B517" s="24"/>
+      <c r="D517" s="23"/>
+    </row>
+    <row r="518" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B518" s="24"/>
+      <c r="D518" s="23"/>
+    </row>
+    <row r="519" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B519" s="24"/>
+      <c r="D519" s="23"/>
+    </row>
+    <row r="520" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B520" s="24"/>
+      <c r="D520" s="23"/>
+    </row>
+    <row r="521" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B521" s="24"/>
+      <c r="D521" s="23"/>
+    </row>
+    <row r="522" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B522" s="24"/>
+      <c r="D522" s="23"/>
+    </row>
+    <row r="523" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B523" s="24"/>
+      <c r="D523" s="23"/>
+    </row>
+    <row r="524" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B524" s="24"/>
+      <c r="D524" s="23"/>
+    </row>
+    <row r="525" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B525" s="24"/>
+      <c r="D525" s="23"/>
+    </row>
+    <row r="526" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B526" s="24"/>
+      <c r="D526" s="23"/>
+    </row>
+    <row r="527" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B527" s="24"/>
+      <c r="D527" s="23"/>
+    </row>
+    <row r="528" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B528" s="24"/>
+      <c r="D528" s="23"/>
+    </row>
+    <row r="529" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B529" s="24"/>
+      <c r="D529" s="23"/>
+    </row>
+    <row r="530" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B530" s="24"/>
+      <c r="D530" s="23"/>
+    </row>
+    <row r="531" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B531" s="24"/>
+      <c r="D531" s="23"/>
+    </row>
+    <row r="532" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B532" s="24"/>
+      <c r="D532" s="23"/>
+    </row>
+    <row r="533" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B533" s="24"/>
+      <c r="D533" s="23"/>
+    </row>
+    <row r="534" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B534" s="24"/>
+      <c r="D534" s="23"/>
+    </row>
+    <row r="535" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B535" s="24"/>
+      <c r="D535" s="23"/>
+    </row>
+    <row r="536" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B536" s="24"/>
+      <c r="D536" s="23"/>
+    </row>
+    <row r="537" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B537" s="24"/>
+      <c r="D537" s="23"/>
+    </row>
+    <row r="538" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B538" s="24"/>
+      <c r="D538" s="23"/>
+    </row>
+    <row r="539" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B539" s="24"/>
+      <c r="D539" s="23"/>
+    </row>
+    <row r="540" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B540" s="24"/>
+      <c r="D540" s="23"/>
+    </row>
+    <row r="541" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B541" s="24"/>
+      <c r="D541" s="23"/>
+    </row>
+    <row r="542" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B542" s="24"/>
+      <c r="D542" s="23"/>
+    </row>
+    <row r="543" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B543" s="24"/>
+      <c r="D543" s="23"/>
+    </row>
+    <row r="544" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B544" s="24"/>
+      <c r="D544" s="23"/>
+    </row>
+    <row r="545" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B545" s="24"/>
+      <c r="D545" s="23"/>
+    </row>
+    <row r="546" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B546" s="24"/>
+      <c r="D546" s="23"/>
+    </row>
+    <row r="547" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B547" s="24"/>
+      <c r="D547" s="23"/>
+    </row>
+    <row r="548" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B548" s="24"/>
+      <c r="D548" s="23"/>
+    </row>
+    <row r="549" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B549" s="24"/>
+      <c r="D549" s="23"/>
+    </row>
+    <row r="550" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B550" s="24"/>
+      <c r="D550" s="23"/>
+    </row>
+    <row r="551" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B551" s="24"/>
+      <c r="D551" s="23"/>
+    </row>
+    <row r="552" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B552" s="24"/>
+      <c r="D552" s="23"/>
+    </row>
+    <row r="553" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B553" s="24"/>
+      <c r="D553" s="23"/>
+    </row>
+    <row r="554" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B554" s="24"/>
+      <c r="D554" s="23"/>
+    </row>
+    <row r="555" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B555" s="24"/>
+      <c r="D555" s="23"/>
+    </row>
+    <row r="556" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B556" s="24"/>
+      <c r="D556" s="23"/>
+    </row>
+    <row r="557" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B557" s="24"/>
+      <c r="D557" s="23"/>
+    </row>
+    <row r="558" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B558" s="24"/>
+      <c r="D558" s="23"/>
+    </row>
+    <row r="559" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B559" s="24"/>
+      <c r="D559" s="23"/>
+    </row>
+    <row r="560" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B560" s="24"/>
+      <c r="D560" s="23"/>
+    </row>
+    <row r="561" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B561" s="24"/>
+      <c r="D561" s="23"/>
+    </row>
+    <row r="562" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B562" s="24"/>
+      <c r="D562" s="23"/>
+    </row>
+    <row r="563" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B563" s="24"/>
+      <c r="D563" s="23"/>
+    </row>
+    <row r="564" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B564" s="24"/>
+      <c r="D564" s="23"/>
+    </row>
+    <row r="565" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B565" s="24"/>
+      <c r="D565" s="23"/>
+    </row>
+    <row r="566" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B566" s="24"/>
+      <c r="D566" s="23"/>
+    </row>
+    <row r="567" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B567" s="24"/>
+      <c r="D567" s="23"/>
+    </row>
+    <row r="568" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B568" s="24"/>
+      <c r="D568" s="23"/>
+    </row>
+    <row r="569" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B569" s="24"/>
+      <c r="D569" s="23"/>
+    </row>
+    <row r="570" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B570" s="24"/>
+      <c r="D570" s="23"/>
+    </row>
+    <row r="571" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B571" s="24"/>
+      <c r="D571" s="23"/>
+    </row>
+    <row r="572" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B572" s="24"/>
+      <c r="D572" s="23"/>
+    </row>
+    <row r="573" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B573" s="24"/>
+      <c r="D573" s="23"/>
+    </row>
+    <row r="574" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B574" s="24"/>
+      <c r="D574" s="23"/>
+    </row>
+    <row r="575" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B575" s="24"/>
+      <c r="D575" s="23"/>
+    </row>
+    <row r="576" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B576" s="24"/>
+      <c r="D576" s="23"/>
+    </row>
+    <row r="577" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B577" s="24"/>
+      <c r="D577" s="23"/>
+    </row>
+    <row r="578" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B578" s="24"/>
+      <c r="D578" s="23"/>
+    </row>
+    <row r="579" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B579" s="24"/>
+      <c r="D579" s="23"/>
+    </row>
+    <row r="580" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B580" s="24"/>
+      <c r="D580" s="23"/>
+    </row>
+    <row r="581" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B581" s="24"/>
+      <c r="D581" s="23"/>
+    </row>
+    <row r="582" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B582" s="24"/>
+      <c r="D582" s="23"/>
+    </row>
+    <row r="583" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B583" s="24"/>
+      <c r="D583" s="23"/>
+    </row>
+    <row r="584" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B584" s="24"/>
+      <c r="D584" s="23"/>
+    </row>
+    <row r="585" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B585" s="24"/>
+      <c r="D585" s="23"/>
+    </row>
+    <row r="586" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B586" s="24"/>
+      <c r="D586" s="23"/>
+    </row>
+    <row r="587" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B587" s="24"/>
+      <c r="D587" s="23"/>
+    </row>
+    <row r="588" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B588" s="24"/>
+      <c r="D588" s="23"/>
+    </row>
+    <row r="589" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B589" s="24"/>
+      <c r="D589" s="23"/>
+    </row>
+    <row r="590" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B590" s="24"/>
+      <c r="D590" s="23"/>
+    </row>
+    <row r="591" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B591" s="24"/>
+      <c r="D591" s="23"/>
+    </row>
+    <row r="592" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B592" s="24"/>
+      <c r="D592" s="23"/>
+    </row>
+    <row r="593" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B593" s="24"/>
+      <c r="D593" s="23"/>
+    </row>
+    <row r="594" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B594" s="24"/>
+      <c r="D594" s="23"/>
+    </row>
+    <row r="595" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B595" s="24"/>
+      <c r="D595" s="23"/>
+    </row>
+    <row r="596" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B596" s="24"/>
+      <c r="D596" s="23"/>
+    </row>
+    <row r="597" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B597" s="24"/>
+      <c r="D597" s="23"/>
+    </row>
+    <row r="598" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B598" s="24"/>
+      <c r="D598" s="23"/>
+    </row>
+    <row r="599" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B599" s="24"/>
+      <c r="D599" s="23"/>
+    </row>
+    <row r="600" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B600" s="24"/>
+      <c r="D600" s="23"/>
+    </row>
+    <row r="601" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B601" s="24"/>
+      <c r="D601" s="23"/>
+    </row>
+    <row r="602" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B602" s="24"/>
+      <c r="D602" s="23"/>
+    </row>
+    <row r="603" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B603" s="24"/>
+      <c r="D603" s="23"/>
+    </row>
+    <row r="604" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B604" s="24"/>
+      <c r="D604" s="23"/>
+    </row>
+    <row r="605" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B605" s="24"/>
+      <c r="D605" s="23"/>
+    </row>
+    <row r="606" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B606" s="24"/>
+      <c r="D606" s="23"/>
+    </row>
+    <row r="607" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B607" s="24"/>
+      <c r="D607" s="23"/>
+    </row>
+    <row r="608" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B608" s="24"/>
+      <c r="D608" s="23"/>
+    </row>
+    <row r="609" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B609" s="24"/>
+      <c r="D609" s="23"/>
+    </row>
+    <row r="610" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B610" s="24"/>
+      <c r="D610" s="23"/>
+    </row>
+    <row r="611" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B611" s="24"/>
+      <c r="D611" s="23"/>
+    </row>
+    <row r="612" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B612" s="24"/>
+      <c r="D612" s="23"/>
+    </row>
+    <row r="613" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B613" s="24"/>
+      <c r="D613" s="23"/>
+    </row>
+    <row r="614" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B614" s="24"/>
+      <c r="D614" s="23"/>
+    </row>
+    <row r="615" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B615" s="24"/>
+      <c r="D615" s="23"/>
+    </row>
+    <row r="616" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B616" s="24"/>
+      <c r="D616" s="23"/>
+    </row>
+    <row r="617" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B617" s="24"/>
+      <c r="D617" s="23"/>
+    </row>
+    <row r="618" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B618" s="24"/>
+      <c r="D618" s="23"/>
+    </row>
+    <row r="619" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B619" s="24"/>
+      <c r="D619" s="23"/>
+    </row>
+    <row r="620" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B620" s="24"/>
+      <c r="D620" s="23"/>
+    </row>
+    <row r="621" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B621" s="24"/>
+      <c r="D621" s="23"/>
+    </row>
+    <row r="622" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B622" s="24"/>
+      <c r="D622" s="23"/>
+    </row>
+    <row r="623" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B623" s="24"/>
+      <c r="D623" s="23"/>
+    </row>
+    <row r="624" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B624" s="24"/>
+      <c r="D624" s="23"/>
+    </row>
+    <row r="625" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B625" s="24"/>
+      <c r="D625" s="23"/>
+    </row>
+    <row r="626" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B626" s="24"/>
+      <c r="D626" s="23"/>
+    </row>
+    <row r="627" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B627" s="24"/>
+      <c r="D627" s="23"/>
+    </row>
+    <row r="628" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B628" s="24"/>
+      <c r="D628" s="23"/>
+    </row>
+    <row r="629" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B629" s="24"/>
+      <c r="D629" s="23"/>
+    </row>
+    <row r="630" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B630" s="24"/>
+      <c r="D630" s="23"/>
+    </row>
+    <row r="631" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B631" s="24"/>
+      <c r="D631" s="23"/>
+    </row>
+    <row r="632" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B632" s="24"/>
+      <c r="D632" s="23"/>
+    </row>
+    <row r="633" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B633" s="24"/>
+      <c r="D633" s="23"/>
+    </row>
+    <row r="634" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B634" s="24"/>
+      <c r="D634" s="23"/>
+    </row>
+    <row r="635" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B635" s="24"/>
+      <c r="D635" s="23"/>
+    </row>
+    <row r="636" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B636" s="24"/>
+      <c r="D636" s="23"/>
+    </row>
+    <row r="637" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B637" s="24"/>
+      <c r="D637" s="23"/>
+    </row>
+    <row r="638" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B638" s="24"/>
+      <c r="D638" s="23"/>
+    </row>
+    <row r="639" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B639" s="24"/>
+      <c r="D639" s="23"/>
+    </row>
+    <row r="640" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B640" s="24"/>
+      <c r="D640" s="23"/>
+    </row>
+    <row r="641" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B641" s="24"/>
+      <c r="D641" s="23"/>
+    </row>
+    <row r="642" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B642" s="24"/>
+      <c r="D642" s="23"/>
+    </row>
+    <row r="643" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B643" s="24"/>
+      <c r="D643" s="23"/>
+    </row>
+    <row r="644" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B644" s="24"/>
+      <c r="D644" s="23"/>
+    </row>
+    <row r="645" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B645" s="24"/>
+      <c r="D645" s="23"/>
+    </row>
+    <row r="646" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B646" s="24"/>
+      <c r="D646" s="23"/>
+    </row>
+    <row r="647" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B647" s="24"/>
+      <c r="D647" s="23"/>
+    </row>
+    <row r="648" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B648" s="24"/>
+      <c r="D648" s="23"/>
+    </row>
+    <row r="649" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B649" s="24"/>
+      <c r="D649" s="23"/>
+    </row>
+    <row r="650" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B650" s="24"/>
+      <c r="D650" s="23"/>
+    </row>
+    <row r="651" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B651" s="24"/>
+      <c r="D651" s="23"/>
+    </row>
+    <row r="652" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B652" s="24"/>
+      <c r="D652" s="23"/>
+    </row>
+    <row r="653" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B653" s="24"/>
+      <c r="D653" s="23"/>
+    </row>
+    <row r="654" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B654" s="24"/>
+      <c r="D654" s="23"/>
+    </row>
+    <row r="655" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B655" s="24"/>
+      <c r="D655" s="23"/>
+    </row>
+    <row r="656" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B656" s="24"/>
+      <c r="D656" s="23"/>
+    </row>
+    <row r="657" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B657" s="24"/>
+      <c r="D657" s="23"/>
+    </row>
+    <row r="658" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B658" s="24"/>
+      <c r="D658" s="23"/>
+    </row>
+    <row r="659" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B659" s="24"/>
+      <c r="D659" s="23"/>
+    </row>
+    <row r="660" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B660" s="24"/>
+      <c r="D660" s="23"/>
+    </row>
+    <row r="661" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B661" s="24"/>
+      <c r="D661" s="23"/>
+    </row>
+    <row r="662" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B662" s="24"/>
+      <c r="D662" s="23"/>
+    </row>
+    <row r="663" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B663" s="24"/>
+      <c r="D663" s="23"/>
+    </row>
+    <row r="664" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B664" s="24"/>
+      <c r="D664" s="23"/>
+    </row>
+    <row r="665" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B665" s="24"/>
+      <c r="D665" s="23"/>
+    </row>
+    <row r="666" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B666" s="24"/>
+      <c r="D666" s="23"/>
+    </row>
+    <row r="667" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B667" s="24"/>
+      <c r="D667" s="23"/>
+    </row>
+    <row r="668" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B668" s="24"/>
+      <c r="D668" s="23"/>
+    </row>
+    <row r="669" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B669" s="24"/>
+      <c r="D669" s="23"/>
+    </row>
+    <row r="670" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B670" s="24"/>
+      <c r="D670" s="23"/>
+    </row>
+    <row r="671" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B671" s="24"/>
+      <c r="D671" s="23"/>
+    </row>
+    <row r="672" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B672" s="24"/>
+      <c r="D672" s="23"/>
+    </row>
+    <row r="673" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B673" s="24"/>
+      <c r="D673" s="23"/>
+    </row>
+    <row r="674" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B674" s="24"/>
+      <c r="D674" s="23"/>
+    </row>
+    <row r="675" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B675" s="24"/>
+      <c r="D675" s="23"/>
+    </row>
+    <row r="676" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B676" s="24"/>
+      <c r="D676" s="23"/>
+    </row>
+    <row r="677" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B677" s="24"/>
+      <c r="D677" s="23"/>
+    </row>
+    <row r="678" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B678" s="24"/>
+      <c r="D678" s="23"/>
+    </row>
+    <row r="679" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B679" s="24"/>
+      <c r="D679" s="23"/>
+    </row>
+    <row r="680" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B680" s="24"/>
+      <c r="D680" s="23"/>
+    </row>
+    <row r="681" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B681" s="24"/>
+      <c r="D681" s="23"/>
+    </row>
+    <row r="682" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B682" s="24"/>
+      <c r="D682" s="23"/>
+    </row>
+    <row r="683" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B683" s="24"/>
+      <c r="D683" s="23"/>
+    </row>
+    <row r="684" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B684" s="24"/>
+      <c r="D684" s="23"/>
+    </row>
+    <row r="685" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B685" s="24"/>
+      <c r="D685" s="23"/>
+    </row>
+    <row r="686" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B686" s="24"/>
+      <c r="D686" s="23"/>
+    </row>
+    <row r="687" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B687" s="24"/>
+      <c r="D687" s="23"/>
+    </row>
+    <row r="688" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B688" s="24"/>
+      <c r="D688" s="23"/>
+    </row>
+    <row r="689" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B689" s="24"/>
+      <c r="D689" s="23"/>
+    </row>
+    <row r="690" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B690" s="24"/>
+      <c r="D690" s="23"/>
+    </row>
+    <row r="691" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B691" s="24"/>
+      <c r="D691" s="23"/>
+    </row>
+    <row r="692" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B692" s="24"/>
+      <c r="D692" s="23"/>
+    </row>
+    <row r="693" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B693" s="24"/>
+      <c r="D693" s="23"/>
+    </row>
+    <row r="694" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B694" s="24"/>
+      <c r="D694" s="23"/>
+    </row>
+    <row r="695" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B695" s="24"/>
+      <c r="D695" s="23"/>
+    </row>
+    <row r="696" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B696" s="24"/>
+      <c r="D696" s="23"/>
+    </row>
+    <row r="697" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B697" s="24"/>
+      <c r="D697" s="23"/>
+    </row>
+    <row r="698" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B698" s="24"/>
+      <c r="D698" s="23"/>
+    </row>
+    <row r="699" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B699" s="24"/>
+      <c r="D699" s="23"/>
+    </row>
+    <row r="700" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B700" s="24"/>
+      <c r="D700" s="23"/>
+    </row>
+    <row r="701" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B701" s="24"/>
+      <c r="D701" s="23"/>
+    </row>
+    <row r="702" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B702" s="24"/>
+      <c r="D702" s="23"/>
+    </row>
+    <row r="703" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B703" s="24"/>
+      <c r="D703" s="23"/>
+    </row>
+    <row r="704" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B704" s="24"/>
+      <c r="D704" s="23"/>
+    </row>
+    <row r="705" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B705" s="24"/>
+      <c r="D705" s="23"/>
+    </row>
+    <row r="706" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B706" s="24"/>
+      <c r="D706" s="23"/>
+    </row>
+    <row r="707" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B707" s="24"/>
+      <c r="D707" s="23"/>
+    </row>
+    <row r="708" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B708" s="24"/>
+      <c r="D708" s="23"/>
+    </row>
+    <row r="709" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B709" s="24"/>
+      <c r="D709" s="23"/>
+    </row>
+    <row r="710" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B710" s="24"/>
+      <c r="D710" s="23"/>
+    </row>
+    <row r="711" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B711" s="24"/>
+      <c r="D711" s="23"/>
+    </row>
+    <row r="712" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B712" s="24"/>
+      <c r="D712" s="23"/>
+    </row>
+    <row r="713" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B713" s="24"/>
+      <c r="D713" s="23"/>
+    </row>
+    <row r="714" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B714" s="24"/>
+      <c r="D714" s="23"/>
+    </row>
+    <row r="715" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B715" s="24"/>
+      <c r="D715" s="23"/>
+    </row>
+    <row r="716" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B716" s="24"/>
+      <c r="D716" s="23"/>
+    </row>
+    <row r="717" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B717" s="24"/>
+      <c r="D717" s="23"/>
+    </row>
+    <row r="718" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B718" s="24"/>
+      <c r="D718" s="23"/>
+    </row>
+    <row r="719" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B719" s="24"/>
+      <c r="D719" s="23"/>
+    </row>
+    <row r="720" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B720" s="24"/>
+      <c r="D720" s="23"/>
+    </row>
+    <row r="721" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B721" s="24"/>
+      <c r="D721" s="23"/>
+    </row>
+    <row r="722" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B722" s="24"/>
+      <c r="D722" s="23"/>
+    </row>
+    <row r="723" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B723" s="24"/>
+      <c r="D723" s="23"/>
+    </row>
+    <row r="724" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B724" s="24"/>
+      <c r="D724" s="23"/>
+    </row>
+    <row r="725" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B725" s="24"/>
+      <c r="D725" s="23"/>
+    </row>
+    <row r="726" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B726" s="24"/>
+      <c r="D726" s="23"/>
+    </row>
+    <row r="727" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B727" s="24"/>
+      <c r="D727" s="23"/>
+    </row>
+    <row r="728" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B728" s="24"/>
+      <c r="D728" s="23"/>
+    </row>
+    <row r="729" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B729" s="24"/>
+      <c r="D729" s="23"/>
+    </row>
+    <row r="730" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B730" s="24"/>
+      <c r="D730" s="23"/>
+    </row>
+    <row r="731" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B731" s="24"/>
+      <c r="D731" s="23"/>
+    </row>
+    <row r="732" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B732" s="24"/>
+      <c r="D732" s="23"/>
+    </row>
+    <row r="733" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B733" s="24"/>
+      <c r="D733" s="23"/>
+    </row>
+    <row r="734" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B734" s="24"/>
+      <c r="D734" s="23"/>
+    </row>
+    <row r="735" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B735" s="24"/>
+      <c r="D735" s="23"/>
+    </row>
+    <row r="736" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B736" s="24"/>
+      <c r="D736" s="23"/>
+    </row>
+    <row r="737" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B737" s="24"/>
+      <c r="D737" s="23"/>
+    </row>
+    <row r="738" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B738" s="24"/>
+      <c r="D738" s="23"/>
+    </row>
+    <row r="739" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B739" s="24"/>
+      <c r="D739" s="23"/>
+    </row>
+    <row r="740" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B740" s="24"/>
+      <c r="D740" s="23"/>
+    </row>
+    <row r="741" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B741" s="24"/>
+      <c r="D741" s="23"/>
+    </row>
+    <row r="742" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B742" s="24"/>
+      <c r="D742" s="23"/>
+    </row>
+    <row r="743" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B743" s="24"/>
+      <c r="D743" s="23"/>
+    </row>
+    <row r="744" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B744" s="24"/>
+      <c r="D744" s="23"/>
+    </row>
+    <row r="745" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B745" s="24"/>
+      <c r="D745" s="23"/>
+    </row>
+    <row r="746" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B746" s="24"/>
+      <c r="D746" s="23"/>
+    </row>
+    <row r="747" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B747" s="24"/>
+      <c r="D747" s="23"/>
+    </row>
+    <row r="748" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B748" s="24"/>
+      <c r="D748" s="23"/>
+    </row>
+    <row r="749" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B749" s="24"/>
+      <c r="D749" s="23"/>
+    </row>
+    <row r="750" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B750" s="24"/>
+      <c r="D750" s="23"/>
+    </row>
+    <row r="751" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B751" s="24"/>
+      <c r="D751" s="23"/>
+    </row>
+    <row r="752" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B752" s="24"/>
+      <c r="D752" s="23"/>
+    </row>
+    <row r="753" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B753" s="24"/>
+      <c r="D753" s="23"/>
+    </row>
+    <row r="754" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B754" s="24"/>
+      <c r="D754" s="23"/>
+    </row>
+    <row r="755" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B755" s="24"/>
+      <c r="D755" s="23"/>
+    </row>
+    <row r="756" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B756" s="24"/>
+      <c r="D756" s="23"/>
+    </row>
+    <row r="757" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B757" s="24"/>
+      <c r="D757" s="23"/>
+    </row>
+    <row r="758" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B758" s="24"/>
+      <c r="D758" s="23"/>
+    </row>
+    <row r="759" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B759" s="24"/>
+      <c r="D759" s="23"/>
+    </row>
+    <row r="760" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B760" s="24"/>
+      <c r="D760" s="23"/>
+    </row>
+    <row r="761" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B761" s="24"/>
+      <c r="D761" s="23"/>
+    </row>
+    <row r="762" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B762" s="24"/>
+      <c r="D762" s="23"/>
+    </row>
+    <row r="763" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B763" s="24"/>
+      <c r="D763" s="23"/>
+    </row>
+    <row r="764" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B764" s="24"/>
+      <c r="D764" s="23"/>
+    </row>
+    <row r="765" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B765" s="24"/>
+      <c r="D765" s="23"/>
+    </row>
+    <row r="766" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B766" s="24"/>
+      <c r="D766" s="23"/>
+    </row>
+    <row r="767" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B767" s="24"/>
+      <c r="D767" s="23"/>
+    </row>
+    <row r="768" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B768" s="24"/>
+      <c r="D768" s="23"/>
+    </row>
+    <row r="769" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B769" s="24"/>
+      <c r="D769" s="23"/>
+    </row>
+    <row r="770" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B770" s="24"/>
+      <c r="D770" s="23"/>
+    </row>
+    <row r="771" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B771" s="24"/>
+      <c r="D771" s="23"/>
+    </row>
+    <row r="772" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B772" s="24"/>
+      <c r="D772" s="23"/>
+    </row>
+    <row r="773" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B773" s="24"/>
+      <c r="D773" s="23"/>
+    </row>
+    <row r="774" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B774" s="24"/>
+      <c r="D774" s="23"/>
+    </row>
+    <row r="775" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B775" s="24"/>
+      <c r="D775" s="23"/>
+    </row>
+    <row r="776" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B776" s="24"/>
+      <c r="D776" s="23"/>
+    </row>
+    <row r="777" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B777" s="24"/>
+      <c r="D777" s="23"/>
+    </row>
+    <row r="778" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B778" s="24"/>
+      <c r="D778" s="23"/>
+    </row>
+    <row r="779" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B779" s="24"/>
+      <c r="D779" s="23"/>
+    </row>
+    <row r="780" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B780" s="24"/>
+      <c r="D780" s="23"/>
+    </row>
+    <row r="781" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B781" s="24"/>
+      <c r="D781" s="23"/>
+    </row>
+    <row r="782" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B782" s="24"/>
+      <c r="D782" s="23"/>
+    </row>
+    <row r="783" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B783" s="24"/>
+      <c r="D783" s="23"/>
+    </row>
+    <row r="784" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B784" s="24"/>
+      <c r="D784" s="23"/>
+    </row>
+    <row r="785" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B785" s="24"/>
+      <c r="D785" s="23"/>
+    </row>
+    <row r="786" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B786" s="24"/>
+      <c r="D786" s="23"/>
+    </row>
+    <row r="787" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B787" s="24"/>
+      <c r="D787" s="23"/>
+    </row>
+    <row r="788" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B788" s="24"/>
+      <c r="D788" s="23"/>
+    </row>
+    <row r="789" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B789" s="24"/>
+      <c r="D789" s="23"/>
+    </row>
+    <row r="790" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B790" s="24"/>
+      <c r="D790" s="23"/>
+    </row>
+    <row r="791" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B791" s="24"/>
+      <c r="D791" s="23"/>
+    </row>
+    <row r="792" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B792" s="24"/>
+      <c r="D792" s="23"/>
+    </row>
+    <row r="793" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B793" s="24"/>
+      <c r="D793" s="23"/>
+    </row>
+    <row r="794" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B794" s="24"/>
+      <c r="D794" s="23"/>
+    </row>
+    <row r="795" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B795" s="24"/>
+      <c r="D795" s="23"/>
+    </row>
+    <row r="796" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B796" s="24"/>
+      <c r="D796" s="23"/>
+    </row>
+    <row r="797" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B797" s="24"/>
+      <c r="D797" s="23"/>
+    </row>
+    <row r="798" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B798" s="24"/>
+      <c r="D798" s="23"/>
+    </row>
+    <row r="799" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B799" s="24"/>
+      <c r="D799" s="23"/>
+    </row>
+    <row r="800" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B800" s="24"/>
+      <c r="D800" s="23"/>
+    </row>
+    <row r="801" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B801" s="24"/>
+      <c r="D801" s="23"/>
+    </row>
+    <row r="802" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B802" s="24"/>
+      <c r="D802" s="23"/>
+    </row>
+    <row r="803" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B803" s="24"/>
+      <c r="D803" s="23"/>
+    </row>
+    <row r="804" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B804" s="24"/>
+      <c r="D804" s="23"/>
+    </row>
+    <row r="805" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B805" s="24"/>
+      <c r="D805" s="23"/>
+    </row>
+    <row r="806" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B806" s="24"/>
+      <c r="D806" s="23"/>
+    </row>
+    <row r="807" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B807" s="24"/>
+      <c r="D807" s="23"/>
+    </row>
+    <row r="808" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B808" s="24"/>
+      <c r="D808" s="23"/>
+    </row>
+    <row r="809" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B809" s="24"/>
+      <c r="D809" s="23"/>
+    </row>
+    <row r="810" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B810" s="24"/>
+      <c r="D810" s="23"/>
+    </row>
+    <row r="811" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B811" s="24"/>
+      <c r="D811" s="23"/>
+    </row>
+    <row r="812" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B812" s="24"/>
+      <c r="D812" s="23"/>
+    </row>
+    <row r="813" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B813" s="24"/>
+      <c r="D813" s="23"/>
+    </row>
+    <row r="814" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B814" s="24"/>
+      <c r="D814" s="23"/>
+    </row>
+    <row r="815" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B815" s="24"/>
+      <c r="D815" s="23"/>
+    </row>
+    <row r="816" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B816" s="24"/>
+      <c r="D816" s="23"/>
+    </row>
+    <row r="817" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B817" s="24"/>
+      <c r="D817" s="23"/>
+    </row>
+    <row r="818" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B818" s="24"/>
+      <c r="D818" s="23"/>
+    </row>
+    <row r="819" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B819" s="24"/>
+      <c r="D819" s="23"/>
+    </row>
+    <row r="820" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B820" s="24"/>
+      <c r="D820" s="23"/>
+    </row>
+    <row r="821" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B821" s="24"/>
+      <c r="D821" s="23"/>
+    </row>
+    <row r="822" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B822" s="24"/>
+      <c r="D822" s="23"/>
+    </row>
+    <row r="823" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B823" s="24"/>
+      <c r="D823" s="23"/>
+    </row>
+    <row r="824" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B824" s="24"/>
+      <c r="D824" s="23"/>
+    </row>
+    <row r="825" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B825" s="24"/>
+      <c r="D825" s="23"/>
+    </row>
+    <row r="826" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B826" s="24"/>
+      <c r="D826" s="23"/>
+    </row>
+    <row r="827" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B827" s="24"/>
+      <c r="D827" s="23"/>
+    </row>
+    <row r="828" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B828" s="24"/>
+      <c r="D828" s="23"/>
+    </row>
+    <row r="829" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B829" s="24"/>
+      <c r="D829" s="23"/>
+    </row>
+    <row r="830" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B830" s="24"/>
+      <c r="D830" s="23"/>
+    </row>
+    <row r="831" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B831" s="24"/>
+      <c r="D831" s="23"/>
+    </row>
+    <row r="832" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B832" s="24"/>
+      <c r="D832" s="23"/>
+    </row>
+    <row r="833" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B833" s="24"/>
+      <c r="D833" s="23"/>
+    </row>
+    <row r="834" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B834" s="24"/>
+      <c r="D834" s="23"/>
+    </row>
+    <row r="835" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B835" s="24"/>
+      <c r="D835" s="23"/>
+    </row>
+    <row r="836" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B836" s="24"/>
+      <c r="D836" s="23"/>
+    </row>
+    <row r="837" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B837" s="24"/>
+      <c r="D837" s="23"/>
+    </row>
+    <row r="838" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B838" s="24"/>
+      <c r="D838" s="23"/>
+    </row>
+    <row r="839" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B839" s="24"/>
+      <c r="D839" s="23"/>
+    </row>
+    <row r="840" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B840" s="24"/>
+      <c r="D840" s="23"/>
+    </row>
+    <row r="841" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B841" s="24"/>
+      <c r="D841" s="23"/>
+    </row>
+    <row r="842" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B842" s="24"/>
+      <c r="D842" s="23"/>
+    </row>
+    <row r="843" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B843" s="24"/>
+      <c r="D843" s="23"/>
+    </row>
+    <row r="844" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B844" s="24"/>
+      <c r="D844" s="23"/>
+    </row>
+    <row r="845" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B845" s="24"/>
+      <c r="D845" s="23"/>
+    </row>
+    <row r="846" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B846" s="24"/>
+      <c r="D846" s="23"/>
+    </row>
+    <row r="847" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B847" s="24"/>
+      <c r="D847" s="23"/>
+    </row>
+    <row r="848" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B848" s="24"/>
+      <c r="D848" s="23"/>
+    </row>
+    <row r="849" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B849" s="24"/>
+      <c r="D849" s="23"/>
+    </row>
+    <row r="850" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B850" s="24"/>
+      <c r="D850" s="23"/>
+    </row>
+    <row r="851" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B851" s="24"/>
+      <c r="D851" s="23"/>
+    </row>
+    <row r="852" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B852" s="24"/>
+      <c r="D852" s="23"/>
+    </row>
+    <row r="853" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B853" s="24"/>
+      <c r="D853" s="23"/>
+    </row>
+    <row r="854" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B854" s="24"/>
+      <c r="D854" s="23"/>
+    </row>
+    <row r="855" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B855" s="24"/>
+      <c r="D855" s="23"/>
+    </row>
+    <row r="856" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B856" s="24"/>
+      <c r="D856" s="23"/>
+    </row>
+    <row r="857" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B857" s="24"/>
+      <c r="D857" s="23"/>
+    </row>
+    <row r="858" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B858" s="24"/>
+      <c r="D858" s="23"/>
+    </row>
+    <row r="859" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B859" s="24"/>
+      <c r="D859" s="23"/>
+    </row>
+    <row r="860" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B860" s="24"/>
+      <c r="D860" s="23"/>
+    </row>
+    <row r="861" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B861" s="24"/>
+      <c r="D861" s="23"/>
+    </row>
+    <row r="862" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B862" s="24"/>
+      <c r="D862" s="23"/>
+    </row>
+    <row r="863" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B863" s="24"/>
+      <c r="D863" s="23"/>
+    </row>
+    <row r="864" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B864" s="24"/>
+      <c r="D864" s="23"/>
+    </row>
+    <row r="865" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B865" s="24"/>
+      <c r="D865" s="23"/>
+    </row>
+    <row r="866" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B866" s="24"/>
+      <c r="D866" s="23"/>
+    </row>
+    <row r="867" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B867" s="24"/>
+      <c r="D867" s="23"/>
+    </row>
+    <row r="868" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B868" s="24"/>
+      <c r="D868" s="23"/>
+    </row>
+    <row r="869" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B869" s="24"/>
+      <c r="D869" s="23"/>
+    </row>
+    <row r="870" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B870" s="24"/>
+      <c r="D870" s="23"/>
+    </row>
+    <row r="871" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B871" s="24"/>
+      <c r="D871" s="23"/>
+    </row>
+    <row r="872" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B872" s="24"/>
+      <c r="D872" s="23"/>
+    </row>
+    <row r="873" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B873" s="24"/>
+      <c r="D873" s="23"/>
+    </row>
+    <row r="874" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B874" s="24"/>
+      <c r="D874" s="23"/>
+    </row>
+    <row r="875" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B875" s="24"/>
+      <c r="D875" s="23"/>
+    </row>
+    <row r="876" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B876" s="24"/>
+      <c r="D876" s="23"/>
+    </row>
+    <row r="877" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B877" s="24"/>
+      <c r="D877" s="23"/>
+    </row>
+    <row r="878" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B878" s="24"/>
+      <c r="D878" s="23"/>
+    </row>
+    <row r="879" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B879" s="24"/>
+      <c r="D879" s="23"/>
+    </row>
+    <row r="880" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B880" s="24"/>
+      <c r="D880" s="23"/>
+    </row>
+    <row r="881" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B881" s="24"/>
+      <c r="D881" s="23"/>
+    </row>
+    <row r="882" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B882" s="24"/>
+      <c r="D882" s="23"/>
+    </row>
+    <row r="883" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B883" s="24"/>
+      <c r="D883" s="23"/>
+    </row>
+    <row r="884" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B884" s="24"/>
+      <c r="D884" s="23"/>
+    </row>
+    <row r="885" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B885" s="24"/>
+      <c r="D885" s="23"/>
+    </row>
+    <row r="886" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B886" s="24"/>
+      <c r="D886" s="23"/>
+    </row>
+    <row r="887" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B887" s="24"/>
+      <c r="D887" s="23"/>
+    </row>
+    <row r="888" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B888" s="24"/>
+      <c r="D888" s="23"/>
+    </row>
+    <row r="889" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B889" s="24"/>
+      <c r="D889" s="23"/>
+    </row>
+    <row r="890" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B890" s="24"/>
+      <c r="D890" s="23"/>
+    </row>
+    <row r="891" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B891" s="24"/>
+      <c r="D891" s="23"/>
+    </row>
+    <row r="892" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B892" s="24"/>
+      <c r="D892" s="23"/>
+    </row>
+    <row r="893" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B893" s="24"/>
+      <c r="D893" s="23"/>
+    </row>
+    <row r="894" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B894" s="24"/>
+      <c r="D894" s="23"/>
+    </row>
+    <row r="895" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B895" s="24"/>
+      <c r="D895" s="23"/>
+    </row>
+    <row r="896" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B896" s="24"/>
+      <c r="D896" s="23"/>
+    </row>
+    <row r="897" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B897" s="24"/>
+      <c r="D897" s="23"/>
+    </row>
+    <row r="898" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B898" s="24"/>
+      <c r="D898" s="23"/>
+    </row>
+    <row r="899" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B899" s="24"/>
+      <c r="D899" s="23"/>
+    </row>
+    <row r="900" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B900" s="24"/>
+      <c r="D900" s="23"/>
+    </row>
+    <row r="901" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B901" s="24"/>
+      <c r="D901" s="23"/>
+    </row>
+    <row r="902" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B902" s="24"/>
+      <c r="D902" s="23"/>
+    </row>
+    <row r="903" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B903" s="24"/>
+      <c r="D903" s="23"/>
+    </row>
+    <row r="904" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B904" s="24"/>
+      <c r="D904" s="23"/>
+    </row>
+    <row r="905" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B905" s="24"/>
+      <c r="D905" s="23"/>
+    </row>
+    <row r="906" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B906" s="24"/>
+      <c r="D906" s="23"/>
+    </row>
+    <row r="907" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B907" s="24"/>
+      <c r="D907" s="23"/>
+    </row>
+    <row r="908" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B908" s="24"/>
+      <c r="D908" s="23"/>
+    </row>
+    <row r="909" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B909" s="24"/>
+      <c r="D909" s="23"/>
+    </row>
+    <row r="910" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B910" s="24"/>
+      <c r="D910" s="23"/>
+    </row>
+    <row r="911" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B911" s="24"/>
+      <c r="D911" s="23"/>
+    </row>
+    <row r="912" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B912" s="24"/>
+      <c r="D912" s="23"/>
+    </row>
+    <row r="913" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B913" s="24"/>
+      <c r="D913" s="23"/>
+    </row>
+    <row r="914" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B914" s="24"/>
+      <c r="D914" s="23"/>
+    </row>
+    <row r="915" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B915" s="24"/>
+      <c r="D915" s="23"/>
+    </row>
+    <row r="916" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B916" s="24"/>
+      <c r="D916" s="23"/>
+    </row>
+    <row r="917" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B917" s="24"/>
+      <c r="D917" s="23"/>
+    </row>
+    <row r="918" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B918" s="24"/>
+      <c r="D918" s="23"/>
+    </row>
+    <row r="919" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B919" s="24"/>
+      <c r="D919" s="23"/>
+    </row>
+    <row r="920" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B920" s="24"/>
+      <c r="D920" s="23"/>
+    </row>
+    <row r="921" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B921" s="24"/>
+      <c r="D921" s="23"/>
+    </row>
+    <row r="922" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B922" s="24"/>
+      <c r="D922" s="23"/>
+    </row>
+    <row r="923" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B923" s="24"/>
+      <c r="D923" s="23"/>
+    </row>
+    <row r="924" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B924" s="24"/>
+      <c r="D924" s="23"/>
+    </row>
+    <row r="925" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B925" s="24"/>
+      <c r="D925" s="23"/>
+    </row>
+    <row r="926" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B926" s="24"/>
+      <c r="D926" s="23"/>
+    </row>
+    <row r="927" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B927" s="24"/>
+      <c r="D927" s="23"/>
+    </row>
+    <row r="928" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B928" s="24"/>
+      <c r="D928" s="23"/>
+    </row>
+    <row r="929" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B929" s="24"/>
+      <c r="D929" s="23"/>
+    </row>
+    <row r="930" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B930" s="24"/>
+      <c r="D930" s="23"/>
+    </row>
+    <row r="931" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B931" s="24"/>
+      <c r="D931" s="23"/>
+    </row>
+    <row r="932" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B932" s="24"/>
+      <c r="D932" s="23"/>
+    </row>
+    <row r="933" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B933" s="24"/>
+      <c r="D933" s="23"/>
+    </row>
+    <row r="934" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B934" s="24"/>
+      <c r="D934" s="23"/>
+    </row>
+    <row r="935" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B935" s="24"/>
+      <c r="D935" s="23"/>
+    </row>
+    <row r="936" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B936" s="24"/>
+      <c r="D936" s="23"/>
+    </row>
+    <row r="937" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B937" s="24"/>
+      <c r="D937" s="23"/>
+    </row>
+    <row r="938" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B938" s="24"/>
+      <c r="D938" s="23"/>
+    </row>
+    <row r="939" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B939" s="24"/>
+      <c r="D939" s="23"/>
+    </row>
+    <row r="940" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B940" s="24"/>
+      <c r="D940" s="23"/>
+    </row>
+    <row r="941" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B941" s="24"/>
+      <c r="D941" s="23"/>
+    </row>
+    <row r="942" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B942" s="24"/>
+      <c r="D942" s="23"/>
+    </row>
+    <row r="943" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B943" s="24"/>
+      <c r="D943" s="23"/>
+    </row>
+    <row r="944" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B944" s="24"/>
+      <c r="D944" s="23"/>
+    </row>
+    <row r="945" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B945" s="24"/>
+      <c r="D945" s="23"/>
+    </row>
+    <row r="946" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B946" s="24"/>
+      <c r="D946" s="23"/>
+    </row>
+    <row r="947" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B947" s="24"/>
+      <c r="D947" s="23"/>
+    </row>
+    <row r="948" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B948" s="24"/>
+      <c r="D948" s="23"/>
+    </row>
+    <row r="949" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B949" s="24"/>
+      <c r="D949" s="23"/>
+    </row>
+    <row r="950" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B950" s="24"/>
+      <c r="D950" s="23"/>
+    </row>
+    <row r="951" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B951" s="24"/>
+      <c r="D951" s="23"/>
+    </row>
+    <row r="952" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B952" s="24"/>
+      <c r="D952" s="23"/>
+    </row>
+    <row r="953" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B953" s="24"/>
+      <c r="D953" s="23"/>
+    </row>
+    <row r="954" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B954" s="24"/>
+      <c r="D954" s="23"/>
+    </row>
+    <row r="955" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B955" s="24"/>
+      <c r="D955" s="23"/>
+    </row>
+    <row r="956" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B956" s="24"/>
+      <c r="D956" s="23"/>
+    </row>
+    <row r="957" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B957" s="24"/>
+      <c r="D957" s="23"/>
+    </row>
+    <row r="958" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B958" s="24"/>
+      <c r="D958" s="23"/>
+    </row>
+    <row r="959" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B959" s="24"/>
+      <c r="D959" s="23"/>
+    </row>
+    <row r="960" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B960" s="24"/>
+      <c r="D960" s="23"/>
+    </row>
+    <row r="961" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B961" s="24"/>
+      <c r="D961" s="23"/>
+    </row>
+    <row r="962" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B962" s="24"/>
+      <c r="D962" s="23"/>
+    </row>
+    <row r="963" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B963" s="24"/>
+      <c r="D963" s="23"/>
+    </row>
+    <row r="964" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B964" s="24"/>
+      <c r="D964" s="23"/>
+    </row>
+    <row r="965" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B965" s="24"/>
+      <c r="D965" s="23"/>
+    </row>
+    <row r="966" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B966" s="24"/>
+      <c r="D966" s="23"/>
+    </row>
+    <row r="967" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B967" s="24"/>
+      <c r="D967" s="23"/>
+    </row>
+    <row r="968" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B968" s="24"/>
+      <c r="D968" s="23"/>
+    </row>
+    <row r="969" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B969" s="24"/>
+      <c r="D969" s="23"/>
+    </row>
+    <row r="970" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B970" s="24"/>
+      <c r="D970" s="23"/>
+    </row>
+    <row r="971" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B971" s="24"/>
+      <c r="D971" s="23"/>
+    </row>
+    <row r="972" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B972" s="24"/>
+      <c r="D972" s="23"/>
+    </row>
+    <row r="973" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B973" s="24"/>
+      <c r="D973" s="23"/>
+    </row>
+    <row r="974" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B974" s="24"/>
+      <c r="D974" s="23"/>
+    </row>
+    <row r="975" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B975" s="24"/>
+      <c r="D975" s="23"/>
+    </row>
+    <row r="976" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B976" s="24"/>
+      <c r="D976" s="23"/>
+    </row>
+    <row r="977" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B977" s="24"/>
+      <c r="D977" s="23"/>
+    </row>
+    <row r="978" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B978" s="24"/>
+      <c r="D978" s="23"/>
+    </row>
+    <row r="979" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B979" s="24"/>
+      <c r="D979" s="23"/>
+    </row>
+    <row r="980" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B980" s="24"/>
+      <c r="D980" s="23"/>
+    </row>
+    <row r="981" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B981" s="24"/>
+      <c r="D981" s="23"/>
+    </row>
+    <row r="982" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B982" s="24"/>
+      <c r="D982" s="23"/>
+    </row>
+    <row r="983" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B983" s="24"/>
+      <c r="D983" s="23"/>
+    </row>
+    <row r="984" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B984" s="24"/>
+      <c r="D984" s="23"/>
+    </row>
+    <row r="985" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B985" s="24"/>
+      <c r="D985" s="23"/>
+    </row>
+    <row r="986" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B986" s="24"/>
+      <c r="D986" s="23"/>
+    </row>
+    <row r="987" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B987" s="24"/>
+      <c r="D987" s="23"/>
+    </row>
+    <row r="988" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B988" s="24"/>
+      <c r="D988" s="23"/>
+    </row>
+    <row r="989" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B989" s="24"/>
+      <c r="D989" s="23"/>
+    </row>
+    <row r="990" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B990" s="24"/>
+      <c r="D990" s="23"/>
+    </row>
+    <row r="991" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B991" s="24"/>
+      <c r="D991" s="23"/>
+    </row>
+    <row r="992" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B992" s="24"/>
+      <c r="D992" s="23"/>
+    </row>
+    <row r="993" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B993" s="24"/>
+      <c r="D993" s="23"/>
+    </row>
+    <row r="994" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B994" s="24"/>
+      <c r="D994" s="23"/>
+    </row>
+    <row r="995" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B995" s="24"/>
+      <c r="D995" s="23"/>
+    </row>
+    <row r="996" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B996" s="24"/>
+      <c r="D996" s="23"/>
+    </row>
+    <row r="997" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B997" s="24"/>
+      <c r="D997" s="23"/>
+    </row>
+    <row r="998" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B998" s="24"/>
+      <c r="D998" s="23"/>
+    </row>
+    <row r="999" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B999" s="24"/>
+      <c r="D999" s="23"/>
+    </row>
+    <row r="1000" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1000" s="24"/>
+      <c r="D1000" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/CH-146 Column Splitting.xlsx
+++ b/CH-146 Column Splitting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1CF52E-C082-4CD6-9B1F-0C4A3FE3483C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA7743F-AC9E-406E-B975-390DF0AA1D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -475,14 +475,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,6 +856,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -890,11 +893,11 @@
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
@@ -5149,8 +5152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D50C197-AE97-4D02-A9C4-400F45DD5EA4}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5170,11 +5173,11 @@
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
@@ -5473,6 +5476,10 @@
       <c r="D12" s="23" t="str">
         <v/>
       </c>
+      <c r="G12" t="str" cm="1">
+        <f t="array" ref="G12">_xlfn.TEXTJOIN(",", 1, B3:B8 &amp; "|00")</f>
+        <v>AX|12|00,A|X|21|00,RSN|2|00,FF|22|00,RQ|1|221|00,O22|OO|00</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="str">
@@ -5495,6 +5502,19 @@
       <c r="D14" s="23" t="str">
         <v/>
       </c>
+      <c r="G14" t="str" cm="1">
+        <f t="array" ref="G14:J19">_xlfn.TEXTSPLIT(G12,"|",",")</f>
+        <v>AX</v>
+      </c>
+      <c r="H14" t="str">
+        <v>12</v>
+      </c>
+      <c r="I14" t="str">
+        <v>00</v>
+      </c>
+      <c r="J14" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="str">
@@ -5506,6 +5526,18 @@
       <c r="D15" s="23" t="str">
         <v/>
       </c>
+      <c r="G15" t="str">
+        <v>A</v>
+      </c>
+      <c r="H15" t="str">
+        <v>X</v>
+      </c>
+      <c r="I15" t="str">
+        <v>21</v>
+      </c>
+      <c r="J15" t="str">
+        <v>00</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="str">
@@ -5517,8 +5549,20 @@
       <c r="D16" s="23" t="str">
         <v>RQ1221</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <v>RSN</v>
+      </c>
+      <c r="H16" t="str">
+        <v>2</v>
+      </c>
+      <c r="I16" t="str">
+        <v>00</v>
+      </c>
+      <c r="J16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="str">
         <v>O22</v>
       </c>
@@ -5528,128 +5572,292 @@
       <c r="D17" s="23" t="str">
         <v/>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <v>FF</v>
+      </c>
+      <c r="H17" t="str">
+        <v>22</v>
+      </c>
+      <c r="I17" t="str">
+        <v>00</v>
+      </c>
+      <c r="J17" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24"/>
       <c r="D18" s="23"/>
-    </row>
-    <row r="19" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <v>RQ</v>
+      </c>
+      <c r="H18" t="str">
+        <v>1</v>
+      </c>
+      <c r="I18" t="str">
+        <v>221</v>
+      </c>
+      <c r="J18" t="str">
+        <v>00</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24"/>
       <c r="D19" s="23"/>
-    </row>
-    <row r="20" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <v>O22</v>
+      </c>
+      <c r="H19" t="str">
+        <v>OO</v>
+      </c>
+      <c r="I19" t="str">
+        <v>00</v>
+      </c>
+      <c r="J19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24"/>
       <c r="D20" s="23"/>
     </row>
-    <row r="21" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24"/>
       <c r="D21" s="23"/>
-    </row>
-    <row r="22" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" t="str" cm="1">
+        <f t="array" ref="G21:J26">_xlfn.IFNA(_xlfn.ANCHORARRAY(G14),"00")</f>
+        <v>AX</v>
+      </c>
+      <c r="H21" t="str">
+        <v>12</v>
+      </c>
+      <c r="I21" t="str">
+        <v>00</v>
+      </c>
+      <c r="J21" t="str">
+        <v>00</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="24"/>
       <c r="D22" s="23"/>
-    </row>
-    <row r="23" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" t="str">
+        <v>A</v>
+      </c>
+      <c r="H22" t="str">
+        <v>X</v>
+      </c>
+      <c r="I22" t="str">
+        <v>21</v>
+      </c>
+      <c r="J22" t="str">
+        <v>00</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="24"/>
       <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" t="str">
+        <v>RSN</v>
+      </c>
+      <c r="H23" t="str">
+        <v>2</v>
+      </c>
+      <c r="I23" t="str">
+        <v>00</v>
+      </c>
+      <c r="J23" t="str">
+        <v>00</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="24"/>
       <c r="D24" s="23"/>
-    </row>
-    <row r="25" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" t="str">
+        <v>FF</v>
+      </c>
+      <c r="H24" t="str">
+        <v>22</v>
+      </c>
+      <c r="I24" t="str">
+        <v>00</v>
+      </c>
+      <c r="J24" t="str">
+        <v>00</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="24"/>
       <c r="D25" s="23"/>
-    </row>
-    <row r="26" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" t="str">
+        <v>RQ</v>
+      </c>
+      <c r="H25" t="str">
+        <v>1</v>
+      </c>
+      <c r="I25" t="str">
+        <v>221</v>
+      </c>
+      <c r="J25" t="str">
+        <v>00</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24"/>
       <c r="D26" s="23"/>
-    </row>
-    <row r="27" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" t="str">
+        <v>O22</v>
+      </c>
+      <c r="H26" t="str">
+        <v>OO</v>
+      </c>
+      <c r="I26" t="str">
+        <v>00</v>
+      </c>
+      <c r="J26" t="str">
+        <v>00</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24"/>
       <c r="D27" s="23"/>
     </row>
-    <row r="28" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24"/>
       <c r="D28" s="23"/>
-    </row>
-    <row r="29" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" t="str" cm="1">
+        <f t="array" ref="G28:I33">_xlfn.DROP(_xlfn.SCAN(,_xlfn.ANCHORARRAY( G21), _xlfn.LAMBDA(_xlpm.x,_xlpm.y, IF(_xlpm.y = "00", "", _xlpm.x &amp; _xlpm.y))), , -1)</f>
+        <v>AX</v>
+      </c>
+      <c r="H28" t="str">
+        <v>AX12</v>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24"/>
       <c r="D29" s="23"/>
-    </row>
-    <row r="30" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" t="str">
+        <v>A</v>
+      </c>
+      <c r="H29" t="str">
+        <v>AX</v>
+      </c>
+      <c r="I29" t="str">
+        <v>AX21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24"/>
       <c r="D30" s="23"/>
-    </row>
-    <row r="31" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" t="str">
+        <v>RSN</v>
+      </c>
+      <c r="H30" t="str">
+        <v>RSN2</v>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24"/>
       <c r="D31" s="23"/>
-    </row>
-    <row r="32" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" t="str">
+        <v>FF</v>
+      </c>
+      <c r="H31" t="str">
+        <v>FF22</v>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24"/>
       <c r="D32" s="23"/>
-    </row>
-    <row r="33" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" t="str">
+        <v>RQ</v>
+      </c>
+      <c r="H32" t="str">
+        <v>RQ1</v>
+      </c>
+      <c r="I32" t="str">
+        <v>RQ1221</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24"/>
       <c r="D33" s="23"/>
-    </row>
-    <row r="34" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" t="str">
+        <v>O22</v>
+      </c>
+      <c r="H33" t="str">
+        <v>O22OO</v>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="24"/>
       <c r="D34" s="23"/>
     </row>
-    <row r="35" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="24"/>
       <c r="D35" s="23"/>
     </row>
-    <row r="36" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="24"/>
       <c r="D36" s="23"/>
     </row>
-    <row r="37" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="24"/>
       <c r="D37" s="23"/>
     </row>
-    <row r="38" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="24"/>
       <c r="D38" s="23"/>
     </row>
-    <row r="39" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="24"/>
       <c r="D39" s="23"/>
     </row>
-    <row r="40" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="24"/>
       <c r="D40" s="23"/>
     </row>
-    <row r="41" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="24"/>
       <c r="D41" s="23"/>
     </row>
-    <row r="42" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="24"/>
       <c r="D42" s="23"/>
     </row>
-    <row r="43" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="24"/>
       <c r="D43" s="23"/>
     </row>
-    <row r="44" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="24"/>
       <c r="D44" s="23"/>
     </row>
-    <row r="45" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="24"/>
       <c r="D45" s="23"/>
     </row>
-    <row r="46" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="24"/>
       <c r="D46" s="23"/>
     </row>
-    <row r="47" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="24"/>
       <c r="D47" s="23"/>
     </row>
-    <row r="48" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="24"/>
       <c r="D48" s="23"/>
     </row>
@@ -9474,7 +9682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2867DA9C-07EB-46D9-8A03-179077CAE408}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -9495,11 +9703,11 @@
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
@@ -9782,7 +9990,7 @@
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="9"/>
       <c r="D12" s="23"/>
     </row>

--- a/CH-146 Column Splitting.xlsx
+++ b/CH-146 Column Splitting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA7743F-AC9E-406E-B975-390DF0AA1D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B292D30A-20DB-4C98-B15C-152792E004CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="27">
   <si>
     <t>Question</t>
   </si>
@@ -139,6 +139,9 @@
   <si>
     <t>https://www.linkedin.com/in/omid-motamedisedeh-74aba166/recent-activity/all/</t>
   </si>
+  <si>
+    <t>What to learn here: TEXTSPLIT won't don’t a column. So he converts a column to a row and then splits it.</t>
+  </si>
 </sst>
 </file>
 
@@ -147,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +193,13 @@
       <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -409,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -483,6 +493,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5152,8 +5163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D50C197-AE97-4D02-A9C4-400F45DD5EA4}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5451,6 +5462,9 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="23"/>
+      <c r="G10" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5515,6 +5529,10 @@
       <c r="J14" t="e">
         <v>#N/A</v>
       </c>
+      <c r="N14" t="str" cm="1">
+        <f t="array" ref="N14:N19">B3:B8 &amp; "|00"</f>
+        <v>AX|12|00</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="str">
@@ -5538,6 +5556,9 @@
       <c r="J15" t="str">
         <v>00</v>
       </c>
+      <c r="N15" t="str">
+        <v>A|X|21|00</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="str">
@@ -5561,8 +5582,11 @@
       <c r="J16" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N16" t="str">
+        <v>RSN|2|00</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="str">
         <v>O22</v>
       </c>
@@ -5584,8 +5608,11 @@
       <c r="J17" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N17" t="str">
+        <v>FF|22|00</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24"/>
       <c r="D18" s="23"/>
       <c r="G18" t="str">
@@ -5600,8 +5627,11 @@
       <c r="J18" t="str">
         <v>00</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N18" t="str">
+        <v>RQ|1|221|00</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24"/>
       <c r="D19" s="23"/>
       <c r="G19" t="str">
@@ -5616,12 +5646,15 @@
       <c r="J19" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N19" t="str">
+        <v>O22|OO|00</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24"/>
       <c r="D20" s="23"/>
     </row>
-    <row r="21" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="24"/>
       <c r="D21" s="23"/>
       <c r="G21" t="str" cm="1">
@@ -5638,7 +5671,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="24"/>
       <c r="D22" s="23"/>
       <c r="G22" t="str">
@@ -5654,7 +5687,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="24"/>
       <c r="D23" s="23"/>
       <c r="G23" t="str">
@@ -5670,7 +5703,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="24"/>
       <c r="D24" s="23"/>
       <c r="G24" t="str">
@@ -5686,7 +5719,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="24"/>
       <c r="D25" s="23"/>
       <c r="G25" t="str">
@@ -5702,7 +5735,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="24"/>
       <c r="D26" s="23"/>
       <c r="G26" t="str">
@@ -5718,15 +5751,15 @@
         <v>00</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="24"/>
       <c r="D27" s="23"/>
     </row>
-    <row r="28" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="24"/>
       <c r="D28" s="23"/>
       <c r="G28" t="str" cm="1">
-        <f t="array" ref="G28:I33">_xlfn.DROP(_xlfn.SCAN(,_xlfn.ANCHORARRAY( G21), _xlfn.LAMBDA(_xlpm.x,_xlpm.y, IF(_xlpm.y = "00", "", _xlpm.x &amp; _xlpm.y))), , -1)</f>
+        <f t="array" ref="G28:J33">_xlfn.SCAN(,_xlfn.ANCHORARRAY( G21), _xlfn.LAMBDA(_xlpm.x,_xlpm.y, IF(_xlpm.y = "00", "", _xlpm.x &amp; _xlpm.y)))</f>
         <v>AX</v>
       </c>
       <c r="H28" t="str">
@@ -5735,8 +5768,11 @@
       <c r="I28" t="str">
         <v/>
       </c>
-    </row>
-    <row r="29" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24"/>
       <c r="D29" s="23"/>
       <c r="G29" t="str">
@@ -5748,8 +5784,11 @@
       <c r="I29" t="str">
         <v>AX21</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="24"/>
       <c r="D30" s="23"/>
       <c r="G30" t="str">
@@ -5761,8 +5800,11 @@
       <c r="I30" t="str">
         <v/>
       </c>
-    </row>
-    <row r="31" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="24"/>
       <c r="D31" s="23"/>
       <c r="G31" t="str">
@@ -5774,8 +5816,11 @@
       <c r="I31" t="str">
         <v/>
       </c>
-    </row>
-    <row r="32" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="24"/>
       <c r="D32" s="23"/>
       <c r="G32" t="str">
@@ -5787,8 +5832,11 @@
       <c r="I32" t="str">
         <v>RQ1221</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="24"/>
       <c r="D33" s="23"/>
       <c r="G33" t="str">
@@ -5800,64 +5848,122 @@
       <c r="I33" t="str">
         <v/>
       </c>
-    </row>
-    <row r="34" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="24"/>
       <c r="D34" s="23"/>
     </row>
-    <row r="35" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="24"/>
       <c r="D35" s="23"/>
-    </row>
-    <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" t="str" cm="1">
+        <f t="array" ref="G35:I40">_xlfn.DROP(_xlfn.ANCHORARRAY(G28),,-1)</f>
+        <v>AX</v>
+      </c>
+      <c r="H35" t="str">
+        <v>AX12</v>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="24"/>
       <c r="D36" s="23"/>
-    </row>
-    <row r="37" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" t="str">
+        <v>A</v>
+      </c>
+      <c r="H36" t="str">
+        <v>AX</v>
+      </c>
+      <c r="I36" t="str">
+        <v>AX21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="24"/>
       <c r="D37" s="23"/>
-    </row>
-    <row r="38" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" t="str">
+        <v>RSN</v>
+      </c>
+      <c r="H37" t="str">
+        <v>RSN2</v>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="24"/>
       <c r="D38" s="23"/>
-    </row>
-    <row r="39" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" t="str">
+        <v>FF</v>
+      </c>
+      <c r="H38" t="str">
+        <v>FF22</v>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="24"/>
       <c r="D39" s="23"/>
-    </row>
-    <row r="40" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" t="str">
+        <v>RQ</v>
+      </c>
+      <c r="H39" t="str">
+        <v>RQ1</v>
+      </c>
+      <c r="I39" t="str">
+        <v>RQ1221</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="24"/>
       <c r="D40" s="23"/>
-    </row>
-    <row r="41" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" t="str">
+        <v>O22</v>
+      </c>
+      <c r="H40" t="str">
+        <v>O22OO</v>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="24"/>
       <c r="D41" s="23"/>
     </row>
-    <row r="42" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="24"/>
       <c r="D42" s="23"/>
     </row>
-    <row r="43" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="24"/>
       <c r="D43" s="23"/>
     </row>
-    <row r="44" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="24"/>
       <c r="D44" s="23"/>
     </row>
-    <row r="45" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="24"/>
       <c r="D45" s="23"/>
     </row>
-    <row r="46" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="24"/>
       <c r="D46" s="23"/>
     </row>
-    <row r="47" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="24"/>
       <c r="D47" s="23"/>
     </row>
-    <row r="48" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="24"/>
       <c r="D48" s="23"/>
     </row>
@@ -9682,8 +9788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2867DA9C-07EB-46D9-8A03-179077CAE408}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
